--- a/backend/templates/168-16c-white.xlsx
+++ b/backend/templates/168-16c-white.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8616920-C28B-4D44-A17C-665028260E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173D1475-FCF7-4A88-98F8-81B84A509EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1952,6 +1952,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2683,6 +2686,14 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2777,17 +2788,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7641,671 +7641,671 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
       <c r="M1" s="57"/>
-      <c r="N1" s="165" t="s">
+      <c r="N1" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="165"/>
+      <c r="O1" s="166"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
       <c r="M2" s="58"/>
-      <c r="N2" s="166" t="s">
+      <c r="N2" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="166"/>
+      <c r="O2" s="167"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="156"/>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
+      <c r="A3" s="157"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="157"/>
       <c r="M3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
     </row>
     <row r="4" spans="1:15" s="61" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="157"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="161" t="s">
+      <c r="B4" s="158"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="162"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="171"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="172"/>
       <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="157"/>
-      <c r="K4" s="171"/>
-      <c r="L4" s="161" t="s">
+      <c r="J4" s="158"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="162"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="158"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="158"/>
+      <c r="O4" s="159"/>
     </row>
     <row r="5" spans="1:15" s="61" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="159"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="163" t="s">
+      <c r="B5" s="160"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="164"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="173"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="174"/>
       <c r="I5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="174"/>
-      <c r="K5" s="175"/>
-      <c r="L5" s="163" t="s">
+      <c r="J5" s="175"/>
+      <c r="K5" s="176"/>
+      <c r="L5" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="164"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="160"/>
+      <c r="M5" s="165"/>
+      <c r="N5" s="160"/>
+      <c r="O5" s="161"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="197"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="198"/>
-      <c r="J6" s="196"/>
-      <c r="K6" s="196"/>
-      <c r="L6" s="196"/>
-      <c r="M6" s="197"/>
-      <c r="N6" s="167"/>
-      <c r="O6" s="199"/>
+      <c r="B6" s="197"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="198"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="199"/>
+      <c r="J6" s="197"/>
+      <c r="K6" s="197"/>
+      <c r="L6" s="197"/>
+      <c r="M6" s="198"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="200"/>
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A7" s="204" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="203"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="200" t="s">
+      <c r="A7" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="201"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="200" t="s">
+      <c r="E7" s="202"/>
+      <c r="F7" s="203"/>
+      <c r="G7" s="201" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="201"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="203" t="s">
+      <c r="H7" s="202"/>
+      <c r="I7" s="203"/>
+      <c r="J7" s="204" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="203"/>
-      <c r="L7" s="203"/>
-      <c r="M7" s="200" t="s">
+      <c r="K7" s="204"/>
+      <c r="L7" s="204"/>
+      <c r="M7" s="201" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="201"/>
-      <c r="O7" s="205"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="206"/>
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1">
       <c r="A8" s="42"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="176"/>
-      <c r="K8" s="177"/>
-      <c r="L8" s="178"/>
-      <c r="M8" s="179"/>
-      <c r="N8" s="180"/>
-      <c r="O8" s="181"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="179"/>
+      <c r="M8" s="180"/>
+      <c r="N8" s="181"/>
+      <c r="O8" s="182"/>
     </row>
     <row r="9" spans="1:15" ht="19.5" customHeight="1">
       <c r="A9" s="42"/>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
-      <c r="D9" s="192"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="194"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="190"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="186"/>
-      <c r="K9" s="187"/>
-      <c r="L9" s="188"/>
-      <c r="M9" s="192"/>
-      <c r="N9" s="193"/>
-      <c r="O9" s="206"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="195"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="191"/>
+      <c r="I9" s="192"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="188"/>
+      <c r="L9" s="189"/>
+      <c r="M9" s="193"/>
+      <c r="N9" s="194"/>
+      <c r="O9" s="207"/>
     </row>
     <row r="10" spans="1:15" ht="19.5" customHeight="1">
       <c r="A10" s="42"/>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="182"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="184"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="176"/>
-      <c r="K10" s="177"/>
-      <c r="L10" s="178"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="181"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="179"/>
+      <c r="M10" s="180"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="182"/>
     </row>
     <row r="11" spans="1:15" ht="19.5" customHeight="1">
       <c r="A11" s="44"/>
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="182"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="185"/>
-      <c r="J11" s="176"/>
-      <c r="K11" s="177"/>
-      <c r="L11" s="178"/>
-      <c r="M11" s="179"/>
-      <c r="N11" s="180"/>
-      <c r="O11" s="181"/>
+      <c r="D11" s="180"/>
+      <c r="E11" s="181"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="186"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="179"/>
+      <c r="M11" s="180"/>
+      <c r="N11" s="181"/>
+      <c r="O11" s="182"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" customHeight="1">
       <c r="A12" s="45"/>
       <c r="B12" s="46"/>
       <c r="C12" s="46"/>
-      <c r="D12" s="192"/>
-      <c r="E12" s="193"/>
-      <c r="F12" s="194"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="190"/>
-      <c r="I12" s="191"/>
-      <c r="J12" s="186"/>
-      <c r="K12" s="187"/>
-      <c r="L12" s="188"/>
-      <c r="M12" s="192"/>
-      <c r="N12" s="193"/>
-      <c r="O12" s="206"/>
+      <c r="D12" s="193"/>
+      <c r="E12" s="194"/>
+      <c r="F12" s="195"/>
+      <c r="G12" s="190"/>
+      <c r="H12" s="191"/>
+      <c r="I12" s="192"/>
+      <c r="J12" s="187"/>
+      <c r="K12" s="188"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="193"/>
+      <c r="N12" s="194"/>
+      <c r="O12" s="207"/>
     </row>
     <row r="13" spans="1:15" ht="19.5" customHeight="1">
       <c r="A13" s="42"/>
       <c r="B13" s="43"/>
       <c r="C13" s="43"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="180"/>
-      <c r="F13" s="182"/>
-      <c r="G13" s="183"/>
-      <c r="H13" s="184"/>
-      <c r="I13" s="185"/>
-      <c r="J13" s="176"/>
-      <c r="K13" s="177"/>
-      <c r="L13" s="178"/>
-      <c r="M13" s="179"/>
-      <c r="N13" s="180"/>
-      <c r="O13" s="181"/>
+      <c r="D13" s="180"/>
+      <c r="E13" s="181"/>
+      <c r="F13" s="183"/>
+      <c r="G13" s="184"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="186"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="178"/>
+      <c r="L13" s="179"/>
+      <c r="M13" s="180"/>
+      <c r="N13" s="181"/>
+      <c r="O13" s="182"/>
     </row>
     <row r="14" spans="1:15" ht="19.5" customHeight="1">
       <c r="A14" s="42"/>
       <c r="B14" s="43"/>
       <c r="C14" s="43"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="182"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="184"/>
-      <c r="I14" s="185"/>
-      <c r="J14" s="176"/>
-      <c r="K14" s="177"/>
-      <c r="L14" s="178"/>
-      <c r="M14" s="179"/>
-      <c r="N14" s="180"/>
-      <c r="O14" s="181"/>
+      <c r="D14" s="180"/>
+      <c r="E14" s="181"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="184"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="186"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="178"/>
+      <c r="L14" s="179"/>
+      <c r="M14" s="180"/>
+      <c r="N14" s="181"/>
+      <c r="O14" s="182"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" customHeight="1">
       <c r="A15" s="42"/>
       <c r="B15" s="43"/>
       <c r="C15" s="43"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="176"/>
-      <c r="K15" s="177"/>
-      <c r="L15" s="178"/>
-      <c r="M15" s="179"/>
-      <c r="N15" s="180"/>
-      <c r="O15" s="181"/>
+      <c r="D15" s="180"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="178"/>
+      <c r="L15" s="179"/>
+      <c r="M15" s="180"/>
+      <c r="N15" s="181"/>
+      <c r="O15" s="182"/>
     </row>
     <row r="16" spans="1:15" ht="19.5" customHeight="1">
       <c r="A16" s="42"/>
       <c r="B16" s="43"/>
       <c r="C16" s="43"/>
-      <c r="D16" s="192"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="189"/>
-      <c r="H16" s="190"/>
-      <c r="I16" s="191"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="187"/>
-      <c r="L16" s="188"/>
-      <c r="M16" s="192"/>
-      <c r="N16" s="193"/>
-      <c r="O16" s="206"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="195"/>
+      <c r="G16" s="190"/>
+      <c r="H16" s="191"/>
+      <c r="I16" s="192"/>
+      <c r="J16" s="187"/>
+      <c r="K16" s="188"/>
+      <c r="L16" s="189"/>
+      <c r="M16" s="193"/>
+      <c r="N16" s="194"/>
+      <c r="O16" s="207"/>
     </row>
     <row r="17" spans="1:15" ht="19.5" customHeight="1">
       <c r="A17" s="42"/>
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
-      <c r="D17" s="179"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="182"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="184"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="176"/>
-      <c r="K17" s="177"/>
-      <c r="L17" s="178"/>
-      <c r="M17" s="179"/>
-      <c r="N17" s="180"/>
-      <c r="O17" s="181"/>
+      <c r="D17" s="180"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="183"/>
+      <c r="G17" s="184"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="186"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="178"/>
+      <c r="L17" s="179"/>
+      <c r="M17" s="180"/>
+      <c r="N17" s="181"/>
+      <c r="O17" s="182"/>
     </row>
     <row r="18" spans="1:15" ht="19.5" customHeight="1">
       <c r="A18" s="42"/>
       <c r="B18" s="43"/>
       <c r="C18" s="43"/>
-      <c r="D18" s="179"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="182"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="184"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="176"/>
-      <c r="K18" s="177"/>
-      <c r="L18" s="178"/>
-      <c r="M18" s="179"/>
-      <c r="N18" s="180"/>
-      <c r="O18" s="181"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="181"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="186"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="178"/>
+      <c r="L18" s="179"/>
+      <c r="M18" s="180"/>
+      <c r="N18" s="181"/>
+      <c r="O18" s="182"/>
     </row>
     <row r="19" spans="1:15" ht="19.5" customHeight="1">
       <c r="A19" s="42"/>
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
-      <c r="D19" s="192"/>
-      <c r="E19" s="193"/>
-      <c r="F19" s="194"/>
-      <c r="G19" s="189"/>
-      <c r="H19" s="190"/>
-      <c r="I19" s="191"/>
-      <c r="J19" s="186"/>
-      <c r="K19" s="187"/>
-      <c r="L19" s="188"/>
-      <c r="M19" s="192"/>
-      <c r="N19" s="193"/>
-      <c r="O19" s="206"/>
+      <c r="D19" s="193"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="195"/>
+      <c r="G19" s="190"/>
+      <c r="H19" s="191"/>
+      <c r="I19" s="192"/>
+      <c r="J19" s="187"/>
+      <c r="K19" s="188"/>
+      <c r="L19" s="189"/>
+      <c r="M19" s="193"/>
+      <c r="N19" s="194"/>
+      <c r="O19" s="207"/>
     </row>
     <row r="20" spans="1:15" ht="19.5" customHeight="1">
       <c r="A20" s="42"/>
       <c r="B20" s="43"/>
       <c r="C20" s="43"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="182"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="184"/>
-      <c r="I20" s="185"/>
-      <c r="J20" s="176"/>
-      <c r="K20" s="177"/>
-      <c r="L20" s="178"/>
-      <c r="M20" s="179"/>
-      <c r="N20" s="180"/>
-      <c r="O20" s="181"/>
+      <c r="D20" s="180"/>
+      <c r="E20" s="181"/>
+      <c r="F20" s="183"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="185"/>
+      <c r="I20" s="186"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="178"/>
+      <c r="L20" s="179"/>
+      <c r="M20" s="180"/>
+      <c r="N20" s="181"/>
+      <c r="O20" s="182"/>
     </row>
     <row r="21" spans="1:15" ht="19.5" customHeight="1">
       <c r="A21" s="42"/>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="182"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="184"/>
-      <c r="I21" s="185"/>
-      <c r="J21" s="176"/>
-      <c r="K21" s="177"/>
-      <c r="L21" s="178"/>
-      <c r="M21" s="179"/>
-      <c r="N21" s="180"/>
-      <c r="O21" s="181"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="183"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="186"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="178"/>
+      <c r="L21" s="179"/>
+      <c r="M21" s="180"/>
+      <c r="N21" s="181"/>
+      <c r="O21" s="182"/>
     </row>
     <row r="22" spans="1:15" ht="19.5" customHeight="1">
       <c r="A22" s="42"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
-      <c r="D22" s="192"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="194"/>
-      <c r="G22" s="189"/>
-      <c r="H22" s="190"/>
-      <c r="I22" s="191"/>
-      <c r="J22" s="186"/>
-      <c r="K22" s="187"/>
-      <c r="L22" s="188"/>
-      <c r="M22" s="192"/>
-      <c r="N22" s="193"/>
-      <c r="O22" s="206"/>
+      <c r="D22" s="193"/>
+      <c r="E22" s="194"/>
+      <c r="F22" s="195"/>
+      <c r="G22" s="190"/>
+      <c r="H22" s="191"/>
+      <c r="I22" s="192"/>
+      <c r="J22" s="187"/>
+      <c r="K22" s="188"/>
+      <c r="L22" s="189"/>
+      <c r="M22" s="193"/>
+      <c r="N22" s="194"/>
+      <c r="O22" s="207"/>
     </row>
     <row r="23" spans="1:15" ht="19.5" customHeight="1">
       <c r="A23" s="42"/>
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
-      <c r="D23" s="179"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="182"/>
-      <c r="G23" s="183"/>
-      <c r="H23" s="184"/>
-      <c r="I23" s="185"/>
-      <c r="J23" s="176"/>
-      <c r="K23" s="177"/>
-      <c r="L23" s="178"/>
-      <c r="M23" s="179"/>
-      <c r="N23" s="180"/>
-      <c r="O23" s="181"/>
+      <c r="D23" s="180"/>
+      <c r="E23" s="181"/>
+      <c r="F23" s="183"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="186"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="178"/>
+      <c r="L23" s="179"/>
+      <c r="M23" s="180"/>
+      <c r="N23" s="181"/>
+      <c r="O23" s="182"/>
     </row>
     <row r="24" spans="1:15" ht="19.5" customHeight="1">
       <c r="A24" s="44"/>
       <c r="B24" s="43"/>
       <c r="C24" s="43"/>
-      <c r="D24" s="179"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="182"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="184"/>
-      <c r="I24" s="185"/>
-      <c r="J24" s="176"/>
-      <c r="K24" s="177"/>
-      <c r="L24" s="178"/>
-      <c r="M24" s="179"/>
-      <c r="N24" s="180"/>
-      <c r="O24" s="181"/>
+      <c r="D24" s="180"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="185"/>
+      <c r="I24" s="186"/>
+      <c r="J24" s="177"/>
+      <c r="K24" s="178"/>
+      <c r="L24" s="179"/>
+      <c r="M24" s="180"/>
+      <c r="N24" s="181"/>
+      <c r="O24" s="182"/>
     </row>
     <row r="25" spans="1:15" ht="19.5" customHeight="1">
       <c r="A25" s="45"/>
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
-      <c r="D25" s="192"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="194"/>
-      <c r="G25" s="189"/>
-      <c r="H25" s="190"/>
-      <c r="I25" s="191"/>
-      <c r="J25" s="186"/>
-      <c r="K25" s="187"/>
-      <c r="L25" s="188"/>
-      <c r="M25" s="192"/>
-      <c r="N25" s="193"/>
-      <c r="O25" s="206"/>
+      <c r="D25" s="193"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="190"/>
+      <c r="H25" s="191"/>
+      <c r="I25" s="192"/>
+      <c r="J25" s="187"/>
+      <c r="K25" s="188"/>
+      <c r="L25" s="189"/>
+      <c r="M25" s="193"/>
+      <c r="N25" s="194"/>
+      <c r="O25" s="207"/>
     </row>
     <row r="26" spans="1:15" ht="19.5" customHeight="1">
       <c r="A26" s="42"/>
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="182"/>
-      <c r="G26" s="183"/>
-      <c r="H26" s="184"/>
-      <c r="I26" s="185"/>
-      <c r="J26" s="176"/>
-      <c r="K26" s="177"/>
-      <c r="L26" s="178"/>
-      <c r="M26" s="179"/>
-      <c r="N26" s="180"/>
-      <c r="O26" s="181"/>
+      <c r="D26" s="180"/>
+      <c r="E26" s="181"/>
+      <c r="F26" s="183"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="185"/>
+      <c r="I26" s="186"/>
+      <c r="J26" s="177"/>
+      <c r="K26" s="178"/>
+      <c r="L26" s="179"/>
+      <c r="M26" s="180"/>
+      <c r="N26" s="181"/>
+      <c r="O26" s="182"/>
     </row>
     <row r="27" spans="1:15" ht="19.5" customHeight="1">
       <c r="A27" s="42"/>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="182"/>
-      <c r="G27" s="183"/>
-      <c r="H27" s="184"/>
-      <c r="I27" s="185"/>
-      <c r="J27" s="176"/>
-      <c r="K27" s="177"/>
-      <c r="L27" s="178"/>
-      <c r="M27" s="179"/>
-      <c r="N27" s="180"/>
-      <c r="O27" s="181"/>
+      <c r="D27" s="180"/>
+      <c r="E27" s="181"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="185"/>
+      <c r="I27" s="186"/>
+      <c r="J27" s="177"/>
+      <c r="K27" s="178"/>
+      <c r="L27" s="179"/>
+      <c r="M27" s="180"/>
+      <c r="N27" s="181"/>
+      <c r="O27" s="182"/>
     </row>
     <row r="28" spans="1:15" ht="19.5" customHeight="1">
       <c r="A28" s="42"/>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
-      <c r="D28" s="179"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="182"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="184"/>
-      <c r="I28" s="185"/>
-      <c r="J28" s="176"/>
-      <c r="K28" s="177"/>
-      <c r="L28" s="178"/>
-      <c r="M28" s="179"/>
-      <c r="N28" s="180"/>
-      <c r="O28" s="181"/>
+      <c r="D28" s="180"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="186"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="178"/>
+      <c r="L28" s="179"/>
+      <c r="M28" s="180"/>
+      <c r="N28" s="181"/>
+      <c r="O28" s="182"/>
     </row>
     <row r="29" spans="1:15" ht="19.5" customHeight="1">
       <c r="A29" s="42"/>
       <c r="B29" s="43"/>
       <c r="C29" s="43"/>
-      <c r="D29" s="192"/>
-      <c r="E29" s="193"/>
-      <c r="F29" s="194"/>
-      <c r="G29" s="189"/>
-      <c r="H29" s="190"/>
-      <c r="I29" s="191"/>
-      <c r="J29" s="186"/>
-      <c r="K29" s="187"/>
-      <c r="L29" s="188"/>
-      <c r="M29" s="192"/>
-      <c r="N29" s="193"/>
-      <c r="O29" s="206"/>
+      <c r="D29" s="193"/>
+      <c r="E29" s="194"/>
+      <c r="F29" s="195"/>
+      <c r="G29" s="190"/>
+      <c r="H29" s="191"/>
+      <c r="I29" s="192"/>
+      <c r="J29" s="187"/>
+      <c r="K29" s="188"/>
+      <c r="L29" s="189"/>
+      <c r="M29" s="193"/>
+      <c r="N29" s="194"/>
+      <c r="O29" s="207"/>
     </row>
     <row r="30" spans="1:15" ht="19.5" customHeight="1">
       <c r="A30" s="42"/>
       <c r="B30" s="43"/>
       <c r="C30" s="43"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="180"/>
-      <c r="F30" s="182"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="184"/>
-      <c r="I30" s="185"/>
-      <c r="J30" s="176"/>
-      <c r="K30" s="177"/>
-      <c r="L30" s="178"/>
-      <c r="M30" s="179"/>
-      <c r="N30" s="180"/>
-      <c r="O30" s="181"/>
+      <c r="D30" s="180"/>
+      <c r="E30" s="181"/>
+      <c r="F30" s="183"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="186"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="178"/>
+      <c r="L30" s="179"/>
+      <c r="M30" s="180"/>
+      <c r="N30" s="181"/>
+      <c r="O30" s="182"/>
     </row>
     <row r="31" spans="1:15" ht="19.5" customHeight="1">
       <c r="A31" s="42"/>
       <c r="B31" s="43"/>
       <c r="C31" s="43"/>
-      <c r="D31" s="179"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="182"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="184"/>
-      <c r="I31" s="185"/>
-      <c r="J31" s="176"/>
-      <c r="K31" s="177"/>
-      <c r="L31" s="178"/>
-      <c r="M31" s="179"/>
-      <c r="N31" s="180"/>
-      <c r="O31" s="181"/>
+      <c r="D31" s="180"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="183"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="177"/>
+      <c r="K31" s="178"/>
+      <c r="L31" s="179"/>
+      <c r="M31" s="180"/>
+      <c r="N31" s="181"/>
+      <c r="O31" s="182"/>
     </row>
     <row r="32" spans="1:15" ht="19.5" customHeight="1">
       <c r="A32" s="42"/>
       <c r="B32" s="43"/>
       <c r="C32" s="43"/>
-      <c r="D32" s="192"/>
-      <c r="E32" s="193"/>
-      <c r="F32" s="194"/>
-      <c r="G32" s="189"/>
-      <c r="H32" s="190"/>
-      <c r="I32" s="191"/>
-      <c r="J32" s="186"/>
-      <c r="K32" s="187"/>
-      <c r="L32" s="188"/>
-      <c r="M32" s="192"/>
-      <c r="N32" s="193"/>
-      <c r="O32" s="206"/>
+      <c r="D32" s="193"/>
+      <c r="E32" s="194"/>
+      <c r="F32" s="195"/>
+      <c r="G32" s="190"/>
+      <c r="H32" s="191"/>
+      <c r="I32" s="192"/>
+      <c r="J32" s="187"/>
+      <c r="K32" s="188"/>
+      <c r="L32" s="189"/>
+      <c r="M32" s="193"/>
+      <c r="N32" s="194"/>
+      <c r="O32" s="207"/>
     </row>
     <row r="33" spans="1:15" ht="19.5" customHeight="1">
       <c r="A33" s="42"/>
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
-      <c r="D33" s="179"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="182"/>
-      <c r="G33" s="183"/>
-      <c r="H33" s="184"/>
-      <c r="I33" s="185"/>
-      <c r="J33" s="176"/>
-      <c r="K33" s="177"/>
-      <c r="L33" s="178"/>
-      <c r="M33" s="179"/>
-      <c r="N33" s="180"/>
-      <c r="O33" s="181"/>
+      <c r="D33" s="180"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="186"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="178"/>
+      <c r="L33" s="179"/>
+      <c r="M33" s="180"/>
+      <c r="N33" s="181"/>
+      <c r="O33" s="182"/>
     </row>
     <row r="34" spans="1:15" ht="19.5" customHeight="1">
       <c r="A34" s="42"/>
       <c r="B34" s="43"/>
       <c r="C34" s="43"/>
-      <c r="D34" s="179"/>
-      <c r="E34" s="180"/>
-      <c r="F34" s="182"/>
-      <c r="G34" s="183"/>
-      <c r="H34" s="184"/>
-      <c r="I34" s="185"/>
-      <c r="J34" s="176"/>
-      <c r="K34" s="177"/>
-      <c r="L34" s="178"/>
-      <c r="M34" s="179"/>
-      <c r="N34" s="180"/>
-      <c r="O34" s="181"/>
+      <c r="D34" s="180"/>
+      <c r="E34" s="181"/>
+      <c r="F34" s="183"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="185"/>
+      <c r="I34" s="186"/>
+      <c r="J34" s="177"/>
+      <c r="K34" s="178"/>
+      <c r="L34" s="179"/>
+      <c r="M34" s="180"/>
+      <c r="N34" s="181"/>
+      <c r="O34" s="182"/>
     </row>
     <row r="35" spans="1:15" ht="19.5" customHeight="1">
       <c r="A35" s="42"/>
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
-      <c r="D35" s="192"/>
-      <c r="E35" s="193"/>
-      <c r="F35" s="194"/>
-      <c r="G35" s="189"/>
-      <c r="H35" s="190"/>
-      <c r="I35" s="191"/>
-      <c r="J35" s="186"/>
-      <c r="K35" s="187"/>
-      <c r="L35" s="188"/>
-      <c r="M35" s="192"/>
-      <c r="N35" s="193"/>
-      <c r="O35" s="206"/>
+      <c r="D35" s="193"/>
+      <c r="E35" s="194"/>
+      <c r="F35" s="195"/>
+      <c r="G35" s="190"/>
+      <c r="H35" s="191"/>
+      <c r="I35" s="192"/>
+      <c r="J35" s="187"/>
+      <c r="K35" s="188"/>
+      <c r="L35" s="189"/>
+      <c r="M35" s="193"/>
+      <c r="N35" s="194"/>
+      <c r="O35" s="207"/>
     </row>
     <row r="36" spans="1:15" ht="19.5" customHeight="1">
       <c r="A36" s="42"/>
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
-      <c r="D36" s="179"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="182"/>
-      <c r="G36" s="183"/>
-      <c r="H36" s="184"/>
-      <c r="I36" s="185"/>
-      <c r="J36" s="176"/>
-      <c r="K36" s="177"/>
-      <c r="L36" s="178"/>
-      <c r="M36" s="179"/>
-      <c r="N36" s="180"/>
-      <c r="O36" s="181"/>
+      <c r="D36" s="180"/>
+      <c r="E36" s="181"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="184"/>
+      <c r="H36" s="185"/>
+      <c r="I36" s="186"/>
+      <c r="J36" s="177"/>
+      <c r="K36" s="178"/>
+      <c r="L36" s="179"/>
+      <c r="M36" s="180"/>
+      <c r="N36" s="181"/>
+      <c r="O36" s="182"/>
     </row>
     <row r="37" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A37" s="42"/>
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
-      <c r="D37" s="238"/>
-      <c r="E37" s="239"/>
-      <c r="F37" s="241"/>
-      <c r="G37" s="232"/>
-      <c r="H37" s="233"/>
-      <c r="I37" s="234"/>
-      <c r="J37" s="235"/>
-      <c r="K37" s="236"/>
-      <c r="L37" s="237"/>
-      <c r="M37" s="238"/>
-      <c r="N37" s="239"/>
-      <c r="O37" s="240"/>
+      <c r="D37" s="239"/>
+      <c r="E37" s="240"/>
+      <c r="F37" s="242"/>
+      <c r="G37" s="233"/>
+      <c r="H37" s="234"/>
+      <c r="I37" s="235"/>
+      <c r="J37" s="236"/>
+      <c r="K37" s="237"/>
+      <c r="L37" s="238"/>
+      <c r="M37" s="239"/>
+      <c r="N37" s="240"/>
+      <c r="O37" s="241"/>
     </row>
     <row r="38" spans="1:15" ht="19.5" customHeight="1">
       <c r="A38" s="47"/>
@@ -8313,30 +8313,30 @@
       <c r="C38" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="208" t="e">
+      <c r="D38" s="209" t="e">
         <f>AVERAGE(D8:F37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="209"/>
-      <c r="F38" s="210"/>
-      <c r="G38" s="211" t="e">
+      <c r="E38" s="210"/>
+      <c r="F38" s="211"/>
+      <c r="G38" s="212" t="e">
         <f>AVERAGE(G8:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="212"/>
-      <c r="I38" s="213"/>
-      <c r="J38" s="214" t="e">
+      <c r="H38" s="213"/>
+      <c r="I38" s="214"/>
+      <c r="J38" s="215" t="e">
         <f>AVERAGE(J8:L37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="214"/>
-      <c r="L38" s="214"/>
-      <c r="M38" s="208" t="e">
+      <c r="K38" s="215"/>
+      <c r="L38" s="215"/>
+      <c r="M38" s="209" t="e">
         <f>AVERAGE(M8:O37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N38" s="209"/>
-      <c r="O38" s="215"/>
+      <c r="N38" s="210"/>
+      <c r="O38" s="216"/>
     </row>
     <row r="39" spans="1:15" ht="19.5" customHeight="1">
       <c r="A39" s="49"/>
@@ -8344,30 +8344,30 @@
       <c r="C39" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="216">
+      <c r="D39" s="217">
         <f>MIN(D8:F37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="217"/>
-      <c r="F39" s="218"/>
-      <c r="G39" s="219">
+      <c r="E39" s="218"/>
+      <c r="F39" s="219"/>
+      <c r="G39" s="220">
         <f>MIN(G8:I37)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="220"/>
-      <c r="I39" s="221"/>
-      <c r="J39" s="222">
+      <c r="H39" s="221"/>
+      <c r="I39" s="222"/>
+      <c r="J39" s="223">
         <f>MIN(J8:L37)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="222"/>
-      <c r="L39" s="222"/>
-      <c r="M39" s="216">
+      <c r="K39" s="223"/>
+      <c r="L39" s="223"/>
+      <c r="M39" s="217">
         <f>MIN(M8:O37)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="217"/>
-      <c r="O39" s="223"/>
+      <c r="N39" s="218"/>
+      <c r="O39" s="224"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A40" s="52"/>
@@ -8375,60 +8375,60 @@
       <c r="C40" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="224">
+      <c r="D40" s="225">
         <f>MAX(D8:F37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="225"/>
-      <c r="F40" s="226"/>
-      <c r="G40" s="227">
+      <c r="E40" s="226"/>
+      <c r="F40" s="227"/>
+      <c r="G40" s="228">
         <f>MAX(G8:I37)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="228"/>
-      <c r="I40" s="229"/>
-      <c r="J40" s="230">
+      <c r="H40" s="229"/>
+      <c r="I40" s="230"/>
+      <c r="J40" s="231">
         <f>MAX(J8:L37)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="230"/>
-      <c r="L40" s="230"/>
-      <c r="M40" s="224">
+      <c r="K40" s="231"/>
+      <c r="L40" s="231"/>
+      <c r="M40" s="225">
         <f>MAX(M8:O37)</f>
         <v>0</v>
       </c>
-      <c r="N40" s="225"/>
-      <c r="O40" s="231"/>
+      <c r="N40" s="226"/>
+      <c r="O40" s="232"/>
     </row>
     <row r="41" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A41" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="168"/>
-      <c r="C41" s="168"/>
-      <c r="D41" s="169" t="s">
+      <c r="B41" s="169"/>
+      <c r="C41" s="169"/>
+      <c r="D41" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="169"/>
+      <c r="E41" s="170"/>
       <c r="F41" s="36"/>
       <c r="G41" s="37"/>
       <c r="H41" s="37"/>
       <c r="I41" s="37"/>
-      <c r="J41" s="152" t="s">
+      <c r="J41" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="152"/>
-      <c r="L41" s="153"/>
-      <c r="M41" s="153"/>
-      <c r="N41" s="153"/>
+      <c r="K41" s="153"/>
+      <c r="L41" s="154"/>
+      <c r="M41" s="154"/>
+      <c r="N41" s="154"/>
       <c r="O41" s="33" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="35"/>
-      <c r="B42" s="148"/>
-      <c r="C42" s="148"/>
+      <c r="B42" s="149"/>
+      <c r="C42" s="149"/>
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="35"/>
@@ -8437,39 +8437,39 @@
       <c r="I42" s="37"/>
       <c r="J42" s="37"/>
       <c r="K42" s="33"/>
-      <c r="L42" s="154"/>
-      <c r="M42" s="154"/>
-      <c r="N42" s="154"/>
+      <c r="L42" s="155"/>
+      <c r="M42" s="155"/>
+      <c r="N42" s="155"/>
       <c r="O42" s="33"/>
     </row>
     <row r="43" spans="1:15" s="38" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A43" s="149" t="s">
+      <c r="A43" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="149"/>
-      <c r="C43" s="149"/>
+      <c r="B43" s="150"/>
+      <c r="C43" s="150"/>
       <c r="D43" s="37"/>
       <c r="E43" s="37"/>
       <c r="F43" s="37"/>
       <c r="G43" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="149" t="s">
+      <c r="H43" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
       <c r="L43" s="37"/>
       <c r="M43" s="37"/>
       <c r="N43" s="37"/>
       <c r="O43" s="37"/>
     </row>
     <row r="44" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="149" t="s">
+      <c r="A44" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="149"/>
+      <c r="B44" s="150"/>
       <c r="C44" s="35"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
@@ -8480,10 +8480,10 @@
       <c r="J44" s="37"/>
       <c r="K44" s="37"/>
       <c r="L44" s="37"/>
-      <c r="M44" s="150" t="s">
+      <c r="M44" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="N44" s="150"/>
+      <c r="N44" s="151"/>
       <c r="O44" s="37"/>
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1">
@@ -8496,45 +8496,45 @@
       <c r="N51" s="56"/>
     </row>
     <row r="75" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C75" s="207"/>
-      <c r="D75" s="207"/>
+      <c r="C75" s="208"/>
+      <c r="D75" s="208"/>
       <c r="E75" s="41"/>
-      <c r="I75" s="207"/>
-      <c r="J75" s="207"/>
+      <c r="I75" s="208"/>
+      <c r="J75" s="208"/>
       <c r="K75" s="41"/>
-      <c r="L75" s="207"/>
-      <c r="M75" s="207"/>
-      <c r="N75" s="207"/>
-      <c r="O75" s="207"/>
+      <c r="L75" s="208"/>
+      <c r="M75" s="208"/>
+      <c r="N75" s="208"/>
+      <c r="O75" s="208"/>
     </row>
     <row r="76" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C76" s="207"/>
-      <c r="D76" s="207"/>
-      <c r="E76" s="207"/>
-      <c r="F76" s="207"/>
-      <c r="I76" s="207"/>
-      <c r="J76" s="207"/>
+      <c r="C76" s="208"/>
+      <c r="D76" s="208"/>
+      <c r="E76" s="208"/>
+      <c r="F76" s="208"/>
+      <c r="I76" s="208"/>
+      <c r="J76" s="208"/>
       <c r="K76" s="41"/>
-      <c r="L76" s="207"/>
-      <c r="M76" s="207"/>
-      <c r="N76" s="207"/>
-      <c r="O76" s="207"/>
+      <c r="L76" s="208"/>
+      <c r="M76" s="208"/>
+      <c r="N76" s="208"/>
+      <c r="O76" s="208"/>
     </row>
     <row r="77" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C77" s="207"/>
-      <c r="D77" s="207"/>
+      <c r="C77" s="208"/>
+      <c r="D77" s="208"/>
       <c r="E77" s="41"/>
-      <c r="I77" s="207"/>
-      <c r="J77" s="207"/>
+      <c r="I77" s="208"/>
+      <c r="J77" s="208"/>
       <c r="K77" s="41"/>
-      <c r="L77" s="207"/>
-      <c r="M77" s="207"/>
-      <c r="N77" s="207"/>
-      <c r="O77" s="207"/>
+      <c r="L77" s="208"/>
+      <c r="M77" s="208"/>
+      <c r="N77" s="208"/>
+      <c r="O77" s="208"/>
     </row>
     <row r="78" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C78" s="207"/>
-      <c r="D78" s="207"/>
+      <c r="C78" s="208"/>
+      <c r="D78" s="208"/>
       <c r="E78" s="41"/>
     </row>
   </sheetData>
@@ -8775,61 +8775,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="269" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="268"/>
-      <c r="L1" s="268"/>
-      <c r="M1" s="268"/>
-      <c r="N1" s="165" t="s">
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
+      <c r="M1" s="269"/>
+      <c r="N1" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="165"/>
+      <c r="O1" s="166"/>
     </row>
     <row r="2" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
-      <c r="H2" s="269"/>
-      <c r="I2" s="269"/>
-      <c r="J2" s="269"/>
-      <c r="K2" s="269"/>
-      <c r="L2" s="269"/>
-      <c r="M2" s="269"/>
-      <c r="N2" s="166" t="s">
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="270"/>
+      <c r="K2" s="270"/>
+      <c r="L2" s="270"/>
+      <c r="M2" s="270"/>
+      <c r="N2" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="166"/>
+      <c r="O2" s="167"/>
     </row>
     <row r="3" spans="1:15" s="63" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="269"/>
-      <c r="B3" s="269"/>
-      <c r="C3" s="269"/>
-      <c r="D3" s="269"/>
-      <c r="E3" s="269"/>
-      <c r="F3" s="269"/>
-      <c r="G3" s="269"/>
-      <c r="H3" s="269"/>
-      <c r="I3" s="269"/>
-      <c r="J3" s="269"/>
-      <c r="K3" s="269"/>
-      <c r="L3" s="269"/>
-      <c r="M3" s="269"/>
+      <c r="A3" s="270"/>
+      <c r="B3" s="270"/>
+      <c r="C3" s="270"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="270"/>
+      <c r="F3" s="270"/>
+      <c r="G3" s="270"/>
+      <c r="H3" s="270"/>
+      <c r="I3" s="270"/>
+      <c r="J3" s="270"/>
+      <c r="K3" s="270"/>
+      <c r="L3" s="270"/>
+      <c r="M3" s="270"/>
       <c r="N3" s="39" t="s">
         <v>19</v>
       </c>
@@ -8839,124 +8839,124 @@
       <c r="A4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="243">
+      <c r="B4" s="244">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="279"/>
-      <c r="D4" s="280"/>
-      <c r="E4" s="281" t="s">
+      <c r="C4" s="280"/>
+      <c r="D4" s="281"/>
+      <c r="E4" s="282" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="281"/>
-      <c r="G4" s="282">
+      <c r="F4" s="282"/>
+      <c r="G4" s="283">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="282">
+      <c r="J4" s="283">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="282"/>
-      <c r="L4" s="283" t="s">
+      <c r="K4" s="283"/>
+      <c r="L4" s="284" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="284"/>
-      <c r="N4" s="243">
+      <c r="M4" s="285"/>
+      <c r="N4" s="244">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="244"/>
+      <c r="O4" s="245"/>
     </row>
     <row r="5" spans="1:15" s="61" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="242">
+      <c r="B5" s="243">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="261" t="s">
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="262" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="261"/>
-      <c r="G5" s="242">
+      <c r="F5" s="262"/>
+      <c r="G5" s="243">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="242"/>
+      <c r="H5" s="243"/>
       <c r="I5" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="242">
+      <c r="J5" s="243">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="242"/>
-      <c r="L5" s="285" t="s">
+      <c r="K5" s="243"/>
+      <c r="L5" s="286" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="286"/>
-      <c r="N5" s="174">
+      <c r="M5" s="287"/>
+      <c r="N5" s="175">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="245"/>
+      <c r="O5" s="246"/>
     </row>
     <row r="6" spans="1:15" s="69" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="255" t="s">
+      <c r="A6" s="256" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="256"/>
-      <c r="C6" s="256"/>
-      <c r="D6" s="256"/>
-      <c r="E6" s="256"/>
-      <c r="F6" s="256"/>
-      <c r="G6" s="256"/>
-      <c r="H6" s="256"/>
-      <c r="I6" s="256"/>
-      <c r="J6" s="256"/>
-      <c r="K6" s="256"/>
-      <c r="L6" s="256"/>
-      <c r="M6" s="256"/>
-      <c r="N6" s="256"/>
-      <c r="O6" s="257"/>
+      <c r="B6" s="257"/>
+      <c r="C6" s="257"/>
+      <c r="D6" s="257"/>
+      <c r="E6" s="257"/>
+      <c r="F6" s="257"/>
+      <c r="G6" s="257"/>
+      <c r="H6" s="257"/>
+      <c r="I6" s="257"/>
+      <c r="J6" s="257"/>
+      <c r="K6" s="257"/>
+      <c r="L6" s="257"/>
+      <c r="M6" s="257"/>
+      <c r="N6" s="257"/>
+      <c r="O6" s="258"/>
     </row>
     <row r="7" spans="1:15" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="251" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="252"/>
-      <c r="C7" s="253"/>
-      <c r="D7" s="262" t="s">
+      <c r="A7" s="252" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="253"/>
+      <c r="C7" s="254"/>
+      <c r="D7" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="263"/>
-      <c r="F7" s="263"/>
-      <c r="G7" s="263"/>
-      <c r="H7" s="264" t="s">
+      <c r="E7" s="264"/>
+      <c r="F7" s="264"/>
+      <c r="G7" s="264"/>
+      <c r="H7" s="265" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="265"/>
-      <c r="J7" s="265"/>
-      <c r="K7" s="262"/>
-      <c r="L7" s="264" t="s">
+      <c r="I7" s="266"/>
+      <c r="J7" s="266"/>
+      <c r="K7" s="263"/>
+      <c r="L7" s="265" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="265"/>
-      <c r="N7" s="265"/>
-      <c r="O7" s="266"/>
+      <c r="M7" s="266"/>
+      <c r="N7" s="266"/>
+      <c r="O7" s="267"/>
     </row>
     <row r="8" spans="1:15" s="69" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="254"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="198"/>
+      <c r="A8" s="255"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="199"/>
       <c r="D8" s="125">
         <v>1</v>
       </c>
@@ -10050,27 +10050,27 @@
       <c r="C39" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="272" t="e">
+      <c r="D39" s="273" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="272"/>
-      <c r="F39" s="272"/>
-      <c r="G39" s="273"/>
-      <c r="H39" s="274" t="e">
+      <c r="E39" s="273"/>
+      <c r="F39" s="273"/>
+      <c r="G39" s="274"/>
+      <c r="H39" s="275" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="275"/>
-      <c r="J39" s="275"/>
-      <c r="K39" s="276"/>
-      <c r="L39" s="274" t="e">
+      <c r="I39" s="276"/>
+      <c r="J39" s="276"/>
+      <c r="K39" s="277"/>
+      <c r="L39" s="275" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="275"/>
-      <c r="N39" s="275"/>
-      <c r="O39" s="277"/>
+      <c r="M39" s="276"/>
+      <c r="N39" s="276"/>
+      <c r="O39" s="278"/>
     </row>
     <row r="40" spans="1:15" s="38" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="49"/>
@@ -10078,27 +10078,27 @@
       <c r="C40" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="270" t="e">
+      <c r="D40" s="271" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="270"/>
-      <c r="F40" s="270"/>
-      <c r="G40" s="271"/>
-      <c r="H40" s="258" t="e">
+      <c r="E40" s="271"/>
+      <c r="F40" s="271"/>
+      <c r="G40" s="272"/>
+      <c r="H40" s="259" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="259"/>
-      <c r="J40" s="259"/>
-      <c r="K40" s="260"/>
-      <c r="L40" s="258" t="e">
+      <c r="I40" s="260"/>
+      <c r="J40" s="260"/>
+      <c r="K40" s="261"/>
+      <c r="L40" s="259" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="259"/>
-      <c r="N40" s="259"/>
-      <c r="O40" s="278"/>
+      <c r="M40" s="260"/>
+      <c r="N40" s="260"/>
+      <c r="O40" s="279"/>
     </row>
     <row r="41" spans="1:15" s="38" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="52"/>
@@ -10106,38 +10106,38 @@
       <c r="C41" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="246" t="e">
+      <c r="D41" s="247" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="246"/>
-      <c r="F41" s="246"/>
-      <c r="G41" s="247"/>
-      <c r="H41" s="248" t="e">
+      <c r="E41" s="247"/>
+      <c r="F41" s="247"/>
+      <c r="G41" s="248"/>
+      <c r="H41" s="249" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="249"/>
-      <c r="J41" s="249"/>
-      <c r="K41" s="267"/>
-      <c r="L41" s="248" t="e">
+      <c r="I41" s="250"/>
+      <c r="J41" s="250"/>
+      <c r="K41" s="268"/>
+      <c r="L41" s="249" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="249"/>
-      <c r="N41" s="249"/>
-      <c r="O41" s="250"/>
+      <c r="M41" s="250"/>
+      <c r="N41" s="250"/>
+      <c r="O41" s="251"/>
     </row>
     <row r="42" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="168"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="169" t="s">
+      <c r="B42" s="169"/>
+      <c r="C42" s="169"/>
+      <c r="D42" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="169"/>
+      <c r="E42" s="170"/>
       <c r="F42" s="36"/>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
@@ -10146,16 +10146,16 @@
       <c r="L42" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="M42" s="153"/>
-      <c r="N42" s="153"/>
+      <c r="M42" s="154"/>
+      <c r="N42" s="154"/>
       <c r="O42" s="35" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="35"/>
-      <c r="B43" s="148"/>
-      <c r="C43" s="148"/>
+      <c r="B43" s="149"/>
+      <c r="C43" s="149"/>
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="35"/>
@@ -10165,27 +10165,27 @@
       <c r="J43" s="37"/>
       <c r="K43" s="33"/>
       <c r="L43" s="37"/>
-      <c r="M43" s="154"/>
-      <c r="N43" s="154"/>
+      <c r="M43" s="155"/>
+      <c r="N43" s="155"/>
       <c r="O43" s="33"/>
     </row>
     <row r="44" spans="1:15" s="38" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="149" t="s">
+      <c r="A44" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="149"/>
-      <c r="C44" s="149"/>
+      <c r="B44" s="150"/>
+      <c r="C44" s="150"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
       <c r="G44" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H44" s="149" t="s">
+      <c r="H44" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="I44" s="149"/>
-      <c r="J44" s="149"/>
+      <c r="I44" s="150"/>
+      <c r="J44" s="150"/>
       <c r="K44" s="37"/>
       <c r="L44" s="37"/>
       <c r="M44" s="37"/>
@@ -10193,10 +10193,10 @@
       <c r="O44" s="37"/>
     </row>
     <row r="45" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="149" t="s">
+      <c r="A45" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="149"/>
+      <c r="B45" s="150"/>
       <c r="C45" s="35"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
@@ -10207,10 +10207,10 @@
       <c r="J45" s="37"/>
       <c r="K45" s="37"/>
       <c r="L45" s="37"/>
-      <c r="M45" s="150" t="s">
+      <c r="M45" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="N45" s="150"/>
+      <c r="N45" s="151"/>
       <c r="O45" s="37"/>
     </row>
   </sheetData>
@@ -10286,7 +10286,7 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10297,61 +10297,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="269" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="268"/>
-      <c r="L1" s="268"/>
-      <c r="M1" s="268"/>
-      <c r="N1" s="165" t="s">
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
+      <c r="M1" s="269"/>
+      <c r="N1" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="165"/>
+      <c r="O1" s="166"/>
     </row>
     <row r="2" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
-      <c r="H2" s="269"/>
-      <c r="I2" s="269"/>
-      <c r="J2" s="269"/>
-      <c r="K2" s="269"/>
-      <c r="L2" s="269"/>
-      <c r="M2" s="269"/>
-      <c r="N2" s="166" t="s">
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="270"/>
+      <c r="K2" s="270"/>
+      <c r="L2" s="270"/>
+      <c r="M2" s="270"/>
+      <c r="N2" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="166"/>
+      <c r="O2" s="167"/>
     </row>
     <row r="3" spans="1:15" s="63" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="269"/>
-      <c r="B3" s="269"/>
-      <c r="C3" s="269"/>
-      <c r="D3" s="269"/>
-      <c r="E3" s="269"/>
-      <c r="F3" s="269"/>
-      <c r="G3" s="269"/>
-      <c r="H3" s="269"/>
-      <c r="I3" s="269"/>
-      <c r="J3" s="269"/>
-      <c r="K3" s="269"/>
-      <c r="L3" s="269"/>
-      <c r="M3" s="269"/>
+      <c r="A3" s="270"/>
+      <c r="B3" s="270"/>
+      <c r="C3" s="270"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="270"/>
+      <c r="F3" s="270"/>
+      <c r="G3" s="270"/>
+      <c r="H3" s="270"/>
+      <c r="I3" s="270"/>
+      <c r="J3" s="270"/>
+      <c r="K3" s="270"/>
+      <c r="L3" s="270"/>
+      <c r="M3" s="270"/>
       <c r="N3" s="39" t="s">
         <v>19</v>
       </c>
@@ -10361,130 +10361,130 @@
       <c r="A4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="243">
+      <c r="B4" s="244">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="279"/>
-      <c r="D4" s="280"/>
-      <c r="E4" s="281" t="s">
+      <c r="C4" s="280"/>
+      <c r="D4" s="281"/>
+      <c r="E4" s="282" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="281"/>
-      <c r="G4" s="282">
+      <c r="F4" s="282"/>
+      <c r="G4" s="283">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="282">
+      <c r="J4" s="283">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="282"/>
-      <c r="L4" s="283" t="s">
+      <c r="K4" s="283"/>
+      <c r="L4" s="284" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="284">
+      <c r="M4" s="285">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="243">
+      <c r="N4" s="244">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="244"/>
+      <c r="O4" s="245"/>
     </row>
     <row r="5" spans="1:15" s="61" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="242">
+      <c r="B5" s="243">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="261" t="s">
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="262" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="261"/>
-      <c r="G5" s="242">
+      <c r="F5" s="262"/>
+      <c r="G5" s="243">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="242"/>
+      <c r="H5" s="243"/>
       <c r="I5" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="242">
+      <c r="J5" s="243">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="242"/>
-      <c r="L5" s="285" t="s">
+      <c r="K5" s="243"/>
+      <c r="L5" s="286" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="286">
+      <c r="M5" s="287">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="174">
+      <c r="N5" s="175">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="245"/>
+      <c r="O5" s="246"/>
     </row>
     <row r="6" spans="1:15" s="69" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="255" t="s">
+      <c r="A6" s="256" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="256"/>
-      <c r="C6" s="256"/>
-      <c r="D6" s="256"/>
-      <c r="E6" s="256"/>
-      <c r="F6" s="256"/>
-      <c r="G6" s="256"/>
-      <c r="H6" s="256"/>
-      <c r="I6" s="256"/>
-      <c r="J6" s="256"/>
-      <c r="K6" s="256"/>
-      <c r="L6" s="256"/>
-      <c r="M6" s="256"/>
-      <c r="N6" s="256"/>
-      <c r="O6" s="257"/>
+      <c r="B6" s="257"/>
+      <c r="C6" s="257"/>
+      <c r="D6" s="257"/>
+      <c r="E6" s="257"/>
+      <c r="F6" s="257"/>
+      <c r="G6" s="257"/>
+      <c r="H6" s="257"/>
+      <c r="I6" s="257"/>
+      <c r="J6" s="257"/>
+      <c r="K6" s="257"/>
+      <c r="L6" s="257"/>
+      <c r="M6" s="257"/>
+      <c r="N6" s="257"/>
+      <c r="O6" s="258"/>
     </row>
     <row r="7" spans="1:15" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="290" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="150"/>
-      <c r="C7" s="291"/>
-      <c r="D7" s="263" t="s">
+      <c r="A7" s="291" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="151"/>
+      <c r="C7" s="292"/>
+      <c r="D7" s="264" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="263"/>
-      <c r="F7" s="263"/>
-      <c r="G7" s="263"/>
-      <c r="H7" s="264" t="s">
+      <c r="E7" s="264"/>
+      <c r="F7" s="264"/>
+      <c r="G7" s="264"/>
+      <c r="H7" s="265" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="265"/>
-      <c r="J7" s="265"/>
-      <c r="K7" s="262"/>
-      <c r="L7" s="264" t="s">
+      <c r="I7" s="266"/>
+      <c r="J7" s="266"/>
+      <c r="K7" s="263"/>
+      <c r="L7" s="265" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="265"/>
-      <c r="N7" s="265"/>
-      <c r="O7" s="266"/>
+      <c r="M7" s="266"/>
+      <c r="N7" s="266"/>
+      <c r="O7" s="267"/>
     </row>
     <row r="8" spans="1:15" s="69" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="254"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="198"/>
+      <c r="A8" s="255"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="199"/>
       <c r="D8" s="34">
         <v>1</v>
       </c>
@@ -11578,27 +11578,27 @@
       <c r="C39" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="288" t="e">
+      <c r="D39" s="289" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="272"/>
-      <c r="F39" s="272"/>
-      <c r="G39" s="273"/>
-      <c r="H39" s="274" t="e">
+      <c r="E39" s="273"/>
+      <c r="F39" s="273"/>
+      <c r="G39" s="274"/>
+      <c r="H39" s="275" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="275"/>
-      <c r="J39" s="275"/>
-      <c r="K39" s="276"/>
-      <c r="L39" s="274" t="e">
+      <c r="I39" s="276"/>
+      <c r="J39" s="276"/>
+      <c r="K39" s="277"/>
+      <c r="L39" s="275" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="275"/>
-      <c r="N39" s="275"/>
-      <c r="O39" s="277"/>
+      <c r="M39" s="276"/>
+      <c r="N39" s="276"/>
+      <c r="O39" s="278"/>
     </row>
     <row r="40" spans="1:15" s="38" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="49"/>
@@ -11606,27 +11606,27 @@
       <c r="C40" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="289" t="e">
+      <c r="D40" s="290" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="270"/>
-      <c r="F40" s="270"/>
-      <c r="G40" s="271"/>
-      <c r="H40" s="258" t="e">
+      <c r="E40" s="271"/>
+      <c r="F40" s="271"/>
+      <c r="G40" s="272"/>
+      <c r="H40" s="259" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="259"/>
-      <c r="J40" s="259"/>
-      <c r="K40" s="260"/>
-      <c r="L40" s="258" t="e">
+      <c r="I40" s="260"/>
+      <c r="J40" s="260"/>
+      <c r="K40" s="261"/>
+      <c r="L40" s="259" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="259"/>
-      <c r="N40" s="259"/>
-      <c r="O40" s="278"/>
+      <c r="M40" s="260"/>
+      <c r="N40" s="260"/>
+      <c r="O40" s="279"/>
     </row>
     <row r="41" spans="1:15" s="38" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="52"/>
@@ -11634,38 +11634,38 @@
       <c r="C41" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="287" t="e">
+      <c r="D41" s="288" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="246"/>
-      <c r="F41" s="246"/>
-      <c r="G41" s="247"/>
-      <c r="H41" s="248" t="e">
+      <c r="E41" s="247"/>
+      <c r="F41" s="247"/>
+      <c r="G41" s="248"/>
+      <c r="H41" s="249" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="249"/>
-      <c r="J41" s="249"/>
-      <c r="K41" s="267"/>
-      <c r="L41" s="248" t="e">
+      <c r="I41" s="250"/>
+      <c r="J41" s="250"/>
+      <c r="K41" s="268"/>
+      <c r="L41" s="249" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="249"/>
-      <c r="N41" s="249"/>
-      <c r="O41" s="250"/>
+      <c r="M41" s="250"/>
+      <c r="N41" s="250"/>
+      <c r="O41" s="251"/>
     </row>
     <row r="42" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="168"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="169" t="s">
+      <c r="B42" s="169"/>
+      <c r="C42" s="169"/>
+      <c r="D42" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="169"/>
+      <c r="E42" s="170"/>
       <c r="F42" s="36"/>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
@@ -11674,16 +11674,16 @@
       <c r="L42" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="M42" s="153"/>
-      <c r="N42" s="153"/>
+      <c r="M42" s="154"/>
+      <c r="N42" s="154"/>
       <c r="O42" s="35" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="35"/>
-      <c r="B43" s="148"/>
-      <c r="C43" s="148"/>
+      <c r="B43" s="149"/>
+      <c r="C43" s="149"/>
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="35"/>
@@ -11693,27 +11693,27 @@
       <c r="J43" s="37"/>
       <c r="K43" s="33"/>
       <c r="L43" s="37"/>
-      <c r="M43" s="154"/>
-      <c r="N43" s="154"/>
+      <c r="M43" s="155"/>
+      <c r="N43" s="155"/>
       <c r="O43" s="33"/>
     </row>
     <row r="44" spans="1:15" s="38" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="149" t="s">
+      <c r="A44" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="149"/>
-      <c r="C44" s="149"/>
+      <c r="B44" s="150"/>
+      <c r="C44" s="150"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
       <c r="G44" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H44" s="149" t="s">
+      <c r="H44" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="I44" s="149"/>
-      <c r="J44" s="149"/>
+      <c r="I44" s="150"/>
+      <c r="J44" s="150"/>
       <c r="K44" s="37"/>
       <c r="L44" s="37"/>
       <c r="M44" s="37"/>
@@ -11721,10 +11721,10 @@
       <c r="O44" s="37"/>
     </row>
     <row r="45" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="149" t="s">
+      <c r="A45" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="149"/>
+      <c r="B45" s="150"/>
       <c r="C45" s="35"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
@@ -11735,15 +11735,15 @@
       <c r="J45" s="37"/>
       <c r="K45" s="37"/>
       <c r="L45" s="37"/>
-      <c r="M45" s="150" t="s">
+      <c r="M45" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="N45" s="150"/>
+      <c r="N45" s="151"/>
       <c r="O45" s="37"/>
     </row>
     <row r="46" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A46" s="149"/>
-      <c r="B46" s="149"/>
+      <c r="A46" s="150"/>
+      <c r="B46" s="150"/>
       <c r="C46" s="35"/>
       <c r="D46" s="37"/>
       <c r="E46" s="37"/>
@@ -11754,8 +11754,8 @@
       <c r="J46" s="37"/>
       <c r="K46" s="37"/>
       <c r="L46" s="37"/>
-      <c r="M46" s="150"/>
-      <c r="N46" s="150"/>
+      <c r="M46" s="151"/>
+      <c r="N46" s="151"/>
       <c r="O46" s="37"/>
     </row>
   </sheetData>
@@ -11844,61 +11844,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="269" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="268"/>
-      <c r="L1" s="268"/>
-      <c r="M1" s="268"/>
-      <c r="N1" s="165" t="s">
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
+      <c r="M1" s="269"/>
+      <c r="N1" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="165"/>
+      <c r="O1" s="166"/>
     </row>
     <row r="2" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
-      <c r="H2" s="269"/>
-      <c r="I2" s="269"/>
-      <c r="J2" s="269"/>
-      <c r="K2" s="269"/>
-      <c r="L2" s="269"/>
-      <c r="M2" s="269"/>
-      <c r="N2" s="166" t="s">
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="270"/>
+      <c r="K2" s="270"/>
+      <c r="L2" s="270"/>
+      <c r="M2" s="270"/>
+      <c r="N2" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="166"/>
+      <c r="O2" s="167"/>
     </row>
     <row r="3" spans="1:15" s="63" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="269"/>
-      <c r="B3" s="269"/>
-      <c r="C3" s="269"/>
-      <c r="D3" s="269"/>
-      <c r="E3" s="269"/>
-      <c r="F3" s="269"/>
-      <c r="G3" s="269"/>
-      <c r="H3" s="269"/>
-      <c r="I3" s="269"/>
-      <c r="J3" s="269"/>
-      <c r="K3" s="269"/>
-      <c r="L3" s="269"/>
-      <c r="M3" s="269"/>
+      <c r="A3" s="270"/>
+      <c r="B3" s="270"/>
+      <c r="C3" s="270"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="270"/>
+      <c r="F3" s="270"/>
+      <c r="G3" s="270"/>
+      <c r="H3" s="270"/>
+      <c r="I3" s="270"/>
+      <c r="J3" s="270"/>
+      <c r="K3" s="270"/>
+      <c r="L3" s="270"/>
+      <c r="M3" s="270"/>
       <c r="N3" s="39" t="s">
         <v>19</v>
       </c>
@@ -11908,136 +11908,136 @@
       <c r="A4" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="243">
+      <c r="B4" s="244">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="279"/>
-      <c r="D4" s="280"/>
-      <c r="E4" s="345" t="s">
+      <c r="C4" s="280"/>
+      <c r="D4" s="281"/>
+      <c r="E4" s="346" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="346"/>
-      <c r="G4" s="282">
+      <c r="F4" s="347"/>
+      <c r="G4" s="283">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="282">
+      <c r="J4" s="283">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="282"/>
+      <c r="K4" s="283"/>
       <c r="L4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="347">
+      <c r="M4" s="348">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="348"/>
-      <c r="O4" s="349"/>
+      <c r="N4" s="349"/>
+      <c r="O4" s="350"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="242">
+      <c r="B5" s="243">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="350" t="s">
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="351" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="351"/>
-      <c r="G5" s="242">
+      <c r="F5" s="352"/>
+      <c r="G5" s="243">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="242"/>
+      <c r="H5" s="243"/>
       <c r="I5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="242">
+      <c r="J5" s="243">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="242"/>
+      <c r="K5" s="243"/>
       <c r="L5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="352">
+      <c r="M5" s="353">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="353"/>
-      <c r="O5" s="354"/>
+      <c r="N5" s="354"/>
+      <c r="O5" s="355"/>
     </row>
     <row r="6" spans="1:15" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="329" t="s">
+      <c r="A6" s="330" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="330"/>
-      <c r="C6" s="331"/>
-      <c r="D6" s="332"/>
-      <c r="E6" s="330"/>
-      <c r="F6" s="330"/>
-      <c r="G6" s="330"/>
-      <c r="H6" s="330"/>
-      <c r="I6" s="330"/>
-      <c r="J6" s="330"/>
-      <c r="K6" s="331"/>
-      <c r="L6" s="332"/>
-      <c r="M6" s="330"/>
-      <c r="N6" s="330"/>
-      <c r="O6" s="333"/>
+      <c r="B6" s="331"/>
+      <c r="C6" s="332"/>
+      <c r="D6" s="333"/>
+      <c r="E6" s="331"/>
+      <c r="F6" s="331"/>
+      <c r="G6" s="331"/>
+      <c r="H6" s="331"/>
+      <c r="I6" s="331"/>
+      <c r="J6" s="331"/>
+      <c r="K6" s="332"/>
+      <c r="L6" s="333"/>
+      <c r="M6" s="331"/>
+      <c r="N6" s="331"/>
+      <c r="O6" s="334"/>
     </row>
     <row r="7" spans="1:15" s="11" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A7" s="334" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="335"/>
-      <c r="C7" s="336"/>
-      <c r="D7" s="340" t="s">
+      <c r="A7" s="335" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="336"/>
+      <c r="C7" s="337"/>
+      <c r="D7" s="341" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="253"/>
-      <c r="F7" s="340" t="s">
+      <c r="E7" s="254"/>
+      <c r="F7" s="341" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="253"/>
-      <c r="H7" s="340" t="s">
+      <c r="G7" s="254"/>
+      <c r="H7" s="341" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="253"/>
-      <c r="J7" s="341" t="s">
+      <c r="I7" s="254"/>
+      <c r="J7" s="342" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="342"/>
-      <c r="L7" s="243" t="s">
+      <c r="K7" s="343"/>
+      <c r="L7" s="244" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="279"/>
-      <c r="N7" s="279"/>
-      <c r="O7" s="244"/>
+      <c r="M7" s="280"/>
+      <c r="N7" s="280"/>
+      <c r="O7" s="245"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A8" s="337"/>
-      <c r="B8" s="338"/>
-      <c r="C8" s="339"/>
-      <c r="D8" s="197"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="343"/>
-      <c r="K8" s="344"/>
+      <c r="A8" s="338"/>
+      <c r="B8" s="339"/>
+      <c r="C8" s="340"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="199"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="344"/>
+      <c r="K8" s="345"/>
       <c r="L8" s="80">
         <v>1</v>
       </c>
@@ -12064,14 +12064,14 @@
         <f>Page1!C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="325"/>
-      <c r="E9" s="326"/>
-      <c r="F9" s="325"/>
-      <c r="G9" s="326"/>
-      <c r="H9" s="325"/>
-      <c r="I9" s="326"/>
-      <c r="J9" s="327"/>
-      <c r="K9" s="328"/>
+      <c r="D9" s="326"/>
+      <c r="E9" s="327"/>
+      <c r="F9" s="326"/>
+      <c r="G9" s="327"/>
+      <c r="H9" s="326"/>
+      <c r="I9" s="327"/>
+      <c r="J9" s="328"/>
+      <c r="K9" s="329"/>
       <c r="L9" s="30"/>
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
@@ -12093,14 +12093,14 @@
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="317"/>
-      <c r="E10" s="318"/>
-      <c r="F10" s="317"/>
-      <c r="G10" s="318"/>
-      <c r="H10" s="317"/>
-      <c r="I10" s="318"/>
-      <c r="J10" s="319"/>
-      <c r="K10" s="320"/>
+      <c r="D10" s="318"/>
+      <c r="E10" s="319"/>
+      <c r="F10" s="318"/>
+      <c r="G10" s="319"/>
+      <c r="H10" s="318"/>
+      <c r="I10" s="319"/>
+      <c r="J10" s="320"/>
+      <c r="K10" s="321"/>
       <c r="L10" s="30"/>
       <c r="M10" s="27"/>
       <c r="N10" s="27"/>
@@ -12122,14 +12122,14 @@
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="317"/>
-      <c r="E11" s="318"/>
-      <c r="F11" s="317"/>
-      <c r="G11" s="318"/>
-      <c r="H11" s="317"/>
-      <c r="I11" s="318"/>
-      <c r="J11" s="319"/>
-      <c r="K11" s="320"/>
+      <c r="D11" s="318"/>
+      <c r="E11" s="319"/>
+      <c r="F11" s="318"/>
+      <c r="G11" s="319"/>
+      <c r="H11" s="318"/>
+      <c r="I11" s="319"/>
+      <c r="J11" s="320"/>
+      <c r="K11" s="321"/>
       <c r="L11" s="30"/>
       <c r="M11" s="27"/>
       <c r="N11" s="27"/>
@@ -12151,14 +12151,14 @@
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="317"/>
-      <c r="E12" s="318"/>
-      <c r="F12" s="317"/>
-      <c r="G12" s="318"/>
-      <c r="H12" s="317"/>
-      <c r="I12" s="318"/>
-      <c r="J12" s="319"/>
-      <c r="K12" s="320"/>
+      <c r="D12" s="318"/>
+      <c r="E12" s="319"/>
+      <c r="F12" s="318"/>
+      <c r="G12" s="319"/>
+      <c r="H12" s="318"/>
+      <c r="I12" s="319"/>
+      <c r="J12" s="320"/>
+      <c r="K12" s="321"/>
       <c r="L12" s="29"/>
       <c r="M12" s="28"/>
       <c r="N12" s="28"/>
@@ -12180,14 +12180,14 @@
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="317"/>
-      <c r="E13" s="318"/>
-      <c r="F13" s="317"/>
-      <c r="G13" s="318"/>
-      <c r="H13" s="317"/>
-      <c r="I13" s="318"/>
-      <c r="J13" s="319"/>
-      <c r="K13" s="320"/>
+      <c r="D13" s="318"/>
+      <c r="E13" s="319"/>
+      <c r="F13" s="318"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="318"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="320"/>
+      <c r="K13" s="321"/>
       <c r="L13" s="30"/>
       <c r="M13" s="27"/>
       <c r="N13" s="27"/>
@@ -12209,14 +12209,14 @@
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="317"/>
-      <c r="E14" s="318"/>
-      <c r="F14" s="317"/>
-      <c r="G14" s="318"/>
-      <c r="H14" s="317"/>
-      <c r="I14" s="318"/>
-      <c r="J14" s="319"/>
-      <c r="K14" s="320"/>
+      <c r="D14" s="318"/>
+      <c r="E14" s="319"/>
+      <c r="F14" s="318"/>
+      <c r="G14" s="319"/>
+      <c r="H14" s="318"/>
+      <c r="I14" s="319"/>
+      <c r="J14" s="320"/>
+      <c r="K14" s="321"/>
       <c r="L14" s="30"/>
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
@@ -12238,14 +12238,14 @@
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="317"/>
-      <c r="E15" s="318"/>
-      <c r="F15" s="317"/>
-      <c r="G15" s="318"/>
-      <c r="H15" s="317"/>
-      <c r="I15" s="318"/>
-      <c r="J15" s="319"/>
-      <c r="K15" s="320"/>
+      <c r="D15" s="318"/>
+      <c r="E15" s="319"/>
+      <c r="F15" s="318"/>
+      <c r="G15" s="319"/>
+      <c r="H15" s="318"/>
+      <c r="I15" s="319"/>
+      <c r="J15" s="320"/>
+      <c r="K15" s="321"/>
       <c r="L15" s="30"/>
       <c r="M15" s="27"/>
       <c r="N15" s="27"/>
@@ -12267,14 +12267,14 @@
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="317"/>
-      <c r="E16" s="318"/>
-      <c r="F16" s="317"/>
-      <c r="G16" s="318"/>
-      <c r="H16" s="317"/>
-      <c r="I16" s="318"/>
-      <c r="J16" s="319"/>
-      <c r="K16" s="320"/>
+      <c r="D16" s="318"/>
+      <c r="E16" s="319"/>
+      <c r="F16" s="318"/>
+      <c r="G16" s="319"/>
+      <c r="H16" s="318"/>
+      <c r="I16" s="319"/>
+      <c r="J16" s="320"/>
+      <c r="K16" s="321"/>
       <c r="L16" s="30"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -12296,14 +12296,14 @@
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="317"/>
-      <c r="E17" s="318"/>
-      <c r="F17" s="317"/>
-      <c r="G17" s="318"/>
-      <c r="H17" s="317"/>
-      <c r="I17" s="318"/>
-      <c r="J17" s="319"/>
-      <c r="K17" s="320"/>
+      <c r="D17" s="318"/>
+      <c r="E17" s="319"/>
+      <c r="F17" s="318"/>
+      <c r="G17" s="319"/>
+      <c r="H17" s="318"/>
+      <c r="I17" s="319"/>
+      <c r="J17" s="320"/>
+      <c r="K17" s="321"/>
       <c r="L17" s="30"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -12325,14 +12325,14 @@
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="317"/>
-      <c r="E18" s="318"/>
-      <c r="F18" s="317"/>
-      <c r="G18" s="318"/>
-      <c r="H18" s="317"/>
-      <c r="I18" s="318"/>
-      <c r="J18" s="319"/>
-      <c r="K18" s="320"/>
+      <c r="D18" s="318"/>
+      <c r="E18" s="319"/>
+      <c r="F18" s="318"/>
+      <c r="G18" s="319"/>
+      <c r="H18" s="318"/>
+      <c r="I18" s="319"/>
+      <c r="J18" s="320"/>
+      <c r="K18" s="321"/>
       <c r="L18" s="30"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -12354,14 +12354,14 @@
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="317"/>
-      <c r="E19" s="318"/>
-      <c r="F19" s="317"/>
-      <c r="G19" s="318"/>
-      <c r="H19" s="317"/>
-      <c r="I19" s="318"/>
-      <c r="J19" s="319"/>
-      <c r="K19" s="320"/>
+      <c r="D19" s="318"/>
+      <c r="E19" s="319"/>
+      <c r="F19" s="318"/>
+      <c r="G19" s="319"/>
+      <c r="H19" s="318"/>
+      <c r="I19" s="319"/>
+      <c r="J19" s="320"/>
+      <c r="K19" s="321"/>
       <c r="L19" s="30"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -12383,14 +12383,14 @@
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="317"/>
-      <c r="E20" s="318"/>
-      <c r="F20" s="317"/>
-      <c r="G20" s="318"/>
-      <c r="H20" s="317"/>
-      <c r="I20" s="318"/>
-      <c r="J20" s="319"/>
-      <c r="K20" s="320"/>
+      <c r="D20" s="318"/>
+      <c r="E20" s="319"/>
+      <c r="F20" s="318"/>
+      <c r="G20" s="319"/>
+      <c r="H20" s="318"/>
+      <c r="I20" s="319"/>
+      <c r="J20" s="320"/>
+      <c r="K20" s="321"/>
       <c r="L20" s="30"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -12412,14 +12412,14 @@
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="317"/>
-      <c r="E21" s="318"/>
-      <c r="F21" s="317"/>
-      <c r="G21" s="318"/>
-      <c r="H21" s="317"/>
-      <c r="I21" s="318"/>
-      <c r="J21" s="319"/>
-      <c r="K21" s="320"/>
+      <c r="D21" s="318"/>
+      <c r="E21" s="319"/>
+      <c r="F21" s="318"/>
+      <c r="G21" s="319"/>
+      <c r="H21" s="318"/>
+      <c r="I21" s="319"/>
+      <c r="J21" s="320"/>
+      <c r="K21" s="321"/>
       <c r="L21" s="30"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -12441,14 +12441,14 @@
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="317"/>
-      <c r="E22" s="318"/>
-      <c r="F22" s="317"/>
-      <c r="G22" s="318"/>
-      <c r="H22" s="317"/>
-      <c r="I22" s="318"/>
-      <c r="J22" s="319"/>
-      <c r="K22" s="320"/>
+      <c r="D22" s="318"/>
+      <c r="E22" s="319"/>
+      <c r="F22" s="318"/>
+      <c r="G22" s="319"/>
+      <c r="H22" s="318"/>
+      <c r="I22" s="319"/>
+      <c r="J22" s="320"/>
+      <c r="K22" s="321"/>
       <c r="L22" s="30"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -12470,14 +12470,14 @@
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="317"/>
-      <c r="E23" s="318"/>
-      <c r="F23" s="317"/>
-      <c r="G23" s="318"/>
-      <c r="H23" s="317"/>
-      <c r="I23" s="318"/>
-      <c r="J23" s="319"/>
-      <c r="K23" s="320"/>
+      <c r="D23" s="318"/>
+      <c r="E23" s="319"/>
+      <c r="F23" s="318"/>
+      <c r="G23" s="319"/>
+      <c r="H23" s="318"/>
+      <c r="I23" s="319"/>
+      <c r="J23" s="320"/>
+      <c r="K23" s="321"/>
       <c r="L23" s="30"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -12499,14 +12499,14 @@
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="317"/>
-      <c r="E24" s="318"/>
-      <c r="F24" s="317"/>
-      <c r="G24" s="318"/>
-      <c r="H24" s="317"/>
-      <c r="I24" s="318"/>
-      <c r="J24" s="319"/>
-      <c r="K24" s="320"/>
+      <c r="D24" s="318"/>
+      <c r="E24" s="319"/>
+      <c r="F24" s="318"/>
+      <c r="G24" s="319"/>
+      <c r="H24" s="318"/>
+      <c r="I24" s="319"/>
+      <c r="J24" s="320"/>
+      <c r="K24" s="321"/>
       <c r="L24" s="30"/>
       <c r="M24" s="27"/>
       <c r="N24" s="27"/>
@@ -12528,14 +12528,14 @@
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="317"/>
-      <c r="E25" s="318"/>
-      <c r="F25" s="317"/>
-      <c r="G25" s="318"/>
-      <c r="H25" s="317"/>
-      <c r="I25" s="318"/>
-      <c r="J25" s="319"/>
-      <c r="K25" s="320"/>
+      <c r="D25" s="318"/>
+      <c r="E25" s="319"/>
+      <c r="F25" s="318"/>
+      <c r="G25" s="319"/>
+      <c r="H25" s="318"/>
+      <c r="I25" s="319"/>
+      <c r="J25" s="320"/>
+      <c r="K25" s="321"/>
       <c r="L25" s="29"/>
       <c r="M25" s="28"/>
       <c r="N25" s="28"/>
@@ -12557,14 +12557,14 @@
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="317"/>
-      <c r="E26" s="318"/>
-      <c r="F26" s="317"/>
-      <c r="G26" s="318"/>
-      <c r="H26" s="317"/>
-      <c r="I26" s="318"/>
-      <c r="J26" s="319"/>
-      <c r="K26" s="320"/>
+      <c r="D26" s="318"/>
+      <c r="E26" s="319"/>
+      <c r="F26" s="318"/>
+      <c r="G26" s="319"/>
+      <c r="H26" s="318"/>
+      <c r="I26" s="319"/>
+      <c r="J26" s="320"/>
+      <c r="K26" s="321"/>
       <c r="L26" s="30"/>
       <c r="M26" s="27"/>
       <c r="N26" s="27"/>
@@ -12586,14 +12586,14 @@
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="317"/>
-      <c r="E27" s="318"/>
-      <c r="F27" s="317"/>
-      <c r="G27" s="318"/>
-      <c r="H27" s="317"/>
-      <c r="I27" s="318"/>
-      <c r="J27" s="319"/>
-      <c r="K27" s="320"/>
+      <c r="D27" s="318"/>
+      <c r="E27" s="319"/>
+      <c r="F27" s="318"/>
+      <c r="G27" s="319"/>
+      <c r="H27" s="318"/>
+      <c r="I27" s="319"/>
+      <c r="J27" s="320"/>
+      <c r="K27" s="321"/>
       <c r="L27" s="30"/>
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
@@ -12615,14 +12615,14 @@
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="317"/>
-      <c r="E28" s="318"/>
-      <c r="F28" s="317"/>
-      <c r="G28" s="318"/>
-      <c r="H28" s="317"/>
-      <c r="I28" s="318"/>
-      <c r="J28" s="319"/>
-      <c r="K28" s="320"/>
+      <c r="D28" s="318"/>
+      <c r="E28" s="319"/>
+      <c r="F28" s="318"/>
+      <c r="G28" s="319"/>
+      <c r="H28" s="318"/>
+      <c r="I28" s="319"/>
+      <c r="J28" s="320"/>
+      <c r="K28" s="321"/>
       <c r="L28" s="30"/>
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
@@ -12644,14 +12644,14 @@
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="317"/>
-      <c r="E29" s="318"/>
-      <c r="F29" s="317"/>
-      <c r="G29" s="318"/>
-      <c r="H29" s="317"/>
-      <c r="I29" s="318"/>
-      <c r="J29" s="319"/>
-      <c r="K29" s="320"/>
+      <c r="D29" s="318"/>
+      <c r="E29" s="319"/>
+      <c r="F29" s="318"/>
+      <c r="G29" s="319"/>
+      <c r="H29" s="318"/>
+      <c r="I29" s="319"/>
+      <c r="J29" s="320"/>
+      <c r="K29" s="321"/>
       <c r="L29" s="30"/>
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
@@ -12673,14 +12673,14 @@
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="317"/>
-      <c r="E30" s="318"/>
-      <c r="F30" s="317"/>
-      <c r="G30" s="318"/>
-      <c r="H30" s="317"/>
-      <c r="I30" s="318"/>
-      <c r="J30" s="319"/>
-      <c r="K30" s="320"/>
+      <c r="D30" s="318"/>
+      <c r="E30" s="319"/>
+      <c r="F30" s="318"/>
+      <c r="G30" s="319"/>
+      <c r="H30" s="318"/>
+      <c r="I30" s="319"/>
+      <c r="J30" s="320"/>
+      <c r="K30" s="321"/>
       <c r="L30" s="30"/>
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
@@ -12702,14 +12702,14 @@
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="317"/>
-      <c r="E31" s="318"/>
-      <c r="F31" s="317"/>
-      <c r="G31" s="318"/>
-      <c r="H31" s="317"/>
-      <c r="I31" s="318"/>
-      <c r="J31" s="319"/>
-      <c r="K31" s="320"/>
+      <c r="D31" s="318"/>
+      <c r="E31" s="319"/>
+      <c r="F31" s="318"/>
+      <c r="G31" s="319"/>
+      <c r="H31" s="318"/>
+      <c r="I31" s="319"/>
+      <c r="J31" s="320"/>
+      <c r="K31" s="321"/>
       <c r="L31" s="30"/>
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
@@ -12731,14 +12731,14 @@
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="317"/>
-      <c r="E32" s="318"/>
-      <c r="F32" s="317"/>
-      <c r="G32" s="318"/>
-      <c r="H32" s="317"/>
-      <c r="I32" s="318"/>
-      <c r="J32" s="319"/>
-      <c r="K32" s="320"/>
+      <c r="D32" s="318"/>
+      <c r="E32" s="319"/>
+      <c r="F32" s="318"/>
+      <c r="G32" s="319"/>
+      <c r="H32" s="318"/>
+      <c r="I32" s="319"/>
+      <c r="J32" s="320"/>
+      <c r="K32" s="321"/>
       <c r="L32" s="30"/>
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
@@ -12760,14 +12760,14 @@
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="317"/>
-      <c r="E33" s="318"/>
-      <c r="F33" s="317"/>
-      <c r="G33" s="318"/>
-      <c r="H33" s="317"/>
-      <c r="I33" s="318"/>
-      <c r="J33" s="319"/>
-      <c r="K33" s="320"/>
+      <c r="D33" s="318"/>
+      <c r="E33" s="319"/>
+      <c r="F33" s="318"/>
+      <c r="G33" s="319"/>
+      <c r="H33" s="318"/>
+      <c r="I33" s="319"/>
+      <c r="J33" s="320"/>
+      <c r="K33" s="321"/>
       <c r="L33" s="30"/>
       <c r="M33" s="27"/>
       <c r="N33" s="27"/>
@@ -12789,14 +12789,14 @@
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="317"/>
-      <c r="E34" s="318"/>
-      <c r="F34" s="317"/>
-      <c r="G34" s="318"/>
-      <c r="H34" s="317"/>
-      <c r="I34" s="318"/>
-      <c r="J34" s="319"/>
-      <c r="K34" s="320"/>
+      <c r="D34" s="318"/>
+      <c r="E34" s="319"/>
+      <c r="F34" s="318"/>
+      <c r="G34" s="319"/>
+      <c r="H34" s="318"/>
+      <c r="I34" s="319"/>
+      <c r="J34" s="320"/>
+      <c r="K34" s="321"/>
       <c r="L34" s="30"/>
       <c r="M34" s="27"/>
       <c r="N34" s="27"/>
@@ -12818,14 +12818,14 @@
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="317"/>
-      <c r="E35" s="318"/>
-      <c r="F35" s="317"/>
-      <c r="G35" s="318"/>
-      <c r="H35" s="317"/>
-      <c r="I35" s="318"/>
-      <c r="J35" s="319"/>
-      <c r="K35" s="320"/>
+      <c r="D35" s="318"/>
+      <c r="E35" s="319"/>
+      <c r="F35" s="318"/>
+      <c r="G35" s="319"/>
+      <c r="H35" s="318"/>
+      <c r="I35" s="319"/>
+      <c r="J35" s="320"/>
+      <c r="K35" s="321"/>
       <c r="L35" s="30"/>
       <c r="M35" s="27"/>
       <c r="N35" s="27"/>
@@ -12847,14 +12847,14 @@
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="317"/>
-      <c r="E36" s="318"/>
-      <c r="F36" s="317"/>
-      <c r="G36" s="318"/>
-      <c r="H36" s="317"/>
-      <c r="I36" s="318"/>
-      <c r="J36" s="319"/>
-      <c r="K36" s="320"/>
+      <c r="D36" s="318"/>
+      <c r="E36" s="319"/>
+      <c r="F36" s="318"/>
+      <c r="G36" s="319"/>
+      <c r="H36" s="318"/>
+      <c r="I36" s="319"/>
+      <c r="J36" s="320"/>
+      <c r="K36" s="321"/>
       <c r="L36" s="30"/>
       <c r="M36" s="27"/>
       <c r="N36" s="27"/>
@@ -12876,14 +12876,14 @@
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="317"/>
-      <c r="E37" s="318"/>
-      <c r="F37" s="317"/>
-      <c r="G37" s="318"/>
-      <c r="H37" s="317"/>
-      <c r="I37" s="318"/>
-      <c r="J37" s="319"/>
-      <c r="K37" s="320"/>
+      <c r="D37" s="318"/>
+      <c r="E37" s="319"/>
+      <c r="F37" s="318"/>
+      <c r="G37" s="319"/>
+      <c r="H37" s="318"/>
+      <c r="I37" s="319"/>
+      <c r="J37" s="320"/>
+      <c r="K37" s="321"/>
       <c r="L37" s="30"/>
       <c r="M37" s="27"/>
       <c r="N37" s="27"/>
@@ -12905,14 +12905,14 @@
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="321"/>
-      <c r="E38" s="322"/>
-      <c r="F38" s="321"/>
-      <c r="G38" s="322"/>
-      <c r="H38" s="321"/>
-      <c r="I38" s="322"/>
-      <c r="J38" s="323"/>
-      <c r="K38" s="324"/>
+      <c r="D38" s="322"/>
+      <c r="E38" s="323"/>
+      <c r="F38" s="322"/>
+      <c r="G38" s="323"/>
+      <c r="H38" s="322"/>
+      <c r="I38" s="323"/>
+      <c r="J38" s="324"/>
+      <c r="K38" s="325"/>
       <c r="L38" s="29"/>
       <c r="M38" s="28"/>
       <c r="N38" s="28"/>
@@ -12927,33 +12927,33 @@
       <c r="C39" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="301" t="e">
+      <c r="D39" s="302" t="e">
         <f>AVERAGE(D9:E38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="302"/>
-      <c r="F39" s="301" t="e">
+      <c r="E39" s="303"/>
+      <c r="F39" s="302" t="e">
         <f>AVERAGE(F9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="302"/>
-      <c r="H39" s="301" t="e">
+      <c r="G39" s="303"/>
+      <c r="H39" s="302" t="e">
         <f>AVERAGE(H9:I38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="302"/>
-      <c r="J39" s="303" t="e">
+      <c r="I39" s="303"/>
+      <c r="J39" s="304" t="e">
         <f>AVERAGE(J9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="304"/>
-      <c r="L39" s="305" t="e">
+      <c r="K39" s="305"/>
+      <c r="L39" s="306" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="306"/>
-      <c r="N39" s="306"/>
-      <c r="O39" s="307"/>
+      <c r="M39" s="307"/>
+      <c r="N39" s="307"/>
+      <c r="O39" s="308"/>
     </row>
     <row r="40" spans="1:15" s="11" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="5"/>
@@ -12961,33 +12961,33 @@
       <c r="C40" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="308">
+      <c r="D40" s="309">
         <f>MIN(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="309"/>
-      <c r="F40" s="310">
+      <c r="E40" s="310"/>
+      <c r="F40" s="311">
         <f>MIN(F9:G38)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="311"/>
-      <c r="H40" s="310">
+      <c r="G40" s="312"/>
+      <c r="H40" s="311">
         <f>MIN(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="311"/>
-      <c r="J40" s="312">
+      <c r="I40" s="312"/>
+      <c r="J40" s="313">
         <f>MIN(J9:K38)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="313"/>
-      <c r="L40" s="314" t="e">
+      <c r="K40" s="314"/>
+      <c r="L40" s="315" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="315"/>
-      <c r="N40" s="315"/>
-      <c r="O40" s="316"/>
+      <c r="M40" s="316"/>
+      <c r="N40" s="316"/>
+      <c r="O40" s="317"/>
     </row>
     <row r="41" spans="1:15" s="11" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="8"/>
@@ -12995,44 +12995,44 @@
       <c r="C41" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="292">
+      <c r="D41" s="293">
         <f>MAX(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="293"/>
-      <c r="F41" s="294">
+      <c r="E41" s="294"/>
+      <c r="F41" s="295">
         <f>MAX(F9:G38)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="295"/>
-      <c r="H41" s="294">
+      <c r="G41" s="296"/>
+      <c r="H41" s="295">
         <f>MAX(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="295"/>
-      <c r="J41" s="296">
+      <c r="I41" s="296"/>
+      <c r="J41" s="297">
         <f>MAX(J9:K38)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="297"/>
-      <c r="L41" s="298" t="e">
+      <c r="K41" s="298"/>
+      <c r="L41" s="299" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="299"/>
-      <c r="N41" s="299"/>
-      <c r="O41" s="300"/>
+      <c r="M41" s="300"/>
+      <c r="N41" s="300"/>
+      <c r="O41" s="301"/>
     </row>
     <row r="42" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="168"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="169" t="s">
+      <c r="B42" s="169"/>
+      <c r="C42" s="169"/>
+      <c r="D42" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="169"/>
+      <c r="E42" s="170"/>
       <c r="F42" s="36"/>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
@@ -13041,16 +13041,16 @@
       <c r="L42" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="M42" s="153"/>
-      <c r="N42" s="153"/>
+      <c r="M42" s="154"/>
+      <c r="N42" s="154"/>
       <c r="O42" s="35" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="35"/>
-      <c r="B43" s="148"/>
-      <c r="C43" s="148"/>
+      <c r="B43" s="149"/>
+      <c r="C43" s="149"/>
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="35"/>
@@ -13060,27 +13060,27 @@
       <c r="J43" s="37"/>
       <c r="K43" s="33"/>
       <c r="L43" s="37"/>
-      <c r="M43" s="154"/>
-      <c r="N43" s="154"/>
+      <c r="M43" s="155"/>
+      <c r="N43" s="155"/>
       <c r="O43" s="33"/>
     </row>
     <row r="44" spans="1:15" s="38" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="149" t="s">
+      <c r="A44" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="149"/>
-      <c r="C44" s="149"/>
+      <c r="B44" s="150"/>
+      <c r="C44" s="150"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
       <c r="G44" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H44" s="149" t="s">
+      <c r="H44" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="I44" s="149"/>
-      <c r="J44" s="149"/>
+      <c r="I44" s="150"/>
+      <c r="J44" s="150"/>
       <c r="K44" s="37"/>
       <c r="L44" s="37"/>
       <c r="M44" s="37"/>
@@ -13088,10 +13088,10 @@
       <c r="O44" s="37"/>
     </row>
     <row r="45" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="149" t="s">
+      <c r="A45" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="149"/>
+      <c r="B45" s="150"/>
       <c r="C45" s="35"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
@@ -13102,10 +13102,10 @@
       <c r="J45" s="37"/>
       <c r="K45" s="37"/>
       <c r="L45" s="37"/>
-      <c r="M45" s="150" t="s">
+      <c r="M45" s="151" t="s">
         <v>43</v>
       </c>
-      <c r="N45" s="150"/>
+      <c r="N45" s="151"/>
       <c r="O45" s="37"/>
     </row>
   </sheetData>
@@ -13331,61 +13331,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="269" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="268"/>
-      <c r="L1" s="268"/>
-      <c r="M1" s="268"/>
-      <c r="N1" s="165" t="s">
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
+      <c r="M1" s="269"/>
+      <c r="N1" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="165"/>
+      <c r="O1" s="166"/>
     </row>
     <row r="2" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
-      <c r="H2" s="269"/>
-      <c r="I2" s="269"/>
-      <c r="J2" s="269"/>
-      <c r="K2" s="269"/>
-      <c r="L2" s="269"/>
-      <c r="M2" s="269"/>
-      <c r="N2" s="166" t="s">
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="270"/>
+      <c r="K2" s="270"/>
+      <c r="L2" s="270"/>
+      <c r="M2" s="270"/>
+      <c r="N2" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="166"/>
+      <c r="O2" s="167"/>
     </row>
     <row r="3" spans="1:15" s="63" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="269"/>
-      <c r="B3" s="269"/>
-      <c r="C3" s="269"/>
-      <c r="D3" s="269"/>
-      <c r="E3" s="269"/>
-      <c r="F3" s="269"/>
-      <c r="G3" s="269"/>
-      <c r="H3" s="269"/>
-      <c r="I3" s="269"/>
-      <c r="J3" s="269"/>
-      <c r="K3" s="269"/>
-      <c r="L3" s="269"/>
-      <c r="M3" s="269"/>
+      <c r="A3" s="270"/>
+      <c r="B3" s="270"/>
+      <c r="C3" s="270"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="270"/>
+      <c r="F3" s="270"/>
+      <c r="G3" s="270"/>
+      <c r="H3" s="270"/>
+      <c r="I3" s="270"/>
+      <c r="J3" s="270"/>
+      <c r="K3" s="270"/>
+      <c r="L3" s="270"/>
+      <c r="M3" s="270"/>
       <c r="N3" s="39" t="s">
         <v>19</v>
       </c>
@@ -13395,84 +13395,84 @@
       <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="243">
+      <c r="B4" s="244">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="279"/>
-      <c r="D4" s="280"/>
-      <c r="E4" s="345" t="s">
+      <c r="C4" s="280"/>
+      <c r="D4" s="281"/>
+      <c r="E4" s="346" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="346"/>
-      <c r="G4" s="282">
+      <c r="F4" s="347"/>
+      <c r="G4" s="283">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="282">
+      <c r="J4" s="283">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="282"/>
+      <c r="K4" s="283"/>
       <c r="L4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="347">
+      <c r="M4" s="348">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="348"/>
-      <c r="O4" s="349"/>
+      <c r="N4" s="349"/>
+      <c r="O4" s="350"/>
     </row>
     <row r="5" spans="1:15" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="242">
+      <c r="B5" s="243">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="375" t="s">
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="378" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="375"/>
-      <c r="G5" s="242">
+      <c r="F5" s="378"/>
+      <c r="G5" s="243">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="242"/>
+      <c r="H5" s="243"/>
       <c r="I5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="242">
+      <c r="J5" s="243">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="242"/>
+      <c r="K5" s="243"/>
       <c r="L5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="352">
+      <c r="M5" s="353">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="353"/>
-      <c r="O5" s="354"/>
+      <c r="N5" s="354"/>
+      <c r="O5" s="355"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A6" s="379" t="s">
+      <c r="A6" s="382" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="380"/>
-      <c r="C6" s="381"/>
-      <c r="D6" s="382"/>
-      <c r="E6" s="383"/>
+      <c r="B6" s="383"/>
+      <c r="C6" s="384"/>
+      <c r="D6" s="385"/>
+      <c r="E6" s="386"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -13485,38 +13485,38 @@
       <c r="O6" s="22"/>
     </row>
     <row r="7" spans="1:15" ht="15">
-      <c r="A7" s="384" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="385"/>
-      <c r="C7" s="386"/>
-      <c r="D7" s="390" t="s">
+      <c r="A7" s="387" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="388"/>
+      <c r="C7" s="389"/>
+      <c r="D7" s="393" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="391"/>
-      <c r="F7" s="252"/>
-      <c r="G7" s="252"/>
-      <c r="H7" s="252"/>
-      <c r="I7" s="252"/>
-      <c r="J7" s="373"/>
-      <c r="K7" s="373"/>
-      <c r="L7" s="373"/>
-      <c r="M7" s="373"/>
-      <c r="N7" s="373"/>
-      <c r="O7" s="376"/>
+      <c r="E7" s="394"/>
+      <c r="F7" s="253"/>
+      <c r="G7" s="253"/>
+      <c r="H7" s="253"/>
+      <c r="I7" s="253"/>
+      <c r="J7" s="376"/>
+      <c r="K7" s="376"/>
+      <c r="L7" s="376"/>
+      <c r="M7" s="376"/>
+      <c r="N7" s="376"/>
+      <c r="O7" s="379"/>
     </row>
     <row r="8" spans="1:15" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A8" s="387"/>
-      <c r="B8" s="388"/>
-      <c r="C8" s="389"/>
-      <c r="D8" s="392"/>
-      <c r="E8" s="393"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="150"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="374"/>
-      <c r="K8" s="374"/>
+      <c r="A8" s="390"/>
+      <c r="B8" s="391"/>
+      <c r="C8" s="392"/>
+      <c r="D8" s="395"/>
+      <c r="E8" s="396"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="377"/>
+      <c r="K8" s="377"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
@@ -13535,16 +13535,16 @@
         <f>Page1!C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="377">
-        <v>0</v>
-      </c>
-      <c r="E9" s="378"/>
-      <c r="F9" s="367"/>
-      <c r="G9" s="367"/>
-      <c r="H9" s="367"/>
-      <c r="I9" s="367"/>
-      <c r="J9" s="368"/>
-      <c r="K9" s="368"/>
+      <c r="D9" s="380">
+        <v>0</v>
+      </c>
+      <c r="E9" s="381"/>
+      <c r="F9" s="370"/>
+      <c r="G9" s="370"/>
+      <c r="H9" s="370"/>
+      <c r="I9" s="370"/>
+      <c r="J9" s="371"/>
+      <c r="K9" s="371"/>
       <c r="L9" s="31"/>
       <c r="M9" s="31"/>
       <c r="N9" s="31"/>
@@ -13563,16 +13563,16 @@
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="371">
-        <v>0</v>
-      </c>
-      <c r="E10" s="372"/>
-      <c r="F10" s="367"/>
-      <c r="G10" s="367"/>
-      <c r="H10" s="367"/>
-      <c r="I10" s="367"/>
-      <c r="J10" s="368"/>
-      <c r="K10" s="368"/>
+      <c r="D10" s="374">
+        <v>0</v>
+      </c>
+      <c r="E10" s="375"/>
+      <c r="F10" s="370"/>
+      <c r="G10" s="370"/>
+      <c r="H10" s="370"/>
+      <c r="I10" s="370"/>
+      <c r="J10" s="371"/>
+      <c r="K10" s="371"/>
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
       <c r="N10" s="31"/>
@@ -13591,16 +13591,16 @@
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="371">
-        <v>0</v>
-      </c>
-      <c r="E11" s="372"/>
-      <c r="F11" s="367"/>
-      <c r="G11" s="367"/>
-      <c r="H11" s="367"/>
-      <c r="I11" s="367"/>
-      <c r="J11" s="368"/>
-      <c r="K11" s="368"/>
+      <c r="D11" s="374">
+        <v>0</v>
+      </c>
+      <c r="E11" s="375"/>
+      <c r="F11" s="370"/>
+      <c r="G11" s="370"/>
+      <c r="H11" s="370"/>
+      <c r="I11" s="370"/>
+      <c r="J11" s="371"/>
+      <c r="K11" s="371"/>
       <c r="L11" s="31"/>
       <c r="M11" s="31"/>
       <c r="N11" s="31"/>
@@ -13619,16 +13619,16 @@
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="371">
-        <v>0</v>
-      </c>
-      <c r="E12" s="372"/>
-      <c r="F12" s="367"/>
-      <c r="G12" s="367"/>
-      <c r="H12" s="367"/>
-      <c r="I12" s="367"/>
-      <c r="J12" s="368"/>
-      <c r="K12" s="368"/>
+      <c r="D12" s="374">
+        <v>0</v>
+      </c>
+      <c r="E12" s="375"/>
+      <c r="F12" s="370"/>
+      <c r="G12" s="370"/>
+      <c r="H12" s="370"/>
+      <c r="I12" s="370"/>
+      <c r="J12" s="371"/>
+      <c r="K12" s="371"/>
       <c r="L12" s="31"/>
       <c r="M12" s="31"/>
       <c r="N12" s="31"/>
@@ -13647,16 +13647,16 @@
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="371">
-        <v>0</v>
-      </c>
-      <c r="E13" s="372"/>
-      <c r="F13" s="367"/>
-      <c r="G13" s="367"/>
-      <c r="H13" s="367"/>
-      <c r="I13" s="367"/>
-      <c r="J13" s="368"/>
-      <c r="K13" s="368"/>
+      <c r="D13" s="374">
+        <v>0</v>
+      </c>
+      <c r="E13" s="375"/>
+      <c r="F13" s="370"/>
+      <c r="G13" s="370"/>
+      <c r="H13" s="370"/>
+      <c r="I13" s="370"/>
+      <c r="J13" s="371"/>
+      <c r="K13" s="371"/>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
       <c r="N13" s="31"/>
@@ -13675,16 +13675,16 @@
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="371">
-        <v>0</v>
-      </c>
-      <c r="E14" s="372"/>
-      <c r="F14" s="367"/>
-      <c r="G14" s="367"/>
-      <c r="H14" s="367"/>
-      <c r="I14" s="367"/>
-      <c r="J14" s="368"/>
-      <c r="K14" s="368"/>
+      <c r="D14" s="374">
+        <v>0</v>
+      </c>
+      <c r="E14" s="375"/>
+      <c r="F14" s="370"/>
+      <c r="G14" s="370"/>
+      <c r="H14" s="370"/>
+      <c r="I14" s="370"/>
+      <c r="J14" s="371"/>
+      <c r="K14" s="371"/>
       <c r="L14" s="31"/>
       <c r="M14" s="31"/>
       <c r="N14" s="31"/>
@@ -13703,16 +13703,16 @@
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="371">
-        <v>0</v>
-      </c>
-      <c r="E15" s="372"/>
-      <c r="F15" s="367"/>
-      <c r="G15" s="367"/>
-      <c r="H15" s="367"/>
-      <c r="I15" s="367"/>
-      <c r="J15" s="368"/>
-      <c r="K15" s="368"/>
+      <c r="D15" s="374">
+        <v>0</v>
+      </c>
+      <c r="E15" s="375"/>
+      <c r="F15" s="370"/>
+      <c r="G15" s="370"/>
+      <c r="H15" s="370"/>
+      <c r="I15" s="370"/>
+      <c r="J15" s="371"/>
+      <c r="K15" s="371"/>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
       <c r="N15" s="31"/>
@@ -13731,16 +13731,16 @@
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="371">
-        <v>0</v>
-      </c>
-      <c r="E16" s="372"/>
-      <c r="F16" s="367"/>
-      <c r="G16" s="367"/>
-      <c r="H16" s="367"/>
-      <c r="I16" s="367"/>
-      <c r="J16" s="368"/>
-      <c r="K16" s="368"/>
+      <c r="D16" s="374">
+        <v>0</v>
+      </c>
+      <c r="E16" s="375"/>
+      <c r="F16" s="370"/>
+      <c r="G16" s="370"/>
+      <c r="H16" s="370"/>
+      <c r="I16" s="370"/>
+      <c r="J16" s="371"/>
+      <c r="K16" s="371"/>
       <c r="L16" s="31"/>
       <c r="M16" s="31"/>
       <c r="N16" s="31"/>
@@ -13759,16 +13759,16 @@
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="371">
-        <v>0</v>
-      </c>
-      <c r="E17" s="372"/>
-      <c r="F17" s="367"/>
-      <c r="G17" s="367"/>
-      <c r="H17" s="367"/>
-      <c r="I17" s="367"/>
-      <c r="J17" s="368"/>
-      <c r="K17" s="368"/>
+      <c r="D17" s="374">
+        <v>0</v>
+      </c>
+      <c r="E17" s="375"/>
+      <c r="F17" s="370"/>
+      <c r="G17" s="370"/>
+      <c r="H17" s="370"/>
+      <c r="I17" s="370"/>
+      <c r="J17" s="371"/>
+      <c r="K17" s="371"/>
       <c r="L17" s="31"/>
       <c r="M17" s="31"/>
       <c r="N17" s="31"/>
@@ -13787,16 +13787,16 @@
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="371">
-        <v>0</v>
-      </c>
-      <c r="E18" s="372"/>
-      <c r="F18" s="367"/>
-      <c r="G18" s="367"/>
-      <c r="H18" s="367"/>
-      <c r="I18" s="367"/>
-      <c r="J18" s="368"/>
-      <c r="K18" s="368"/>
+      <c r="D18" s="374">
+        <v>0</v>
+      </c>
+      <c r="E18" s="375"/>
+      <c r="F18" s="370"/>
+      <c r="G18" s="370"/>
+      <c r="H18" s="370"/>
+      <c r="I18" s="370"/>
+      <c r="J18" s="371"/>
+      <c r="K18" s="371"/>
       <c r="L18" s="31"/>
       <c r="M18" s="31"/>
       <c r="N18" s="31"/>
@@ -13815,16 +13815,16 @@
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="371">
-        <v>0</v>
-      </c>
-      <c r="E19" s="372"/>
-      <c r="F19" s="367"/>
-      <c r="G19" s="367"/>
-      <c r="H19" s="367"/>
-      <c r="I19" s="367"/>
-      <c r="J19" s="368"/>
-      <c r="K19" s="368"/>
+      <c r="D19" s="374">
+        <v>0</v>
+      </c>
+      <c r="E19" s="375"/>
+      <c r="F19" s="370"/>
+      <c r="G19" s="370"/>
+      <c r="H19" s="370"/>
+      <c r="I19" s="370"/>
+      <c r="J19" s="371"/>
+      <c r="K19" s="371"/>
       <c r="L19" s="31"/>
       <c r="M19" s="31"/>
       <c r="N19" s="31"/>
@@ -13843,16 +13843,16 @@
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="371">
-        <v>0</v>
-      </c>
-      <c r="E20" s="372"/>
-      <c r="F20" s="367"/>
-      <c r="G20" s="367"/>
-      <c r="H20" s="367"/>
-      <c r="I20" s="367"/>
-      <c r="J20" s="368"/>
-      <c r="K20" s="368"/>
+      <c r="D20" s="374">
+        <v>0</v>
+      </c>
+      <c r="E20" s="375"/>
+      <c r="F20" s="370"/>
+      <c r="G20" s="370"/>
+      <c r="H20" s="370"/>
+      <c r="I20" s="370"/>
+      <c r="J20" s="371"/>
+      <c r="K20" s="371"/>
       <c r="L20" s="31"/>
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
@@ -13871,16 +13871,16 @@
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="371">
-        <v>0</v>
-      </c>
-      <c r="E21" s="372"/>
-      <c r="F21" s="367"/>
-      <c r="G21" s="367"/>
-      <c r="H21" s="367"/>
-      <c r="I21" s="367"/>
-      <c r="J21" s="368"/>
-      <c r="K21" s="368"/>
+      <c r="D21" s="374">
+        <v>0</v>
+      </c>
+      <c r="E21" s="375"/>
+      <c r="F21" s="370"/>
+      <c r="G21" s="370"/>
+      <c r="H21" s="370"/>
+      <c r="I21" s="370"/>
+      <c r="J21" s="371"/>
+      <c r="K21" s="371"/>
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
@@ -13899,16 +13899,16 @@
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="371">
-        <v>0</v>
-      </c>
-      <c r="E22" s="372"/>
-      <c r="F22" s="367"/>
-      <c r="G22" s="367"/>
-      <c r="H22" s="367"/>
-      <c r="I22" s="367"/>
-      <c r="J22" s="368"/>
-      <c r="K22" s="368"/>
+      <c r="D22" s="374">
+        <v>0</v>
+      </c>
+      <c r="E22" s="375"/>
+      <c r="F22" s="370"/>
+      <c r="G22" s="370"/>
+      <c r="H22" s="370"/>
+      <c r="I22" s="370"/>
+      <c r="J22" s="371"/>
+      <c r="K22" s="371"/>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
       <c r="N22" s="31"/>
@@ -13927,16 +13927,16 @@
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="371">
-        <v>0</v>
-      </c>
-      <c r="E23" s="372"/>
-      <c r="F23" s="367"/>
-      <c r="G23" s="367"/>
-      <c r="H23" s="367"/>
-      <c r="I23" s="367"/>
-      <c r="J23" s="368"/>
-      <c r="K23" s="368"/>
+      <c r="D23" s="374">
+        <v>0</v>
+      </c>
+      <c r="E23" s="375"/>
+      <c r="F23" s="370"/>
+      <c r="G23" s="370"/>
+      <c r="H23" s="370"/>
+      <c r="I23" s="370"/>
+      <c r="J23" s="371"/>
+      <c r="K23" s="371"/>
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
       <c r="N23" s="31"/>
@@ -13955,16 +13955,16 @@
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="371">
-        <v>0</v>
-      </c>
-      <c r="E24" s="372"/>
-      <c r="F24" s="367"/>
-      <c r="G24" s="367"/>
-      <c r="H24" s="367"/>
-      <c r="I24" s="367"/>
-      <c r="J24" s="368"/>
-      <c r="K24" s="368"/>
+      <c r="D24" s="374">
+        <v>0</v>
+      </c>
+      <c r="E24" s="375"/>
+      <c r="F24" s="370"/>
+      <c r="G24" s="370"/>
+      <c r="H24" s="370"/>
+      <c r="I24" s="370"/>
+      <c r="J24" s="371"/>
+      <c r="K24" s="371"/>
       <c r="L24" s="31"/>
       <c r="M24" s="31"/>
       <c r="N24" s="31"/>
@@ -13983,16 +13983,16 @@
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="371">
-        <v>0</v>
-      </c>
-      <c r="E25" s="372"/>
-      <c r="F25" s="367"/>
-      <c r="G25" s="367"/>
-      <c r="H25" s="367"/>
-      <c r="I25" s="367"/>
-      <c r="J25" s="368"/>
-      <c r="K25" s="368"/>
+      <c r="D25" s="374">
+        <v>0</v>
+      </c>
+      <c r="E25" s="375"/>
+      <c r="F25" s="370"/>
+      <c r="G25" s="370"/>
+      <c r="H25" s="370"/>
+      <c r="I25" s="370"/>
+      <c r="J25" s="371"/>
+      <c r="K25" s="371"/>
       <c r="L25" s="31"/>
       <c r="M25" s="31"/>
       <c r="N25" s="31"/>
@@ -14011,16 +14011,16 @@
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="371">
-        <v>0</v>
-      </c>
-      <c r="E26" s="372"/>
-      <c r="F26" s="367"/>
-      <c r="G26" s="367"/>
-      <c r="H26" s="367"/>
-      <c r="I26" s="367"/>
-      <c r="J26" s="368"/>
-      <c r="K26" s="368"/>
+      <c r="D26" s="374">
+        <v>0</v>
+      </c>
+      <c r="E26" s="375"/>
+      <c r="F26" s="370"/>
+      <c r="G26" s="370"/>
+      <c r="H26" s="370"/>
+      <c r="I26" s="370"/>
+      <c r="J26" s="371"/>
+      <c r="K26" s="371"/>
       <c r="L26" s="31"/>
       <c r="M26" s="31"/>
       <c r="N26" s="31"/>
@@ -14039,16 +14039,16 @@
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="371">
-        <v>0</v>
-      </c>
-      <c r="E27" s="372"/>
-      <c r="F27" s="367"/>
-      <c r="G27" s="367"/>
-      <c r="H27" s="367"/>
-      <c r="I27" s="367"/>
-      <c r="J27" s="368"/>
-      <c r="K27" s="368"/>
+      <c r="D27" s="374">
+        <v>0</v>
+      </c>
+      <c r="E27" s="375"/>
+      <c r="F27" s="370"/>
+      <c r="G27" s="370"/>
+      <c r="H27" s="370"/>
+      <c r="I27" s="370"/>
+      <c r="J27" s="371"/>
+      <c r="K27" s="371"/>
       <c r="L27" s="31"/>
       <c r="M27" s="31"/>
       <c r="N27" s="31"/>
@@ -14067,16 +14067,16 @@
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="371">
-        <v>0</v>
-      </c>
-      <c r="E28" s="372"/>
-      <c r="F28" s="367"/>
-      <c r="G28" s="367"/>
-      <c r="H28" s="367"/>
-      <c r="I28" s="367"/>
-      <c r="J28" s="368"/>
-      <c r="K28" s="368"/>
+      <c r="D28" s="374">
+        <v>0</v>
+      </c>
+      <c r="E28" s="375"/>
+      <c r="F28" s="370"/>
+      <c r="G28" s="370"/>
+      <c r="H28" s="370"/>
+      <c r="I28" s="370"/>
+      <c r="J28" s="371"/>
+      <c r="K28" s="371"/>
       <c r="L28" s="31"/>
       <c r="M28" s="31"/>
       <c r="N28" s="31"/>
@@ -14095,16 +14095,16 @@
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="371">
-        <v>0</v>
-      </c>
-      <c r="E29" s="372"/>
-      <c r="F29" s="367"/>
-      <c r="G29" s="367"/>
-      <c r="H29" s="367"/>
-      <c r="I29" s="367"/>
-      <c r="J29" s="368"/>
-      <c r="K29" s="368"/>
+      <c r="D29" s="374">
+        <v>0</v>
+      </c>
+      <c r="E29" s="375"/>
+      <c r="F29" s="370"/>
+      <c r="G29" s="370"/>
+      <c r="H29" s="370"/>
+      <c r="I29" s="370"/>
+      <c r="J29" s="371"/>
+      <c r="K29" s="371"/>
       <c r="L29" s="31"/>
       <c r="M29" s="31"/>
       <c r="N29" s="31"/>
@@ -14123,16 +14123,16 @@
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="371">
-        <v>0</v>
-      </c>
-      <c r="E30" s="372"/>
-      <c r="F30" s="367"/>
-      <c r="G30" s="367"/>
-      <c r="H30" s="367"/>
-      <c r="I30" s="367"/>
-      <c r="J30" s="368"/>
-      <c r="K30" s="368"/>
+      <c r="D30" s="374">
+        <v>0</v>
+      </c>
+      <c r="E30" s="375"/>
+      <c r="F30" s="370"/>
+      <c r="G30" s="370"/>
+      <c r="H30" s="370"/>
+      <c r="I30" s="370"/>
+      <c r="J30" s="371"/>
+      <c r="K30" s="371"/>
       <c r="L30" s="31"/>
       <c r="M30" s="31"/>
       <c r="N30" s="31"/>
@@ -14151,16 +14151,16 @@
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="371">
-        <v>0</v>
-      </c>
-      <c r="E31" s="372"/>
-      <c r="F31" s="367"/>
-      <c r="G31" s="367"/>
-      <c r="H31" s="367"/>
-      <c r="I31" s="367"/>
-      <c r="J31" s="368"/>
-      <c r="K31" s="368"/>
+      <c r="D31" s="374">
+        <v>0</v>
+      </c>
+      <c r="E31" s="375"/>
+      <c r="F31" s="370"/>
+      <c r="G31" s="370"/>
+      <c r="H31" s="370"/>
+      <c r="I31" s="370"/>
+      <c r="J31" s="371"/>
+      <c r="K31" s="371"/>
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
       <c r="N31" s="31"/>
@@ -14179,16 +14179,16 @@
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="371">
-        <v>0</v>
-      </c>
-      <c r="E32" s="372"/>
-      <c r="F32" s="367"/>
-      <c r="G32" s="367"/>
-      <c r="H32" s="367"/>
-      <c r="I32" s="367"/>
-      <c r="J32" s="368"/>
-      <c r="K32" s="368"/>
+      <c r="D32" s="374">
+        <v>0</v>
+      </c>
+      <c r="E32" s="375"/>
+      <c r="F32" s="370"/>
+      <c r="G32" s="370"/>
+      <c r="H32" s="370"/>
+      <c r="I32" s="370"/>
+      <c r="J32" s="371"/>
+      <c r="K32" s="371"/>
       <c r="L32" s="31"/>
       <c r="M32" s="31"/>
       <c r="N32" s="31"/>
@@ -14207,16 +14207,16 @@
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="371">
-        <v>0</v>
-      </c>
-      <c r="E33" s="372"/>
-      <c r="F33" s="367"/>
-      <c r="G33" s="367"/>
-      <c r="H33" s="367"/>
-      <c r="I33" s="367"/>
-      <c r="J33" s="368"/>
-      <c r="K33" s="368"/>
+      <c r="D33" s="374">
+        <v>0</v>
+      </c>
+      <c r="E33" s="375"/>
+      <c r="F33" s="370"/>
+      <c r="G33" s="370"/>
+      <c r="H33" s="370"/>
+      <c r="I33" s="370"/>
+      <c r="J33" s="371"/>
+      <c r="K33" s="371"/>
       <c r="L33" s="31"/>
       <c r="M33" s="31"/>
       <c r="N33" s="31"/>
@@ -14235,16 +14235,16 @@
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="371">
-        <v>0</v>
-      </c>
-      <c r="E34" s="372"/>
-      <c r="F34" s="367"/>
-      <c r="G34" s="367"/>
-      <c r="H34" s="367"/>
-      <c r="I34" s="367"/>
-      <c r="J34" s="368"/>
-      <c r="K34" s="368"/>
+      <c r="D34" s="374">
+        <v>0</v>
+      </c>
+      <c r="E34" s="375"/>
+      <c r="F34" s="370"/>
+      <c r="G34" s="370"/>
+      <c r="H34" s="370"/>
+      <c r="I34" s="370"/>
+      <c r="J34" s="371"/>
+      <c r="K34" s="371"/>
       <c r="L34" s="31"/>
       <c r="M34" s="31"/>
       <c r="N34" s="31"/>
@@ -14263,16 +14263,16 @@
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="371">
-        <v>0</v>
-      </c>
-      <c r="E35" s="372"/>
-      <c r="F35" s="367"/>
-      <c r="G35" s="367"/>
-      <c r="H35" s="367"/>
-      <c r="I35" s="367"/>
-      <c r="J35" s="368"/>
-      <c r="K35" s="368"/>
+      <c r="D35" s="374">
+        <v>0</v>
+      </c>
+      <c r="E35" s="375"/>
+      <c r="F35" s="370"/>
+      <c r="G35" s="370"/>
+      <c r="H35" s="370"/>
+      <c r="I35" s="370"/>
+      <c r="J35" s="371"/>
+      <c r="K35" s="371"/>
       <c r="L35" s="31"/>
       <c r="M35" s="31"/>
       <c r="N35" s="31"/>
@@ -14291,16 +14291,16 @@
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="371">
-        <v>0</v>
-      </c>
-      <c r="E36" s="372"/>
-      <c r="F36" s="367"/>
-      <c r="G36" s="367"/>
-      <c r="H36" s="367"/>
-      <c r="I36" s="367"/>
-      <c r="J36" s="368"/>
-      <c r="K36" s="368"/>
+      <c r="D36" s="374">
+        <v>0</v>
+      </c>
+      <c r="E36" s="375"/>
+      <c r="F36" s="370"/>
+      <c r="G36" s="370"/>
+      <c r="H36" s="370"/>
+      <c r="I36" s="370"/>
+      <c r="J36" s="371"/>
+      <c r="K36" s="371"/>
       <c r="L36" s="31"/>
       <c r="M36" s="31"/>
       <c r="N36" s="31"/>
@@ -14319,16 +14319,16 @@
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="371">
-        <v>0</v>
-      </c>
-      <c r="E37" s="372"/>
-      <c r="F37" s="367"/>
-      <c r="G37" s="367"/>
-      <c r="H37" s="367"/>
-      <c r="I37" s="367"/>
-      <c r="J37" s="368"/>
-      <c r="K37" s="368"/>
+      <c r="D37" s="374">
+        <v>0</v>
+      </c>
+      <c r="E37" s="375"/>
+      <c r="F37" s="370"/>
+      <c r="G37" s="370"/>
+      <c r="H37" s="370"/>
+      <c r="I37" s="370"/>
+      <c r="J37" s="371"/>
+      <c r="K37" s="371"/>
       <c r="L37" s="31"/>
       <c r="M37" s="31"/>
       <c r="N37" s="31"/>
@@ -14347,16 +14347,16 @@
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="394">
-        <v>0</v>
-      </c>
-      <c r="E38" s="395"/>
-      <c r="F38" s="367"/>
-      <c r="G38" s="367"/>
-      <c r="H38" s="367"/>
-      <c r="I38" s="367"/>
-      <c r="J38" s="368"/>
-      <c r="K38" s="368"/>
+      <c r="D38" s="368">
+        <v>0</v>
+      </c>
+      <c r="E38" s="369"/>
+      <c r="F38" s="370"/>
+      <c r="G38" s="370"/>
+      <c r="H38" s="370"/>
+      <c r="I38" s="370"/>
+      <c r="J38" s="371"/>
+      <c r="K38" s="371"/>
       <c r="L38" s="31"/>
       <c r="M38" s="31"/>
       <c r="N38" s="31"/>
@@ -14365,24 +14365,24 @@
     <row r="39" spans="1:15" ht="19.5" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="396" t="s">
+      <c r="C39" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="369">
+      <c r="D39" s="372">
         <f>AVERAGE(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="370"/>
-      <c r="F39" s="365"/>
-      <c r="G39" s="365"/>
-      <c r="H39" s="365"/>
-      <c r="I39" s="365"/>
-      <c r="J39" s="366"/>
-      <c r="K39" s="366"/>
-      <c r="L39" s="361"/>
-      <c r="M39" s="361"/>
-      <c r="N39" s="361"/>
-      <c r="O39" s="362"/>
+      <c r="E39" s="373"/>
+      <c r="F39" s="366"/>
+      <c r="G39" s="366"/>
+      <c r="H39" s="366"/>
+      <c r="I39" s="366"/>
+      <c r="J39" s="367"/>
+      <c r="K39" s="367"/>
+      <c r="L39" s="362"/>
+      <c r="M39" s="362"/>
+      <c r="N39" s="362"/>
+      <c r="O39" s="363"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1">
       <c r="A40" s="5"/>
@@ -14390,21 +14390,21 @@
       <c r="C40" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="363">
+      <c r="D40" s="364">
         <f>MIN(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="364"/>
-      <c r="F40" s="365"/>
-      <c r="G40" s="365"/>
-      <c r="H40" s="365"/>
-      <c r="I40" s="365"/>
-      <c r="J40" s="366"/>
-      <c r="K40" s="366"/>
-      <c r="L40" s="361"/>
-      <c r="M40" s="361"/>
-      <c r="N40" s="361"/>
-      <c r="O40" s="362"/>
+      <c r="E40" s="365"/>
+      <c r="F40" s="366"/>
+      <c r="G40" s="366"/>
+      <c r="H40" s="366"/>
+      <c r="I40" s="366"/>
+      <c r="J40" s="367"/>
+      <c r="K40" s="367"/>
+      <c r="L40" s="362"/>
+      <c r="M40" s="362"/>
+      <c r="N40" s="362"/>
+      <c r="O40" s="363"/>
     </row>
     <row r="41" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="8"/>
@@ -14412,32 +14412,32 @@
       <c r="C41" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="355">
+      <c r="D41" s="356">
         <f>MAX(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="356"/>
-      <c r="F41" s="357"/>
-      <c r="G41" s="357"/>
-      <c r="H41" s="357"/>
-      <c r="I41" s="357"/>
-      <c r="J41" s="358"/>
-      <c r="K41" s="358"/>
-      <c r="L41" s="359"/>
-      <c r="M41" s="359"/>
-      <c r="N41" s="359"/>
-      <c r="O41" s="360"/>
+      <c r="E41" s="357"/>
+      <c r="F41" s="358"/>
+      <c r="G41" s="358"/>
+      <c r="H41" s="358"/>
+      <c r="I41" s="358"/>
+      <c r="J41" s="359"/>
+      <c r="K41" s="359"/>
+      <c r="L41" s="360"/>
+      <c r="M41" s="360"/>
+      <c r="N41" s="360"/>
+      <c r="O41" s="361"/>
     </row>
     <row r="42" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="168"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="169" t="s">
+      <c r="B42" s="169"/>
+      <c r="C42" s="169"/>
+      <c r="D42" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="169"/>
+      <c r="E42" s="170"/>
       <c r="F42" s="36"/>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
@@ -14446,16 +14446,16 @@
       <c r="L42" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="M42" s="153"/>
-      <c r="N42" s="153"/>
+      <c r="M42" s="154"/>
+      <c r="N42" s="154"/>
       <c r="O42" s="35" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="35"/>
-      <c r="B43" s="148"/>
-      <c r="C43" s="148"/>
+      <c r="B43" s="149"/>
+      <c r="C43" s="149"/>
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="35"/>
@@ -14465,37 +14465,37 @@
       <c r="J43" s="37"/>
       <c r="K43" s="33"/>
       <c r="L43" s="37"/>
-      <c r="M43" s="154"/>
-      <c r="N43" s="154"/>
+      <c r="M43" s="155"/>
+      <c r="N43" s="155"/>
       <c r="O43" s="33"/>
     </row>
     <row r="44" spans="1:15" s="38" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="149" t="s">
+      <c r="A44" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="149"/>
-      <c r="C44" s="149"/>
+      <c r="B44" s="150"/>
+      <c r="C44" s="150"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
       <c r="G44" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H44" s="149" t="s">
+      <c r="H44" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="I44" s="149"/>
-      <c r="J44" s="149"/>
+      <c r="I44" s="150"/>
+      <c r="J44" s="150"/>
       <c r="K44" s="37"/>
       <c r="L44" s="37"/>
       <c r="M44" s="37"/>
       <c r="N44" s="37"/>
     </row>
     <row r="45" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="149" t="s">
+      <c r="A45" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="149"/>
+      <c r="B45" s="150"/>
       <c r="C45" s="35"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
@@ -14506,10 +14506,10 @@
       <c r="J45" s="37"/>
       <c r="K45" s="37"/>
       <c r="L45" s="37"/>
-      <c r="M45" s="150" t="s">
+      <c r="M45" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="N45" s="150"/>
+      <c r="N45" s="151"/>
       <c r="O45" s="37"/>
     </row>
   </sheetData>

--- a/backend/templates/168-16c-white.xlsx
+++ b/backend/templates/168-16c-white.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA64181-C625-47EE-AE2A-1EF9717B12AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E563627-72FC-44E3-93C3-99B576404B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,6 @@
     <sheet name="21081576.001_01_COA" sheetId="9" r:id="rId6"/>
     <sheet name="Cpk " sheetId="8" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Page1!$A$1:$O$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Page2!#REF!</definedName>
@@ -41,6 +38,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1956,6 +1956,258 @@
     <xf numFmtId="170" fontId="17" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1983,13 +2235,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2013,9 +2259,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2025,258 +2268,88 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2322,12 +2395,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2354,72 +2421,11 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2430,86 +2436,107 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2527,6 +2554,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2543,149 +2576,169 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2695,100 +2748,47 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3020,22 +3020,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3342,671 +3326,671 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="222" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="222"/>
+      <c r="L1" s="222"/>
       <c r="M1" s="57"/>
-      <c r="N1" s="163" t="s">
+      <c r="N1" s="234" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="163"/>
+      <c r="O1" s="234"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="226" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
+      <c r="H2" s="226"/>
+      <c r="I2" s="226"/>
+      <c r="J2" s="226"/>
+      <c r="K2" s="226"/>
+      <c r="L2" s="226"/>
       <c r="M2" s="58"/>
-      <c r="N2" s="164" t="s">
+      <c r="N2" s="235" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="164"/>
+      <c r="O2" s="235"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="154"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
+      <c r="A3" s="227"/>
+      <c r="B3" s="227"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="227"/>
+      <c r="I3" s="227"/>
+      <c r="J3" s="227"/>
+      <c r="K3" s="227"/>
+      <c r="L3" s="227"/>
       <c r="M3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="165"/>
-      <c r="O3" s="165"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
     </row>
     <row r="4" spans="1:15" s="61" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="155"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="159" t="s">
+      <c r="B4" s="215"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="216"/>
+      <c r="E4" s="230" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="160"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="169"/>
+      <c r="F4" s="231"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="216"/>
       <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="155"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="159" t="s">
+      <c r="J4" s="215"/>
+      <c r="K4" s="216"/>
+      <c r="L4" s="230" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="160"/>
-      <c r="N4" s="155"/>
-      <c r="O4" s="156"/>
+      <c r="M4" s="231"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="228"/>
     </row>
     <row r="5" spans="1:15" s="61" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="157"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="161" t="s">
+      <c r="B5" s="213"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="232" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="162"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="171"/>
+      <c r="F5" s="233"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="214"/>
       <c r="I5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="172"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="161" t="s">
+      <c r="J5" s="217"/>
+      <c r="K5" s="218"/>
+      <c r="L5" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="162"/>
-      <c r="N5" s="157"/>
-      <c r="O5" s="158"/>
+      <c r="M5" s="233"/>
+      <c r="N5" s="213"/>
+      <c r="O5" s="229"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="193" t="s">
+      <c r="A6" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="194"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="195"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="194"/>
-      <c r="K6" s="194"/>
-      <c r="L6" s="194"/>
-      <c r="M6" s="195"/>
-      <c r="N6" s="165"/>
-      <c r="O6" s="197"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="203"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="205"/>
+      <c r="J6" s="202"/>
+      <c r="K6" s="202"/>
+      <c r="L6" s="202"/>
+      <c r="M6" s="203"/>
+      <c r="N6" s="204"/>
+      <c r="O6" s="206"/>
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A7" s="202" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="201"/>
-      <c r="C7" s="201"/>
-      <c r="D7" s="198" t="s">
+      <c r="A7" s="211" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="210"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="199"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="198" t="s">
+      <c r="E7" s="208"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="207" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="199"/>
-      <c r="I7" s="200"/>
-      <c r="J7" s="201" t="s">
+      <c r="H7" s="208"/>
+      <c r="I7" s="209"/>
+      <c r="J7" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="201"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="198" t="s">
+      <c r="K7" s="210"/>
+      <c r="L7" s="210"/>
+      <c r="M7" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="199"/>
-      <c r="O7" s="203"/>
+      <c r="N7" s="208"/>
+      <c r="O7" s="212"/>
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1">
       <c r="A8" s="42"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="181"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="175"/>
-      <c r="L8" s="176"/>
-      <c r="M8" s="177"/>
-      <c r="N8" s="178"/>
-      <c r="O8" s="179"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="152"/>
+      <c r="K8" s="153"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="147"/>
+      <c r="O8" s="155"/>
     </row>
     <row r="9" spans="1:15" ht="19.5" customHeight="1">
       <c r="A9" s="42"/>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="191"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="188"/>
-      <c r="I9" s="189"/>
-      <c r="J9" s="184"/>
-      <c r="K9" s="185"/>
-      <c r="L9" s="186"/>
-      <c r="M9" s="190"/>
-      <c r="N9" s="191"/>
-      <c r="O9" s="204"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="159"/>
+      <c r="K9" s="160"/>
+      <c r="L9" s="161"/>
+      <c r="M9" s="156"/>
+      <c r="N9" s="157"/>
+      <c r="O9" s="158"/>
     </row>
     <row r="10" spans="1:15" ht="19.5" customHeight="1">
       <c r="A10" s="42"/>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="182"/>
-      <c r="I10" s="183"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="175"/>
-      <c r="L10" s="176"/>
-      <c r="M10" s="177"/>
-      <c r="N10" s="178"/>
-      <c r="O10" s="179"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="153"/>
+      <c r="L10" s="154"/>
+      <c r="M10" s="146"/>
+      <c r="N10" s="147"/>
+      <c r="O10" s="155"/>
     </row>
     <row r="11" spans="1:15" ht="19.5" customHeight="1">
       <c r="A11" s="44"/>
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="175"/>
-      <c r="L11" s="176"/>
-      <c r="M11" s="177"/>
-      <c r="N11" s="178"/>
-      <c r="O11" s="179"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="152"/>
+      <c r="K11" s="153"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="146"/>
+      <c r="N11" s="147"/>
+      <c r="O11" s="155"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" customHeight="1">
       <c r="A12" s="45"/>
       <c r="B12" s="46"/>
       <c r="C12" s="46"/>
-      <c r="D12" s="190"/>
-      <c r="E12" s="191"/>
-      <c r="F12" s="192"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="188"/>
-      <c r="I12" s="189"/>
-      <c r="J12" s="184"/>
-      <c r="K12" s="185"/>
-      <c r="L12" s="186"/>
-      <c r="M12" s="190"/>
-      <c r="N12" s="191"/>
-      <c r="O12" s="204"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="160"/>
+      <c r="L12" s="161"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="157"/>
+      <c r="O12" s="158"/>
     </row>
     <row r="13" spans="1:15" ht="19.5" customHeight="1">
       <c r="A13" s="42"/>
       <c r="B13" s="43"/>
       <c r="C13" s="43"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="180"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="174"/>
-      <c r="K13" s="175"/>
-      <c r="L13" s="176"/>
-      <c r="M13" s="177"/>
-      <c r="N13" s="178"/>
-      <c r="O13" s="179"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="153"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="146"/>
+      <c r="N13" s="147"/>
+      <c r="O13" s="155"/>
     </row>
     <row r="14" spans="1:15" ht="19.5" customHeight="1">
       <c r="A14" s="42"/>
       <c r="B14" s="43"/>
       <c r="C14" s="43"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="182"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="174"/>
-      <c r="K14" s="175"/>
-      <c r="L14" s="176"/>
-      <c r="M14" s="177"/>
-      <c r="N14" s="178"/>
-      <c r="O14" s="179"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="146"/>
+      <c r="N14" s="147"/>
+      <c r="O14" s="155"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" customHeight="1">
       <c r="A15" s="42"/>
       <c r="B15" s="43"/>
       <c r="C15" s="43"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="174"/>
-      <c r="K15" s="175"/>
-      <c r="L15" s="176"/>
-      <c r="M15" s="177"/>
-      <c r="N15" s="178"/>
-      <c r="O15" s="179"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="146"/>
+      <c r="N15" s="147"/>
+      <c r="O15" s="155"/>
     </row>
     <row r="16" spans="1:15" ht="19.5" customHeight="1">
       <c r="A16" s="42"/>
       <c r="B16" s="43"/>
       <c r="C16" s="43"/>
-      <c r="D16" s="190"/>
-      <c r="E16" s="191"/>
-      <c r="F16" s="192"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="188"/>
-      <c r="I16" s="189"/>
-      <c r="J16" s="184"/>
-      <c r="K16" s="185"/>
-      <c r="L16" s="186"/>
-      <c r="M16" s="190"/>
-      <c r="N16" s="191"/>
-      <c r="O16" s="204"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="160"/>
+      <c r="L16" s="161"/>
+      <c r="M16" s="156"/>
+      <c r="N16" s="157"/>
+      <c r="O16" s="158"/>
     </row>
     <row r="17" spans="1:15" ht="19.5" customHeight="1">
       <c r="A17" s="42"/>
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="182"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="174"/>
-      <c r="K17" s="175"/>
-      <c r="L17" s="176"/>
-      <c r="M17" s="177"/>
-      <c r="N17" s="178"/>
-      <c r="O17" s="179"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="146"/>
+      <c r="N17" s="147"/>
+      <c r="O17" s="155"/>
     </row>
     <row r="18" spans="1:15" ht="19.5" customHeight="1">
       <c r="A18" s="42"/>
       <c r="B18" s="43"/>
       <c r="C18" s="43"/>
-      <c r="D18" s="177"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="181"/>
-      <c r="H18" s="182"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="175"/>
-      <c r="L18" s="176"/>
-      <c r="M18" s="177"/>
-      <c r="N18" s="178"/>
-      <c r="O18" s="179"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="146"/>
+      <c r="N18" s="147"/>
+      <c r="O18" s="155"/>
     </row>
     <row r="19" spans="1:15" ht="19.5" customHeight="1">
       <c r="A19" s="42"/>
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
-      <c r="D19" s="190"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="192"/>
-      <c r="G19" s="187"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="189"/>
-      <c r="J19" s="184"/>
-      <c r="K19" s="185"/>
-      <c r="L19" s="186"/>
-      <c r="M19" s="190"/>
-      <c r="N19" s="191"/>
-      <c r="O19" s="204"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="160"/>
+      <c r="L19" s="161"/>
+      <c r="M19" s="156"/>
+      <c r="N19" s="157"/>
+      <c r="O19" s="158"/>
     </row>
     <row r="20" spans="1:15" ht="19.5" customHeight="1">
       <c r="A20" s="42"/>
       <c r="B20" s="43"/>
       <c r="C20" s="43"/>
-      <c r="D20" s="177"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="181"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="174"/>
-      <c r="K20" s="175"/>
-      <c r="L20" s="176"/>
-      <c r="M20" s="177"/>
-      <c r="N20" s="178"/>
-      <c r="O20" s="179"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="146"/>
+      <c r="N20" s="147"/>
+      <c r="O20" s="155"/>
     </row>
     <row r="21" spans="1:15" ht="19.5" customHeight="1">
       <c r="A21" s="42"/>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
-      <c r="D21" s="177"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="174"/>
-      <c r="K21" s="175"/>
-      <c r="L21" s="176"/>
-      <c r="M21" s="177"/>
-      <c r="N21" s="178"/>
-      <c r="O21" s="179"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="146"/>
+      <c r="N21" s="147"/>
+      <c r="O21" s="155"/>
     </row>
     <row r="22" spans="1:15" ht="19.5" customHeight="1">
       <c r="A22" s="42"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
-      <c r="D22" s="190"/>
-      <c r="E22" s="191"/>
-      <c r="F22" s="192"/>
-      <c r="G22" s="187"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="189"/>
-      <c r="J22" s="184"/>
-      <c r="K22" s="185"/>
-      <c r="L22" s="186"/>
-      <c r="M22" s="190"/>
-      <c r="N22" s="191"/>
-      <c r="O22" s="204"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="159"/>
+      <c r="K22" s="160"/>
+      <c r="L22" s="161"/>
+      <c r="M22" s="156"/>
+      <c r="N22" s="157"/>
+      <c r="O22" s="158"/>
     </row>
     <row r="23" spans="1:15" ht="19.5" customHeight="1">
       <c r="A23" s="42"/>
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
-      <c r="D23" s="177"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="181"/>
-      <c r="H23" s="182"/>
-      <c r="I23" s="183"/>
-      <c r="J23" s="174"/>
-      <c r="K23" s="175"/>
-      <c r="L23" s="176"/>
-      <c r="M23" s="177"/>
-      <c r="N23" s="178"/>
-      <c r="O23" s="179"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="153"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="146"/>
+      <c r="N23" s="147"/>
+      <c r="O23" s="155"/>
     </row>
     <row r="24" spans="1:15" ht="19.5" customHeight="1">
       <c r="A24" s="44"/>
       <c r="B24" s="43"/>
       <c r="C24" s="43"/>
-      <c r="D24" s="177"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="181"/>
-      <c r="H24" s="182"/>
-      <c r="I24" s="183"/>
-      <c r="J24" s="174"/>
-      <c r="K24" s="175"/>
-      <c r="L24" s="176"/>
-      <c r="M24" s="177"/>
-      <c r="N24" s="178"/>
-      <c r="O24" s="179"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="150"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="153"/>
+      <c r="L24" s="154"/>
+      <c r="M24" s="146"/>
+      <c r="N24" s="147"/>
+      <c r="O24" s="155"/>
     </row>
     <row r="25" spans="1:15" ht="19.5" customHeight="1">
       <c r="A25" s="45"/>
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
-      <c r="D25" s="190"/>
-      <c r="E25" s="191"/>
-      <c r="F25" s="192"/>
-      <c r="G25" s="187"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="189"/>
-      <c r="J25" s="184"/>
-      <c r="K25" s="185"/>
-      <c r="L25" s="186"/>
-      <c r="M25" s="190"/>
-      <c r="N25" s="191"/>
-      <c r="O25" s="204"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="159"/>
+      <c r="K25" s="160"/>
+      <c r="L25" s="161"/>
+      <c r="M25" s="156"/>
+      <c r="N25" s="157"/>
+      <c r="O25" s="158"/>
     </row>
     <row r="26" spans="1:15" ht="19.5" customHeight="1">
       <c r="A26" s="42"/>
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
-      <c r="D26" s="177"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="180"/>
-      <c r="G26" s="181"/>
-      <c r="H26" s="182"/>
-      <c r="I26" s="183"/>
-      <c r="J26" s="174"/>
-      <c r="K26" s="175"/>
-      <c r="L26" s="176"/>
-      <c r="M26" s="177"/>
-      <c r="N26" s="178"/>
-      <c r="O26" s="179"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="153"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="146"/>
+      <c r="N26" s="147"/>
+      <c r="O26" s="155"/>
     </row>
     <row r="27" spans="1:15" ht="19.5" customHeight="1">
       <c r="A27" s="42"/>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
-      <c r="D27" s="177"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="181"/>
-      <c r="H27" s="182"/>
-      <c r="I27" s="183"/>
-      <c r="J27" s="174"/>
-      <c r="K27" s="175"/>
-      <c r="L27" s="176"/>
-      <c r="M27" s="177"/>
-      <c r="N27" s="178"/>
-      <c r="O27" s="179"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="154"/>
+      <c r="M27" s="146"/>
+      <c r="N27" s="147"/>
+      <c r="O27" s="155"/>
     </row>
     <row r="28" spans="1:15" ht="19.5" customHeight="1">
       <c r="A28" s="42"/>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
-      <c r="D28" s="177"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="182"/>
-      <c r="I28" s="183"/>
-      <c r="J28" s="174"/>
-      <c r="K28" s="175"/>
-      <c r="L28" s="176"/>
-      <c r="M28" s="177"/>
-      <c r="N28" s="178"/>
-      <c r="O28" s="179"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="154"/>
+      <c r="M28" s="146"/>
+      <c r="N28" s="147"/>
+      <c r="O28" s="155"/>
     </row>
     <row r="29" spans="1:15" ht="19.5" customHeight="1">
       <c r="A29" s="42"/>
       <c r="B29" s="43"/>
       <c r="C29" s="43"/>
-      <c r="D29" s="190"/>
-      <c r="E29" s="191"/>
-      <c r="F29" s="192"/>
-      <c r="G29" s="187"/>
-      <c r="H29" s="188"/>
-      <c r="I29" s="189"/>
-      <c r="J29" s="184"/>
-      <c r="K29" s="185"/>
-      <c r="L29" s="186"/>
-      <c r="M29" s="190"/>
-      <c r="N29" s="191"/>
-      <c r="O29" s="204"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="163"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="159"/>
+      <c r="K29" s="160"/>
+      <c r="L29" s="161"/>
+      <c r="M29" s="156"/>
+      <c r="N29" s="157"/>
+      <c r="O29" s="158"/>
     </row>
     <row r="30" spans="1:15" ht="19.5" customHeight="1">
       <c r="A30" s="42"/>
       <c r="B30" s="43"/>
       <c r="C30" s="43"/>
-      <c r="D30" s="177"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="182"/>
-      <c r="I30" s="183"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="175"/>
-      <c r="L30" s="176"/>
-      <c r="M30" s="177"/>
-      <c r="N30" s="178"/>
-      <c r="O30" s="179"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="152"/>
+      <c r="K30" s="153"/>
+      <c r="L30" s="154"/>
+      <c r="M30" s="146"/>
+      <c r="N30" s="147"/>
+      <c r="O30" s="155"/>
     </row>
     <row r="31" spans="1:15" ht="19.5" customHeight="1">
       <c r="A31" s="42"/>
       <c r="B31" s="43"/>
       <c r="C31" s="43"/>
-      <c r="D31" s="177"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="181"/>
-      <c r="H31" s="182"/>
-      <c r="I31" s="183"/>
-      <c r="J31" s="174"/>
-      <c r="K31" s="175"/>
-      <c r="L31" s="176"/>
-      <c r="M31" s="177"/>
-      <c r="N31" s="178"/>
-      <c r="O31" s="179"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="151"/>
+      <c r="J31" s="152"/>
+      <c r="K31" s="153"/>
+      <c r="L31" s="154"/>
+      <c r="M31" s="146"/>
+      <c r="N31" s="147"/>
+      <c r="O31" s="155"/>
     </row>
     <row r="32" spans="1:15" ht="19.5" customHeight="1">
       <c r="A32" s="42"/>
       <c r="B32" s="43"/>
       <c r="C32" s="43"/>
-      <c r="D32" s="190"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="192"/>
-      <c r="G32" s="187"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="189"/>
-      <c r="J32" s="184"/>
-      <c r="K32" s="185"/>
-      <c r="L32" s="186"/>
-      <c r="M32" s="190"/>
-      <c r="N32" s="191"/>
-      <c r="O32" s="204"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="164"/>
+      <c r="J32" s="159"/>
+      <c r="K32" s="160"/>
+      <c r="L32" s="161"/>
+      <c r="M32" s="156"/>
+      <c r="N32" s="157"/>
+      <c r="O32" s="158"/>
     </row>
     <row r="33" spans="1:15" ht="19.5" customHeight="1">
       <c r="A33" s="42"/>
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
-      <c r="D33" s="177"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="180"/>
-      <c r="G33" s="181"/>
-      <c r="H33" s="182"/>
-      <c r="I33" s="183"/>
-      <c r="J33" s="174"/>
-      <c r="K33" s="175"/>
-      <c r="L33" s="176"/>
-      <c r="M33" s="177"/>
-      <c r="N33" s="178"/>
-      <c r="O33" s="179"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="153"/>
+      <c r="L33" s="154"/>
+      <c r="M33" s="146"/>
+      <c r="N33" s="147"/>
+      <c r="O33" s="155"/>
     </row>
     <row r="34" spans="1:15" ht="19.5" customHeight="1">
       <c r="A34" s="42"/>
       <c r="B34" s="43"/>
       <c r="C34" s="43"/>
-      <c r="D34" s="177"/>
-      <c r="E34" s="178"/>
-      <c r="F34" s="180"/>
-      <c r="G34" s="181"/>
-      <c r="H34" s="182"/>
-      <c r="I34" s="183"/>
-      <c r="J34" s="174"/>
-      <c r="K34" s="175"/>
-      <c r="L34" s="176"/>
-      <c r="M34" s="177"/>
-      <c r="N34" s="178"/>
-      <c r="O34" s="179"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="152"/>
+      <c r="K34" s="153"/>
+      <c r="L34" s="154"/>
+      <c r="M34" s="146"/>
+      <c r="N34" s="147"/>
+      <c r="O34" s="155"/>
     </row>
     <row r="35" spans="1:15" ht="19.5" customHeight="1">
       <c r="A35" s="42"/>
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="191"/>
-      <c r="F35" s="192"/>
-      <c r="G35" s="187"/>
-      <c r="H35" s="188"/>
-      <c r="I35" s="189"/>
-      <c r="J35" s="184"/>
-      <c r="K35" s="185"/>
-      <c r="L35" s="186"/>
-      <c r="M35" s="190"/>
-      <c r="N35" s="191"/>
-      <c r="O35" s="204"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="162"/>
+      <c r="H35" s="163"/>
+      <c r="I35" s="164"/>
+      <c r="J35" s="159"/>
+      <c r="K35" s="160"/>
+      <c r="L35" s="161"/>
+      <c r="M35" s="156"/>
+      <c r="N35" s="157"/>
+      <c r="O35" s="158"/>
     </row>
     <row r="36" spans="1:15" ht="19.5" customHeight="1">
       <c r="A36" s="42"/>
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
-      <c r="D36" s="177"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="180"/>
-      <c r="G36" s="181"/>
-      <c r="H36" s="182"/>
-      <c r="I36" s="183"/>
-      <c r="J36" s="174"/>
-      <c r="K36" s="175"/>
-      <c r="L36" s="176"/>
-      <c r="M36" s="177"/>
-      <c r="N36" s="178"/>
-      <c r="O36" s="179"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="151"/>
+      <c r="J36" s="152"/>
+      <c r="K36" s="153"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="146"/>
+      <c r="N36" s="147"/>
+      <c r="O36" s="155"/>
     </row>
     <row r="37" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A37" s="42"/>
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
-      <c r="D37" s="236"/>
-      <c r="E37" s="237"/>
-      <c r="F37" s="239"/>
-      <c r="G37" s="230"/>
-      <c r="H37" s="231"/>
-      <c r="I37" s="232"/>
-      <c r="J37" s="233"/>
-      <c r="K37" s="234"/>
-      <c r="L37" s="235"/>
-      <c r="M37" s="236"/>
-      <c r="N37" s="237"/>
-      <c r="O37" s="238"/>
+      <c r="D37" s="172"/>
+      <c r="E37" s="173"/>
+      <c r="F37" s="175"/>
+      <c r="G37" s="166"/>
+      <c r="H37" s="167"/>
+      <c r="I37" s="168"/>
+      <c r="J37" s="169"/>
+      <c r="K37" s="170"/>
+      <c r="L37" s="171"/>
+      <c r="M37" s="172"/>
+      <c r="N37" s="173"/>
+      <c r="O37" s="174"/>
     </row>
     <row r="38" spans="1:15" ht="19.5" customHeight="1">
       <c r="A38" s="47"/>
@@ -4014,30 +3998,30 @@
       <c r="C38" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="206" t="e">
+      <c r="D38" s="176" t="e">
         <f>AVERAGE(D8:F37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="207"/>
-      <c r="F38" s="208"/>
-      <c r="G38" s="209" t="e">
+      <c r="E38" s="177"/>
+      <c r="F38" s="178"/>
+      <c r="G38" s="179" t="e">
         <f>AVERAGE(G8:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="210"/>
-      <c r="I38" s="211"/>
-      <c r="J38" s="212" t="e">
+      <c r="H38" s="180"/>
+      <c r="I38" s="181"/>
+      <c r="J38" s="182" t="e">
         <f>AVERAGE(J8:L37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="212"/>
-      <c r="L38" s="212"/>
-      <c r="M38" s="206" t="e">
+      <c r="K38" s="182"/>
+      <c r="L38" s="182"/>
+      <c r="M38" s="176" t="e">
         <f>AVERAGE(M8:O37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N38" s="207"/>
-      <c r="O38" s="213"/>
+      <c r="N38" s="177"/>
+      <c r="O38" s="183"/>
     </row>
     <row r="39" spans="1:15" ht="19.5" customHeight="1">
       <c r="A39" s="49"/>
@@ -4045,30 +4029,30 @@
       <c r="C39" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="214">
+      <c r="D39" s="184">
         <f>MIN(D8:F37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="215"/>
-      <c r="F39" s="216"/>
-      <c r="G39" s="217">
+      <c r="E39" s="185"/>
+      <c r="F39" s="186"/>
+      <c r="G39" s="187">
         <f>MIN(G8:I37)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="218"/>
-      <c r="I39" s="219"/>
-      <c r="J39" s="220">
+      <c r="H39" s="188"/>
+      <c r="I39" s="189"/>
+      <c r="J39" s="190">
         <f>MIN(J8:L37)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="220"/>
-      <c r="L39" s="220"/>
-      <c r="M39" s="214">
+      <c r="K39" s="190"/>
+      <c r="L39" s="190"/>
+      <c r="M39" s="184">
         <f>MIN(M8:O37)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="215"/>
-      <c r="O39" s="221"/>
+      <c r="N39" s="185"/>
+      <c r="O39" s="191"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A40" s="52"/>
@@ -4076,60 +4060,60 @@
       <c r="C40" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="222">
+      <c r="D40" s="192">
         <f>MAX(D8:F37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="223"/>
-      <c r="F40" s="224"/>
-      <c r="G40" s="225">
+      <c r="E40" s="193"/>
+      <c r="F40" s="194"/>
+      <c r="G40" s="195">
         <f>MAX(G8:I37)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="226"/>
-      <c r="I40" s="227"/>
-      <c r="J40" s="228">
+      <c r="H40" s="196"/>
+      <c r="I40" s="197"/>
+      <c r="J40" s="198">
         <f>MAX(J8:L37)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="228"/>
-      <c r="L40" s="228"/>
-      <c r="M40" s="222">
+      <c r="K40" s="198"/>
+      <c r="L40" s="198"/>
+      <c r="M40" s="192">
         <f>MAX(M8:O37)</f>
         <v>0</v>
       </c>
-      <c r="N40" s="223"/>
-      <c r="O40" s="229"/>
+      <c r="N40" s="193"/>
+      <c r="O40" s="199"/>
     </row>
     <row r="41" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A41" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="166"/>
-      <c r="C41" s="166"/>
-      <c r="D41" s="167" t="s">
+      <c r="B41" s="236"/>
+      <c r="C41" s="236"/>
+      <c r="D41" s="237" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="167"/>
+      <c r="E41" s="237"/>
       <c r="F41" s="36"/>
       <c r="G41" s="37"/>
       <c r="H41" s="37"/>
       <c r="I41" s="37"/>
-      <c r="J41" s="150" t="s">
+      <c r="J41" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="150"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
-      <c r="N41" s="151"/>
+      <c r="K41" s="223"/>
+      <c r="L41" s="224"/>
+      <c r="M41" s="224"/>
+      <c r="N41" s="224"/>
       <c r="O41" s="33" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="35"/>
-      <c r="B42" s="146"/>
-      <c r="C42" s="146"/>
+      <c r="B42" s="219"/>
+      <c r="C42" s="219"/>
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="35"/>
@@ -4138,39 +4122,39 @@
       <c r="I42" s="37"/>
       <c r="J42" s="37"/>
       <c r="K42" s="33"/>
-      <c r="L42" s="152"/>
-      <c r="M42" s="152"/>
-      <c r="N42" s="152"/>
+      <c r="L42" s="225"/>
+      <c r="M42" s="225"/>
+      <c r="N42" s="225"/>
       <c r="O42" s="33"/>
     </row>
     <row r="43" spans="1:15" s="38" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A43" s="147" t="s">
+      <c r="A43" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="147"/>
-      <c r="C43" s="147"/>
+      <c r="B43" s="220"/>
+      <c r="C43" s="220"/>
       <c r="D43" s="37"/>
       <c r="E43" s="37"/>
       <c r="F43" s="37"/>
       <c r="G43" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="147" t="s">
+      <c r="H43" s="220" t="s">
         <v>47</v>
       </c>
-      <c r="I43" s="147"/>
-      <c r="J43" s="147"/>
-      <c r="K43" s="147"/>
+      <c r="I43" s="220"/>
+      <c r="J43" s="220"/>
+      <c r="K43" s="220"/>
       <c r="L43" s="37"/>
       <c r="M43" s="37"/>
       <c r="N43" s="37"/>
       <c r="O43" s="37"/>
     </row>
     <row r="44" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="147" t="s">
+      <c r="A44" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="147"/>
+      <c r="B44" s="220"/>
       <c r="C44" s="35"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
@@ -4181,10 +4165,10 @@
       <c r="J44" s="37"/>
       <c r="K44" s="37"/>
       <c r="L44" s="37"/>
-      <c r="M44" s="148" t="s">
+      <c r="M44" s="221" t="s">
         <v>50</v>
       </c>
-      <c r="N44" s="148"/>
+      <c r="N44" s="221"/>
       <c r="O44" s="37"/>
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1">
@@ -4197,69 +4181,186 @@
       <c r="N51" s="56"/>
     </row>
     <row r="75" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C75" s="205"/>
-      <c r="D75" s="205"/>
+      <c r="C75" s="200"/>
+      <c r="D75" s="200"/>
       <c r="E75" s="41"/>
-      <c r="I75" s="205"/>
-      <c r="J75" s="205"/>
+      <c r="I75" s="200"/>
+      <c r="J75" s="200"/>
       <c r="K75" s="41"/>
-      <c r="L75" s="205"/>
-      <c r="M75" s="205"/>
-      <c r="N75" s="205"/>
-      <c r="O75" s="205"/>
+      <c r="L75" s="200"/>
+      <c r="M75" s="200"/>
+      <c r="N75" s="200"/>
+      <c r="O75" s="200"/>
     </row>
     <row r="76" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C76" s="205"/>
-      <c r="D76" s="205"/>
-      <c r="E76" s="205"/>
-      <c r="F76" s="205"/>
-      <c r="I76" s="205"/>
-      <c r="J76" s="205"/>
+      <c r="C76" s="200"/>
+      <c r="D76" s="200"/>
+      <c r="E76" s="200"/>
+      <c r="F76" s="200"/>
+      <c r="I76" s="200"/>
+      <c r="J76" s="200"/>
       <c r="K76" s="41"/>
-      <c r="L76" s="205"/>
-      <c r="M76" s="205"/>
-      <c r="N76" s="205"/>
-      <c r="O76" s="205"/>
+      <c r="L76" s="200"/>
+      <c r="M76" s="200"/>
+      <c r="N76" s="200"/>
+      <c r="O76" s="200"/>
     </row>
     <row r="77" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C77" s="205"/>
-      <c r="D77" s="205"/>
+      <c r="C77" s="200"/>
+      <c r="D77" s="200"/>
       <c r="E77" s="41"/>
-      <c r="I77" s="205"/>
-      <c r="J77" s="205"/>
+      <c r="I77" s="200"/>
+      <c r="J77" s="200"/>
       <c r="K77" s="41"/>
-      <c r="L77" s="205"/>
-      <c r="M77" s="205"/>
-      <c r="N77" s="205"/>
-      <c r="O77" s="205"/>
+      <c r="L77" s="200"/>
+      <c r="M77" s="200"/>
+      <c r="N77" s="200"/>
+      <c r="O77" s="200"/>
     </row>
     <row r="78" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C78" s="205"/>
-      <c r="D78" s="205"/>
+      <c r="C78" s="200"/>
+      <c r="D78" s="200"/>
       <c r="E78" s="41"/>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
   <mergeCells count="179">
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="A2:L3"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="L75:O75"/>
+    <mergeCell ref="L76:O76"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="J13:L13"/>
     <mergeCell ref="M25:O25"/>
     <mergeCell ref="M17:O17"/>
     <mergeCell ref="G18:I18"/>
@@ -4284,142 +4385,25 @@
     <mergeCell ref="J26:L26"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="J17:L17"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="L75:O75"/>
-    <mergeCell ref="L76:O76"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="A2:L3"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D32:F32"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="D8:F40">
@@ -4453,7 +4437,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="1.5748031496062993" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4476,61 +4460,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="266" t="s">
+      <c r="A1" s="240" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="266"/>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="266"/>
-      <c r="G1" s="266"/>
-      <c r="H1" s="266"/>
-      <c r="I1" s="266"/>
-      <c r="J1" s="266"/>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="M1" s="266"/>
-      <c r="N1" s="163" t="s">
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="240"/>
+      <c r="N1" s="234" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="163"/>
+      <c r="O1" s="234"/>
     </row>
     <row r="2" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="267" t="s">
+      <c r="A2" s="241" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="267"/>
-      <c r="C2" s="267"/>
-      <c r="D2" s="267"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="267"/>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="267"/>
-      <c r="K2" s="267"/>
-      <c r="L2" s="267"/>
-      <c r="M2" s="267"/>
-      <c r="N2" s="164" t="s">
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="241"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="241"/>
+      <c r="K2" s="241"/>
+      <c r="L2" s="241"/>
+      <c r="M2" s="241"/>
+      <c r="N2" s="235" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="164"/>
+      <c r="O2" s="235"/>
     </row>
     <row r="3" spans="1:15" s="63" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="267"/>
-      <c r="B3" s="267"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="267"/>
-      <c r="G3" s="267"/>
-      <c r="H3" s="267"/>
-      <c r="I3" s="267"/>
-      <c r="J3" s="267"/>
-      <c r="K3" s="267"/>
-      <c r="L3" s="267"/>
-      <c r="M3" s="267"/>
+      <c r="A3" s="241"/>
+      <c r="B3" s="241"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="241"/>
+      <c r="G3" s="241"/>
+      <c r="H3" s="241"/>
+      <c r="I3" s="241"/>
+      <c r="J3" s="241"/>
+      <c r="K3" s="241"/>
+      <c r="L3" s="241"/>
+      <c r="M3" s="241"/>
       <c r="N3" s="39" t="s">
         <v>19</v>
       </c>
@@ -4540,124 +4524,124 @@
       <c r="A4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="241">
+      <c r="B4" s="253">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="277"/>
-      <c r="D4" s="278"/>
-      <c r="E4" s="279" t="s">
+      <c r="C4" s="254"/>
+      <c r="D4" s="255"/>
+      <c r="E4" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="279"/>
-      <c r="G4" s="280">
+      <c r="F4" s="256"/>
+      <c r="G4" s="257">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="257"/>
       <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="280">
+      <c r="J4" s="257">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="280"/>
-      <c r="L4" s="281" t="s">
+      <c r="K4" s="257"/>
+      <c r="L4" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="282"/>
-      <c r="N4" s="241">
+      <c r="M4" s="260"/>
+      <c r="N4" s="253">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="242"/>
+      <c r="O4" s="263"/>
     </row>
     <row r="5" spans="1:15" s="61" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="240">
+      <c r="B5" s="258">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="259" t="s">
+      <c r="C5" s="258"/>
+      <c r="D5" s="258"/>
+      <c r="E5" s="278" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="259"/>
-      <c r="G5" s="240">
+      <c r="F5" s="278"/>
+      <c r="G5" s="258">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="240"/>
+      <c r="H5" s="258"/>
       <c r="I5" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="240">
+      <c r="J5" s="258">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="240"/>
-      <c r="L5" s="283" t="s">
+      <c r="K5" s="258"/>
+      <c r="L5" s="261" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="284"/>
-      <c r="N5" s="172">
+      <c r="M5" s="262"/>
+      <c r="N5" s="217">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="243"/>
+      <c r="O5" s="264"/>
     </row>
     <row r="6" spans="1:15" s="69" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="253" t="s">
+      <c r="A6" s="274" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="254"/>
-      <c r="C6" s="254"/>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
-      <c r="F6" s="254"/>
-      <c r="G6" s="254"/>
-      <c r="H6" s="254"/>
-      <c r="I6" s="254"/>
-      <c r="J6" s="254"/>
-      <c r="K6" s="254"/>
-      <c r="L6" s="254"/>
-      <c r="M6" s="254"/>
-      <c r="N6" s="254"/>
-      <c r="O6" s="255"/>
+      <c r="B6" s="275"/>
+      <c r="C6" s="275"/>
+      <c r="D6" s="275"/>
+      <c r="E6" s="275"/>
+      <c r="F6" s="275"/>
+      <c r="G6" s="275"/>
+      <c r="H6" s="275"/>
+      <c r="I6" s="275"/>
+      <c r="J6" s="275"/>
+      <c r="K6" s="275"/>
+      <c r="L6" s="275"/>
+      <c r="M6" s="275"/>
+      <c r="N6" s="275"/>
+      <c r="O6" s="276"/>
     </row>
     <row r="7" spans="1:15" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="249" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="250"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="260" t="s">
+      <c r="A7" s="270" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="271"/>
+      <c r="C7" s="272"/>
+      <c r="D7" s="279" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="261"/>
-      <c r="F7" s="261"/>
-      <c r="G7" s="261"/>
-      <c r="H7" s="262" t="s">
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="281" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="263"/>
-      <c r="J7" s="263"/>
-      <c r="K7" s="260"/>
-      <c r="L7" s="262" t="s">
+      <c r="I7" s="282"/>
+      <c r="J7" s="282"/>
+      <c r="K7" s="279"/>
+      <c r="L7" s="281" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="263"/>
-      <c r="N7" s="263"/>
-      <c r="O7" s="264"/>
+      <c r="M7" s="282"/>
+      <c r="N7" s="282"/>
+      <c r="O7" s="283"/>
     </row>
     <row r="8" spans="1:15" s="69" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="252"/>
-      <c r="B8" s="165"/>
-      <c r="C8" s="196"/>
+      <c r="A8" s="273"/>
+      <c r="B8" s="204"/>
+      <c r="C8" s="205"/>
       <c r="D8" s="94">
         <v>1</v>
       </c>
@@ -5751,27 +5735,27 @@
       <c r="C39" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="270" t="e">
+      <c r="D39" s="244" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="270"/>
-      <c r="F39" s="270"/>
-      <c r="G39" s="271"/>
-      <c r="H39" s="272" t="e">
+      <c r="E39" s="244"/>
+      <c r="F39" s="244"/>
+      <c r="G39" s="245"/>
+      <c r="H39" s="246" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="273"/>
-      <c r="J39" s="273"/>
-      <c r="K39" s="274"/>
-      <c r="L39" s="272" t="e">
+      <c r="I39" s="247"/>
+      <c r="J39" s="247"/>
+      <c r="K39" s="248"/>
+      <c r="L39" s="246" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="273"/>
-      <c r="N39" s="273"/>
-      <c r="O39" s="275"/>
+      <c r="M39" s="247"/>
+      <c r="N39" s="247"/>
+      <c r="O39" s="249"/>
     </row>
     <row r="40" spans="1:15" s="38" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="49"/>
@@ -5779,27 +5763,27 @@
       <c r="C40" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="268" t="e">
+      <c r="D40" s="242" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="268"/>
-      <c r="F40" s="268"/>
-      <c r="G40" s="269"/>
-      <c r="H40" s="256" t="e">
+      <c r="E40" s="242"/>
+      <c r="F40" s="242"/>
+      <c r="G40" s="243"/>
+      <c r="H40" s="250" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="257"/>
-      <c r="J40" s="257"/>
-      <c r="K40" s="258"/>
-      <c r="L40" s="256" t="e">
+      <c r="I40" s="251"/>
+      <c r="J40" s="251"/>
+      <c r="K40" s="277"/>
+      <c r="L40" s="250" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="257"/>
-      <c r="N40" s="257"/>
-      <c r="O40" s="276"/>
+      <c r="M40" s="251"/>
+      <c r="N40" s="251"/>
+      <c r="O40" s="252"/>
     </row>
     <row r="41" spans="1:15" s="38" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="52"/>
@@ -5807,38 +5791,38 @@
       <c r="C41" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="244" t="e">
+      <c r="D41" s="265" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="244"/>
-      <c r="F41" s="244"/>
-      <c r="G41" s="245"/>
-      <c r="H41" s="246" t="e">
+      <c r="E41" s="265"/>
+      <c r="F41" s="265"/>
+      <c r="G41" s="266"/>
+      <c r="H41" s="267" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="247"/>
-      <c r="J41" s="247"/>
-      <c r="K41" s="265"/>
-      <c r="L41" s="246" t="e">
+      <c r="I41" s="268"/>
+      <c r="J41" s="268"/>
+      <c r="K41" s="284"/>
+      <c r="L41" s="267" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="247"/>
-      <c r="N41" s="247"/>
-      <c r="O41" s="248"/>
+      <c r="M41" s="268"/>
+      <c r="N41" s="268"/>
+      <c r="O41" s="269"/>
     </row>
     <row r="42" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="166"/>
-      <c r="C42" s="166"/>
-      <c r="D42" s="167" t="s">
+      <c r="B42" s="236"/>
+      <c r="C42" s="236"/>
+      <c r="D42" s="237" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="167"/>
+      <c r="E42" s="237"/>
       <c r="F42" s="36"/>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
@@ -5847,16 +5831,16 @@
       <c r="L42" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="M42" s="151"/>
-      <c r="N42" s="151"/>
+      <c r="M42" s="224"/>
+      <c r="N42" s="224"/>
       <c r="O42" s="35" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="35"/>
-      <c r="B43" s="146"/>
-      <c r="C43" s="146"/>
+      <c r="B43" s="219"/>
+      <c r="C43" s="219"/>
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="35"/>
@@ -5866,27 +5850,27 @@
       <c r="J43" s="37"/>
       <c r="K43" s="33"/>
       <c r="L43" s="37"/>
-      <c r="M43" s="152"/>
-      <c r="N43" s="152"/>
+      <c r="M43" s="225"/>
+      <c r="N43" s="225"/>
       <c r="O43" s="33"/>
     </row>
     <row r="44" spans="1:15" s="38" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="147" t="s">
+      <c r="A44" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="147"/>
-      <c r="C44" s="147"/>
+      <c r="B44" s="220"/>
+      <c r="C44" s="220"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
       <c r="G44" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H44" s="147" t="s">
+      <c r="H44" s="220" t="s">
         <v>47</v>
       </c>
-      <c r="I44" s="147"/>
-      <c r="J44" s="147"/>
+      <c r="I44" s="220"/>
+      <c r="J44" s="220"/>
       <c r="K44" s="37"/>
       <c r="L44" s="37"/>
       <c r="M44" s="37"/>
@@ -5894,10 +5878,10 @@
       <c r="O44" s="37"/>
     </row>
     <row r="45" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="147" t="s">
+      <c r="A45" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="147"/>
+      <c r="B45" s="220"/>
       <c r="C45" s="35"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
@@ -5908,15 +5892,39 @@
       <c r="J45" s="37"/>
       <c r="K45" s="37"/>
       <c r="L45" s="37"/>
-      <c r="M45" s="148" t="s">
+      <c r="M45" s="221" t="s">
         <v>49</v>
       </c>
-      <c r="N45" s="148"/>
+      <c r="N45" s="221"/>
       <c r="O45" s="37"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="40">
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="H41:K41"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="A2:M3"/>
@@ -5933,30 +5941,6 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="A44:C44"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="16" priority="12" operator="lessThan">
@@ -5998,61 +5982,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="266" t="s">
+      <c r="A1" s="240" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="266"/>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="266"/>
-      <c r="G1" s="266"/>
-      <c r="H1" s="266"/>
-      <c r="I1" s="266"/>
-      <c r="J1" s="266"/>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="M1" s="266"/>
-      <c r="N1" s="163" t="s">
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="240"/>
+      <c r="N1" s="234" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="163"/>
+      <c r="O1" s="234"/>
     </row>
     <row r="2" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="267" t="s">
+      <c r="A2" s="241" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="267"/>
-      <c r="C2" s="267"/>
-      <c r="D2" s="267"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="267"/>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="267"/>
-      <c r="K2" s="267"/>
-      <c r="L2" s="267"/>
-      <c r="M2" s="267"/>
-      <c r="N2" s="164" t="s">
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="241"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="241"/>
+      <c r="K2" s="241"/>
+      <c r="L2" s="241"/>
+      <c r="M2" s="241"/>
+      <c r="N2" s="235" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="164"/>
+      <c r="O2" s="235"/>
     </row>
     <row r="3" spans="1:15" s="63" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="267"/>
-      <c r="B3" s="267"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="267"/>
-      <c r="G3" s="267"/>
-      <c r="H3" s="267"/>
-      <c r="I3" s="267"/>
-      <c r="J3" s="267"/>
-      <c r="K3" s="267"/>
-      <c r="L3" s="267"/>
-      <c r="M3" s="267"/>
+      <c r="A3" s="241"/>
+      <c r="B3" s="241"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="241"/>
+      <c r="G3" s="241"/>
+      <c r="H3" s="241"/>
+      <c r="I3" s="241"/>
+      <c r="J3" s="241"/>
+      <c r="K3" s="241"/>
+      <c r="L3" s="241"/>
+      <c r="M3" s="241"/>
       <c r="N3" s="39" t="s">
         <v>19</v>
       </c>
@@ -6062,130 +6046,130 @@
       <c r="A4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="241">
+      <c r="B4" s="253">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="277"/>
-      <c r="D4" s="278"/>
-      <c r="E4" s="279" t="s">
+      <c r="C4" s="254"/>
+      <c r="D4" s="255"/>
+      <c r="E4" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="279"/>
-      <c r="G4" s="280">
+      <c r="F4" s="256"/>
+      <c r="G4" s="257">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="257"/>
       <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="280">
+      <c r="J4" s="257">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="280"/>
-      <c r="L4" s="281" t="s">
+      <c r="K4" s="257"/>
+      <c r="L4" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="282">
+      <c r="M4" s="260">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="241">
+      <c r="N4" s="253">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="242"/>
+      <c r="O4" s="263"/>
     </row>
     <row r="5" spans="1:15" s="61" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="240">
+      <c r="B5" s="258">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="259" t="s">
+      <c r="C5" s="258"/>
+      <c r="D5" s="258"/>
+      <c r="E5" s="278" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="259"/>
-      <c r="G5" s="240">
+      <c r="F5" s="278"/>
+      <c r="G5" s="258">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="240"/>
+      <c r="H5" s="258"/>
       <c r="I5" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="240">
+      <c r="J5" s="258">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="240"/>
-      <c r="L5" s="283" t="s">
+      <c r="K5" s="258"/>
+      <c r="L5" s="261" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="284">
+      <c r="M5" s="262">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="172">
+      <c r="N5" s="217">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="243"/>
+      <c r="O5" s="264"/>
     </row>
     <row r="6" spans="1:15" s="69" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="253" t="s">
+      <c r="A6" s="274" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="254"/>
-      <c r="C6" s="254"/>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
-      <c r="F6" s="254"/>
-      <c r="G6" s="254"/>
-      <c r="H6" s="254"/>
-      <c r="I6" s="254"/>
-      <c r="J6" s="254"/>
-      <c r="K6" s="254"/>
-      <c r="L6" s="254"/>
-      <c r="M6" s="254"/>
-      <c r="N6" s="254"/>
-      <c r="O6" s="255"/>
+      <c r="B6" s="275"/>
+      <c r="C6" s="275"/>
+      <c r="D6" s="275"/>
+      <c r="E6" s="275"/>
+      <c r="F6" s="275"/>
+      <c r="G6" s="275"/>
+      <c r="H6" s="275"/>
+      <c r="I6" s="275"/>
+      <c r="J6" s="275"/>
+      <c r="K6" s="275"/>
+      <c r="L6" s="275"/>
+      <c r="M6" s="275"/>
+      <c r="N6" s="275"/>
+      <c r="O6" s="276"/>
     </row>
     <row r="7" spans="1:15" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="288" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="148"/>
-      <c r="C7" s="289"/>
-      <c r="D7" s="261" t="s">
+      <c r="A7" s="285" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="221"/>
+      <c r="C7" s="286"/>
+      <c r="D7" s="280" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="261"/>
-      <c r="F7" s="261"/>
-      <c r="G7" s="261"/>
-      <c r="H7" s="262" t="s">
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="281" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="263"/>
-      <c r="J7" s="263"/>
-      <c r="K7" s="260"/>
-      <c r="L7" s="262" t="s">
+      <c r="I7" s="282"/>
+      <c r="J7" s="282"/>
+      <c r="K7" s="279"/>
+      <c r="L7" s="281" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="263"/>
-      <c r="N7" s="263"/>
-      <c r="O7" s="264"/>
+      <c r="M7" s="282"/>
+      <c r="N7" s="282"/>
+      <c r="O7" s="283"/>
     </row>
     <row r="8" spans="1:15" s="69" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="252"/>
-      <c r="B8" s="165"/>
-      <c r="C8" s="196"/>
+      <c r="A8" s="273"/>
+      <c r="B8" s="204"/>
+      <c r="C8" s="205"/>
       <c r="D8" s="34">
         <v>1</v>
       </c>
@@ -7279,27 +7263,27 @@
       <c r="C39" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="286" t="e">
+      <c r="D39" s="288" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="270"/>
-      <c r="F39" s="270"/>
-      <c r="G39" s="271"/>
-      <c r="H39" s="272" t="e">
+      <c r="E39" s="244"/>
+      <c r="F39" s="244"/>
+      <c r="G39" s="245"/>
+      <c r="H39" s="246" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="273"/>
-      <c r="J39" s="273"/>
-      <c r="K39" s="274"/>
-      <c r="L39" s="272" t="e">
+      <c r="I39" s="247"/>
+      <c r="J39" s="247"/>
+      <c r="K39" s="248"/>
+      <c r="L39" s="246" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="273"/>
-      <c r="N39" s="273"/>
-      <c r="O39" s="275"/>
+      <c r="M39" s="247"/>
+      <c r="N39" s="247"/>
+      <c r="O39" s="249"/>
     </row>
     <row r="40" spans="1:15" s="38" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="49"/>
@@ -7307,27 +7291,27 @@
       <c r="C40" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="287" t="e">
+      <c r="D40" s="289" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="268"/>
-      <c r="F40" s="268"/>
-      <c r="G40" s="269"/>
-      <c r="H40" s="256" t="e">
+      <c r="E40" s="242"/>
+      <c r="F40" s="242"/>
+      <c r="G40" s="243"/>
+      <c r="H40" s="250" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="257"/>
-      <c r="J40" s="257"/>
-      <c r="K40" s="258"/>
-      <c r="L40" s="256" t="e">
+      <c r="I40" s="251"/>
+      <c r="J40" s="251"/>
+      <c r="K40" s="277"/>
+      <c r="L40" s="250" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="257"/>
-      <c r="N40" s="257"/>
-      <c r="O40" s="276"/>
+      <c r="M40" s="251"/>
+      <c r="N40" s="251"/>
+      <c r="O40" s="252"/>
     </row>
     <row r="41" spans="1:15" s="38" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="52"/>
@@ -7335,38 +7319,38 @@
       <c r="C41" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="285" t="e">
+      <c r="D41" s="287" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="244"/>
-      <c r="F41" s="244"/>
-      <c r="G41" s="245"/>
-      <c r="H41" s="246" t="e">
+      <c r="E41" s="265"/>
+      <c r="F41" s="265"/>
+      <c r="G41" s="266"/>
+      <c r="H41" s="267" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="247"/>
-      <c r="J41" s="247"/>
-      <c r="K41" s="265"/>
-      <c r="L41" s="246" t="e">
+      <c r="I41" s="268"/>
+      <c r="J41" s="268"/>
+      <c r="K41" s="284"/>
+      <c r="L41" s="267" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="247"/>
-      <c r="N41" s="247"/>
-      <c r="O41" s="248"/>
+      <c r="M41" s="268"/>
+      <c r="N41" s="268"/>
+      <c r="O41" s="269"/>
     </row>
     <row r="42" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="166"/>
-      <c r="C42" s="166"/>
-      <c r="D42" s="167" t="s">
+      <c r="B42" s="236"/>
+      <c r="C42" s="236"/>
+      <c r="D42" s="237" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="167"/>
+      <c r="E42" s="237"/>
       <c r="F42" s="36"/>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
@@ -7375,16 +7359,16 @@
       <c r="L42" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="M42" s="151"/>
-      <c r="N42" s="151"/>
+      <c r="M42" s="224"/>
+      <c r="N42" s="224"/>
       <c r="O42" s="35" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="35"/>
-      <c r="B43" s="146"/>
-      <c r="C43" s="146"/>
+      <c r="B43" s="219"/>
+      <c r="C43" s="219"/>
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="35"/>
@@ -7394,27 +7378,27 @@
       <c r="J43" s="37"/>
       <c r="K43" s="33"/>
       <c r="L43" s="37"/>
-      <c r="M43" s="152"/>
-      <c r="N43" s="152"/>
+      <c r="M43" s="225"/>
+      <c r="N43" s="225"/>
       <c r="O43" s="33"/>
     </row>
     <row r="44" spans="1:15" s="38" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="147" t="s">
+      <c r="A44" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="147"/>
-      <c r="C44" s="147"/>
+      <c r="B44" s="220"/>
+      <c r="C44" s="220"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
       <c r="G44" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H44" s="147" t="s">
+      <c r="H44" s="220" t="s">
         <v>47</v>
       </c>
-      <c r="I44" s="147"/>
-      <c r="J44" s="147"/>
+      <c r="I44" s="220"/>
+      <c r="J44" s="220"/>
       <c r="K44" s="37"/>
       <c r="L44" s="37"/>
       <c r="M44" s="37"/>
@@ -7422,10 +7406,10 @@
       <c r="O44" s="37"/>
     </row>
     <row r="45" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="147" t="s">
+      <c r="A45" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="147"/>
+      <c r="B45" s="220"/>
       <c r="C45" s="35"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
@@ -7436,15 +7420,15 @@
       <c r="J45" s="37"/>
       <c r="K45" s="37"/>
       <c r="L45" s="37"/>
-      <c r="M45" s="148" t="s">
+      <c r="M45" s="221" t="s">
         <v>42</v>
       </c>
-      <c r="N45" s="148"/>
+      <c r="N45" s="221"/>
       <c r="O45" s="37"/>
     </row>
     <row r="46" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A46" s="147"/>
-      <c r="B46" s="147"/>
+      <c r="A46" s="220"/>
+      <c r="B46" s="220"/>
       <c r="C46" s="35"/>
       <c r="D46" s="37"/>
       <c r="E46" s="37"/>
@@ -7455,24 +7439,28 @@
       <c r="J46" s="37"/>
       <c r="K46" s="37"/>
       <c r="L46" s="37"/>
-      <c r="M46" s="148"/>
-      <c r="N46" s="148"/>
+      <c r="M46" s="221"/>
+      <c r="N46" s="221"/>
       <c r="O46" s="37"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="42">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="A2:M3"/>
@@ -7489,21 +7477,17 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
@@ -7545,61 +7529,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="266" t="s">
+      <c r="A1" s="240" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="266"/>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="266"/>
-      <c r="G1" s="266"/>
-      <c r="H1" s="266"/>
-      <c r="I1" s="266"/>
-      <c r="J1" s="266"/>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="M1" s="266"/>
-      <c r="N1" s="163" t="s">
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="240"/>
+      <c r="N1" s="234" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="163"/>
+      <c r="O1" s="234"/>
     </row>
     <row r="2" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="267" t="s">
+      <c r="A2" s="241" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="267"/>
-      <c r="C2" s="267"/>
-      <c r="D2" s="267"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="267"/>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="267"/>
-      <c r="K2" s="267"/>
-      <c r="L2" s="267"/>
-      <c r="M2" s="267"/>
-      <c r="N2" s="164" t="s">
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="241"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="241"/>
+      <c r="K2" s="241"/>
+      <c r="L2" s="241"/>
+      <c r="M2" s="241"/>
+      <c r="N2" s="235" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="164"/>
+      <c r="O2" s="235"/>
     </row>
     <row r="3" spans="1:15" s="63" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="267"/>
-      <c r="B3" s="267"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="267"/>
-      <c r="G3" s="267"/>
-      <c r="H3" s="267"/>
-      <c r="I3" s="267"/>
-      <c r="J3" s="267"/>
-      <c r="K3" s="267"/>
-      <c r="L3" s="267"/>
-      <c r="M3" s="267"/>
+      <c r="A3" s="241"/>
+      <c r="B3" s="241"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="241"/>
+      <c r="G3" s="241"/>
+      <c r="H3" s="241"/>
+      <c r="I3" s="241"/>
+      <c r="J3" s="241"/>
+      <c r="K3" s="241"/>
+      <c r="L3" s="241"/>
+      <c r="M3" s="241"/>
       <c r="N3" s="39" t="s">
         <v>19</v>
       </c>
@@ -7609,136 +7593,136 @@
       <c r="A4" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="241">
+      <c r="B4" s="253">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="277"/>
-      <c r="D4" s="278"/>
-      <c r="E4" s="343" t="s">
+      <c r="C4" s="254"/>
+      <c r="D4" s="255"/>
+      <c r="E4" s="304" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="344"/>
-      <c r="G4" s="280">
+      <c r="F4" s="305"/>
+      <c r="G4" s="257">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="257"/>
       <c r="I4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="280">
+      <c r="J4" s="257">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="280"/>
+      <c r="K4" s="257"/>
       <c r="L4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="345">
+      <c r="M4" s="306">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="346"/>
-      <c r="O4" s="347"/>
+      <c r="N4" s="307"/>
+      <c r="O4" s="308"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="240">
+      <c r="B5" s="258">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="348" t="s">
+      <c r="C5" s="258"/>
+      <c r="D5" s="258"/>
+      <c r="E5" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="349"/>
-      <c r="G5" s="240">
+      <c r="F5" s="310"/>
+      <c r="G5" s="258">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="240"/>
+      <c r="H5" s="258"/>
       <c r="I5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="240">
+      <c r="J5" s="258">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="240"/>
+      <c r="K5" s="258"/>
       <c r="L5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="350">
+      <c r="M5" s="311">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="351"/>
-      <c r="O5" s="352"/>
+      <c r="N5" s="312"/>
+      <c r="O5" s="313"/>
     </row>
     <row r="6" spans="1:15" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="327" t="s">
+      <c r="A6" s="322" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="328"/>
-      <c r="C6" s="329"/>
-      <c r="D6" s="330"/>
-      <c r="E6" s="328"/>
-      <c r="F6" s="328"/>
-      <c r="G6" s="328"/>
-      <c r="H6" s="328"/>
-      <c r="I6" s="328"/>
-      <c r="J6" s="328"/>
-      <c r="K6" s="329"/>
-      <c r="L6" s="330"/>
-      <c r="M6" s="328"/>
-      <c r="N6" s="328"/>
-      <c r="O6" s="331"/>
+      <c r="B6" s="291"/>
+      <c r="C6" s="323"/>
+      <c r="D6" s="290"/>
+      <c r="E6" s="291"/>
+      <c r="F6" s="291"/>
+      <c r="G6" s="291"/>
+      <c r="H6" s="291"/>
+      <c r="I6" s="291"/>
+      <c r="J6" s="291"/>
+      <c r="K6" s="323"/>
+      <c r="L6" s="290"/>
+      <c r="M6" s="291"/>
+      <c r="N6" s="291"/>
+      <c r="O6" s="292"/>
     </row>
     <row r="7" spans="1:15" s="11" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A7" s="332" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="333"/>
-      <c r="C7" s="334"/>
-      <c r="D7" s="338" t="s">
+      <c r="A7" s="293" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="294"/>
+      <c r="C7" s="295"/>
+      <c r="D7" s="299" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="251"/>
-      <c r="F7" s="338" t="s">
+      <c r="E7" s="272"/>
+      <c r="F7" s="299" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="251"/>
-      <c r="H7" s="338" t="s">
+      <c r="G7" s="272"/>
+      <c r="H7" s="299" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="251"/>
-      <c r="J7" s="339" t="s">
+      <c r="I7" s="272"/>
+      <c r="J7" s="300" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="340"/>
-      <c r="L7" s="241" t="s">
+      <c r="K7" s="301"/>
+      <c r="L7" s="253" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="277"/>
-      <c r="N7" s="277"/>
-      <c r="O7" s="242"/>
+      <c r="M7" s="254"/>
+      <c r="N7" s="254"/>
+      <c r="O7" s="263"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A8" s="335"/>
-      <c r="B8" s="336"/>
-      <c r="C8" s="337"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="195"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="195"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="341"/>
-      <c r="K8" s="342"/>
+      <c r="A8" s="296"/>
+      <c r="B8" s="297"/>
+      <c r="C8" s="298"/>
+      <c r="D8" s="203"/>
+      <c r="E8" s="205"/>
+      <c r="F8" s="203"/>
+      <c r="G8" s="205"/>
+      <c r="H8" s="203"/>
+      <c r="I8" s="205"/>
+      <c r="J8" s="302"/>
+      <c r="K8" s="303"/>
       <c r="L8" s="80">
         <v>1</v>
       </c>
@@ -7765,14 +7749,14 @@
         <f>Page1!C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="323"/>
-      <c r="E9" s="324"/>
-      <c r="F9" s="323"/>
-      <c r="G9" s="324"/>
-      <c r="H9" s="323"/>
-      <c r="I9" s="324"/>
-      <c r="J9" s="325"/>
-      <c r="K9" s="326"/>
+      <c r="D9" s="314"/>
+      <c r="E9" s="315"/>
+      <c r="F9" s="314"/>
+      <c r="G9" s="315"/>
+      <c r="H9" s="314"/>
+      <c r="I9" s="315"/>
+      <c r="J9" s="316"/>
+      <c r="K9" s="317"/>
       <c r="L9" s="30"/>
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
@@ -7794,14 +7778,14 @@
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="315"/>
-      <c r="E10" s="316"/>
-      <c r="F10" s="315"/>
-      <c r="G10" s="316"/>
-      <c r="H10" s="315"/>
-      <c r="I10" s="316"/>
-      <c r="J10" s="317"/>
-      <c r="K10" s="318"/>
+      <c r="D10" s="318"/>
+      <c r="E10" s="319"/>
+      <c r="F10" s="318"/>
+      <c r="G10" s="319"/>
+      <c r="H10" s="318"/>
+      <c r="I10" s="319"/>
+      <c r="J10" s="320"/>
+      <c r="K10" s="321"/>
       <c r="L10" s="30"/>
       <c r="M10" s="27"/>
       <c r="N10" s="27"/>
@@ -7823,14 +7807,14 @@
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="315"/>
-      <c r="E11" s="316"/>
-      <c r="F11" s="315"/>
-      <c r="G11" s="316"/>
-      <c r="H11" s="315"/>
-      <c r="I11" s="316"/>
-      <c r="J11" s="317"/>
-      <c r="K11" s="318"/>
+      <c r="D11" s="318"/>
+      <c r="E11" s="319"/>
+      <c r="F11" s="318"/>
+      <c r="G11" s="319"/>
+      <c r="H11" s="318"/>
+      <c r="I11" s="319"/>
+      <c r="J11" s="320"/>
+      <c r="K11" s="321"/>
       <c r="L11" s="30"/>
       <c r="M11" s="27"/>
       <c r="N11" s="27"/>
@@ -7852,14 +7836,14 @@
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="315"/>
-      <c r="E12" s="316"/>
-      <c r="F12" s="315"/>
-      <c r="G12" s="316"/>
-      <c r="H12" s="315"/>
-      <c r="I12" s="316"/>
-      <c r="J12" s="317"/>
-      <c r="K12" s="318"/>
+      <c r="D12" s="318"/>
+      <c r="E12" s="319"/>
+      <c r="F12" s="318"/>
+      <c r="G12" s="319"/>
+      <c r="H12" s="318"/>
+      <c r="I12" s="319"/>
+      <c r="J12" s="320"/>
+      <c r="K12" s="321"/>
       <c r="L12" s="29"/>
       <c r="M12" s="28"/>
       <c r="N12" s="28"/>
@@ -7881,14 +7865,14 @@
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="315"/>
-      <c r="E13" s="316"/>
-      <c r="F13" s="315"/>
-      <c r="G13" s="316"/>
-      <c r="H13" s="315"/>
-      <c r="I13" s="316"/>
-      <c r="J13" s="317"/>
-      <c r="K13" s="318"/>
+      <c r="D13" s="318"/>
+      <c r="E13" s="319"/>
+      <c r="F13" s="318"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="318"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="320"/>
+      <c r="K13" s="321"/>
       <c r="L13" s="30"/>
       <c r="M13" s="27"/>
       <c r="N13" s="27"/>
@@ -7910,14 +7894,14 @@
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="315"/>
-      <c r="E14" s="316"/>
-      <c r="F14" s="315"/>
-      <c r="G14" s="316"/>
-      <c r="H14" s="315"/>
-      <c r="I14" s="316"/>
-      <c r="J14" s="317"/>
-      <c r="K14" s="318"/>
+      <c r="D14" s="318"/>
+      <c r="E14" s="319"/>
+      <c r="F14" s="318"/>
+      <c r="G14" s="319"/>
+      <c r="H14" s="318"/>
+      <c r="I14" s="319"/>
+      <c r="J14" s="320"/>
+      <c r="K14" s="321"/>
       <c r="L14" s="30"/>
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
@@ -7939,14 +7923,14 @@
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="315"/>
-      <c r="E15" s="316"/>
-      <c r="F15" s="315"/>
-      <c r="G15" s="316"/>
-      <c r="H15" s="315"/>
-      <c r="I15" s="316"/>
-      <c r="J15" s="317"/>
-      <c r="K15" s="318"/>
+      <c r="D15" s="318"/>
+      <c r="E15" s="319"/>
+      <c r="F15" s="318"/>
+      <c r="G15" s="319"/>
+      <c r="H15" s="318"/>
+      <c r="I15" s="319"/>
+      <c r="J15" s="320"/>
+      <c r="K15" s="321"/>
       <c r="L15" s="30"/>
       <c r="M15" s="27"/>
       <c r="N15" s="27"/>
@@ -7968,14 +7952,14 @@
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="315"/>
-      <c r="E16" s="316"/>
-      <c r="F16" s="315"/>
-      <c r="G16" s="316"/>
-      <c r="H16" s="315"/>
-      <c r="I16" s="316"/>
-      <c r="J16" s="317"/>
-      <c r="K16" s="318"/>
+      <c r="D16" s="318"/>
+      <c r="E16" s="319"/>
+      <c r="F16" s="318"/>
+      <c r="G16" s="319"/>
+      <c r="H16" s="318"/>
+      <c r="I16" s="319"/>
+      <c r="J16" s="320"/>
+      <c r="K16" s="321"/>
       <c r="L16" s="30"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -7997,14 +7981,14 @@
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="315"/>
-      <c r="E17" s="316"/>
-      <c r="F17" s="315"/>
-      <c r="G17" s="316"/>
-      <c r="H17" s="315"/>
-      <c r="I17" s="316"/>
-      <c r="J17" s="317"/>
-      <c r="K17" s="318"/>
+      <c r="D17" s="318"/>
+      <c r="E17" s="319"/>
+      <c r="F17" s="318"/>
+      <c r="G17" s="319"/>
+      <c r="H17" s="318"/>
+      <c r="I17" s="319"/>
+      <c r="J17" s="320"/>
+      <c r="K17" s="321"/>
       <c r="L17" s="30"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -8026,14 +8010,14 @@
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="315"/>
-      <c r="E18" s="316"/>
-      <c r="F18" s="315"/>
-      <c r="G18" s="316"/>
-      <c r="H18" s="315"/>
-      <c r="I18" s="316"/>
-      <c r="J18" s="317"/>
-      <c r="K18" s="318"/>
+      <c r="D18" s="318"/>
+      <c r="E18" s="319"/>
+      <c r="F18" s="318"/>
+      <c r="G18" s="319"/>
+      <c r="H18" s="318"/>
+      <c r="I18" s="319"/>
+      <c r="J18" s="320"/>
+      <c r="K18" s="321"/>
       <c r="L18" s="30"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -8055,14 +8039,14 @@
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="315"/>
-      <c r="E19" s="316"/>
-      <c r="F19" s="315"/>
-      <c r="G19" s="316"/>
-      <c r="H19" s="315"/>
-      <c r="I19" s="316"/>
-      <c r="J19" s="317"/>
-      <c r="K19" s="318"/>
+      <c r="D19" s="318"/>
+      <c r="E19" s="319"/>
+      <c r="F19" s="318"/>
+      <c r="G19" s="319"/>
+      <c r="H19" s="318"/>
+      <c r="I19" s="319"/>
+      <c r="J19" s="320"/>
+      <c r="K19" s="321"/>
       <c r="L19" s="30"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -8084,14 +8068,14 @@
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="315"/>
-      <c r="E20" s="316"/>
-      <c r="F20" s="315"/>
-      <c r="G20" s="316"/>
-      <c r="H20" s="315"/>
-      <c r="I20" s="316"/>
-      <c r="J20" s="317"/>
-      <c r="K20" s="318"/>
+      <c r="D20" s="318"/>
+      <c r="E20" s="319"/>
+      <c r="F20" s="318"/>
+      <c r="G20" s="319"/>
+      <c r="H20" s="318"/>
+      <c r="I20" s="319"/>
+      <c r="J20" s="320"/>
+      <c r="K20" s="321"/>
       <c r="L20" s="30"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -8113,14 +8097,14 @@
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="315"/>
-      <c r="E21" s="316"/>
-      <c r="F21" s="315"/>
-      <c r="G21" s="316"/>
-      <c r="H21" s="315"/>
-      <c r="I21" s="316"/>
-      <c r="J21" s="317"/>
-      <c r="K21" s="318"/>
+      <c r="D21" s="318"/>
+      <c r="E21" s="319"/>
+      <c r="F21" s="318"/>
+      <c r="G21" s="319"/>
+      <c r="H21" s="318"/>
+      <c r="I21" s="319"/>
+      <c r="J21" s="320"/>
+      <c r="K21" s="321"/>
       <c r="L21" s="30"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -8142,14 +8126,14 @@
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="315"/>
-      <c r="E22" s="316"/>
-      <c r="F22" s="315"/>
-      <c r="G22" s="316"/>
-      <c r="H22" s="315"/>
-      <c r="I22" s="316"/>
-      <c r="J22" s="317"/>
-      <c r="K22" s="318"/>
+      <c r="D22" s="318"/>
+      <c r="E22" s="319"/>
+      <c r="F22" s="318"/>
+      <c r="G22" s="319"/>
+      <c r="H22" s="318"/>
+      <c r="I22" s="319"/>
+      <c r="J22" s="320"/>
+      <c r="K22" s="321"/>
       <c r="L22" s="30"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -8171,14 +8155,14 @@
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="315"/>
-      <c r="E23" s="316"/>
-      <c r="F23" s="315"/>
-      <c r="G23" s="316"/>
-      <c r="H23" s="315"/>
-      <c r="I23" s="316"/>
-      <c r="J23" s="317"/>
-      <c r="K23" s="318"/>
+      <c r="D23" s="318"/>
+      <c r="E23" s="319"/>
+      <c r="F23" s="318"/>
+      <c r="G23" s="319"/>
+      <c r="H23" s="318"/>
+      <c r="I23" s="319"/>
+      <c r="J23" s="320"/>
+      <c r="K23" s="321"/>
       <c r="L23" s="30"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -8200,14 +8184,14 @@
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="315"/>
-      <c r="E24" s="316"/>
-      <c r="F24" s="315"/>
-      <c r="G24" s="316"/>
-      <c r="H24" s="315"/>
-      <c r="I24" s="316"/>
-      <c r="J24" s="317"/>
-      <c r="K24" s="318"/>
+      <c r="D24" s="318"/>
+      <c r="E24" s="319"/>
+      <c r="F24" s="318"/>
+      <c r="G24" s="319"/>
+      <c r="H24" s="318"/>
+      <c r="I24" s="319"/>
+      <c r="J24" s="320"/>
+      <c r="K24" s="321"/>
       <c r="L24" s="30"/>
       <c r="M24" s="27"/>
       <c r="N24" s="27"/>
@@ -8229,14 +8213,14 @@
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="315"/>
-      <c r="E25" s="316"/>
-      <c r="F25" s="315"/>
-      <c r="G25" s="316"/>
-      <c r="H25" s="315"/>
-      <c r="I25" s="316"/>
-      <c r="J25" s="317"/>
-      <c r="K25" s="318"/>
+      <c r="D25" s="318"/>
+      <c r="E25" s="319"/>
+      <c r="F25" s="318"/>
+      <c r="G25" s="319"/>
+      <c r="H25" s="318"/>
+      <c r="I25" s="319"/>
+      <c r="J25" s="320"/>
+      <c r="K25" s="321"/>
       <c r="L25" s="29"/>
       <c r="M25" s="28"/>
       <c r="N25" s="28"/>
@@ -8258,14 +8242,14 @@
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="315"/>
-      <c r="E26" s="316"/>
-      <c r="F26" s="315"/>
-      <c r="G26" s="316"/>
-      <c r="H26" s="315"/>
-      <c r="I26" s="316"/>
-      <c r="J26" s="317"/>
-      <c r="K26" s="318"/>
+      <c r="D26" s="318"/>
+      <c r="E26" s="319"/>
+      <c r="F26" s="318"/>
+      <c r="G26" s="319"/>
+      <c r="H26" s="318"/>
+      <c r="I26" s="319"/>
+      <c r="J26" s="320"/>
+      <c r="K26" s="321"/>
       <c r="L26" s="30"/>
       <c r="M26" s="27"/>
       <c r="N26" s="27"/>
@@ -8287,14 +8271,14 @@
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="315"/>
-      <c r="E27" s="316"/>
-      <c r="F27" s="315"/>
-      <c r="G27" s="316"/>
-      <c r="H27" s="315"/>
-      <c r="I27" s="316"/>
-      <c r="J27" s="317"/>
-      <c r="K27" s="318"/>
+      <c r="D27" s="318"/>
+      <c r="E27" s="319"/>
+      <c r="F27" s="318"/>
+      <c r="G27" s="319"/>
+      <c r="H27" s="318"/>
+      <c r="I27" s="319"/>
+      <c r="J27" s="320"/>
+      <c r="K27" s="321"/>
       <c r="L27" s="30"/>
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
@@ -8316,14 +8300,14 @@
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="315"/>
-      <c r="E28" s="316"/>
-      <c r="F28" s="315"/>
-      <c r="G28" s="316"/>
-      <c r="H28" s="315"/>
-      <c r="I28" s="316"/>
-      <c r="J28" s="317"/>
-      <c r="K28" s="318"/>
+      <c r="D28" s="318"/>
+      <c r="E28" s="319"/>
+      <c r="F28" s="318"/>
+      <c r="G28" s="319"/>
+      <c r="H28" s="318"/>
+      <c r="I28" s="319"/>
+      <c r="J28" s="320"/>
+      <c r="K28" s="321"/>
       <c r="L28" s="30"/>
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
@@ -8345,14 +8329,14 @@
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="315"/>
-      <c r="E29" s="316"/>
-      <c r="F29" s="315"/>
-      <c r="G29" s="316"/>
-      <c r="H29" s="315"/>
-      <c r="I29" s="316"/>
-      <c r="J29" s="317"/>
-      <c r="K29" s="318"/>
+      <c r="D29" s="318"/>
+      <c r="E29" s="319"/>
+      <c r="F29" s="318"/>
+      <c r="G29" s="319"/>
+      <c r="H29" s="318"/>
+      <c r="I29" s="319"/>
+      <c r="J29" s="320"/>
+      <c r="K29" s="321"/>
       <c r="L29" s="30"/>
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
@@ -8374,14 +8358,14 @@
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="315"/>
-      <c r="E30" s="316"/>
-      <c r="F30" s="315"/>
-      <c r="G30" s="316"/>
-      <c r="H30" s="315"/>
-      <c r="I30" s="316"/>
-      <c r="J30" s="317"/>
-      <c r="K30" s="318"/>
+      <c r="D30" s="318"/>
+      <c r="E30" s="319"/>
+      <c r="F30" s="318"/>
+      <c r="G30" s="319"/>
+      <c r="H30" s="318"/>
+      <c r="I30" s="319"/>
+      <c r="J30" s="320"/>
+      <c r="K30" s="321"/>
       <c r="L30" s="30"/>
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
@@ -8403,14 +8387,14 @@
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="315"/>
-      <c r="E31" s="316"/>
-      <c r="F31" s="315"/>
-      <c r="G31" s="316"/>
-      <c r="H31" s="315"/>
-      <c r="I31" s="316"/>
-      <c r="J31" s="317"/>
-      <c r="K31" s="318"/>
+      <c r="D31" s="318"/>
+      <c r="E31" s="319"/>
+      <c r="F31" s="318"/>
+      <c r="G31" s="319"/>
+      <c r="H31" s="318"/>
+      <c r="I31" s="319"/>
+      <c r="J31" s="320"/>
+      <c r="K31" s="321"/>
       <c r="L31" s="30"/>
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
@@ -8432,14 +8416,14 @@
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="315"/>
-      <c r="E32" s="316"/>
-      <c r="F32" s="315"/>
-      <c r="G32" s="316"/>
-      <c r="H32" s="315"/>
-      <c r="I32" s="316"/>
-      <c r="J32" s="317"/>
-      <c r="K32" s="318"/>
+      <c r="D32" s="318"/>
+      <c r="E32" s="319"/>
+      <c r="F32" s="318"/>
+      <c r="G32" s="319"/>
+      <c r="H32" s="318"/>
+      <c r="I32" s="319"/>
+      <c r="J32" s="320"/>
+      <c r="K32" s="321"/>
       <c r="L32" s="30"/>
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
@@ -8461,14 +8445,14 @@
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="315"/>
-      <c r="E33" s="316"/>
-      <c r="F33" s="315"/>
-      <c r="G33" s="316"/>
-      <c r="H33" s="315"/>
-      <c r="I33" s="316"/>
-      <c r="J33" s="317"/>
-      <c r="K33" s="318"/>
+      <c r="D33" s="318"/>
+      <c r="E33" s="319"/>
+      <c r="F33" s="318"/>
+      <c r="G33" s="319"/>
+      <c r="H33" s="318"/>
+      <c r="I33" s="319"/>
+      <c r="J33" s="320"/>
+      <c r="K33" s="321"/>
       <c r="L33" s="30"/>
       <c r="M33" s="27"/>
       <c r="N33" s="27"/>
@@ -8490,14 +8474,14 @@
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="315"/>
-      <c r="E34" s="316"/>
-      <c r="F34" s="315"/>
-      <c r="G34" s="316"/>
-      <c r="H34" s="315"/>
-      <c r="I34" s="316"/>
-      <c r="J34" s="317"/>
-      <c r="K34" s="318"/>
+      <c r="D34" s="318"/>
+      <c r="E34" s="319"/>
+      <c r="F34" s="318"/>
+      <c r="G34" s="319"/>
+      <c r="H34" s="318"/>
+      <c r="I34" s="319"/>
+      <c r="J34" s="320"/>
+      <c r="K34" s="321"/>
       <c r="L34" s="30"/>
       <c r="M34" s="27"/>
       <c r="N34" s="27"/>
@@ -8519,14 +8503,14 @@
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="315"/>
-      <c r="E35" s="316"/>
-      <c r="F35" s="315"/>
-      <c r="G35" s="316"/>
-      <c r="H35" s="315"/>
-      <c r="I35" s="316"/>
-      <c r="J35" s="317"/>
-      <c r="K35" s="318"/>
+      <c r="D35" s="318"/>
+      <c r="E35" s="319"/>
+      <c r="F35" s="318"/>
+      <c r="G35" s="319"/>
+      <c r="H35" s="318"/>
+      <c r="I35" s="319"/>
+      <c r="J35" s="320"/>
+      <c r="K35" s="321"/>
       <c r="L35" s="30"/>
       <c r="M35" s="27"/>
       <c r="N35" s="27"/>
@@ -8548,14 +8532,14 @@
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="315"/>
-      <c r="E36" s="316"/>
-      <c r="F36" s="315"/>
-      <c r="G36" s="316"/>
-      <c r="H36" s="315"/>
-      <c r="I36" s="316"/>
-      <c r="J36" s="317"/>
-      <c r="K36" s="318"/>
+      <c r="D36" s="318"/>
+      <c r="E36" s="319"/>
+      <c r="F36" s="318"/>
+      <c r="G36" s="319"/>
+      <c r="H36" s="318"/>
+      <c r="I36" s="319"/>
+      <c r="J36" s="320"/>
+      <c r="K36" s="321"/>
       <c r="L36" s="30"/>
       <c r="M36" s="27"/>
       <c r="N36" s="27"/>
@@ -8577,14 +8561,14 @@
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="315"/>
-      <c r="E37" s="316"/>
-      <c r="F37" s="315"/>
-      <c r="G37" s="316"/>
-      <c r="H37" s="315"/>
-      <c r="I37" s="316"/>
-      <c r="J37" s="317"/>
-      <c r="K37" s="318"/>
+      <c r="D37" s="318"/>
+      <c r="E37" s="319"/>
+      <c r="F37" s="318"/>
+      <c r="G37" s="319"/>
+      <c r="H37" s="318"/>
+      <c r="I37" s="319"/>
+      <c r="J37" s="320"/>
+      <c r="K37" s="321"/>
       <c r="L37" s="30"/>
       <c r="M37" s="27"/>
       <c r="N37" s="27"/>
@@ -8606,14 +8590,14 @@
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="319"/>
-      <c r="E38" s="320"/>
-      <c r="F38" s="319"/>
-      <c r="G38" s="320"/>
-      <c r="H38" s="319"/>
-      <c r="I38" s="320"/>
-      <c r="J38" s="321"/>
-      <c r="K38" s="322"/>
+      <c r="D38" s="324"/>
+      <c r="E38" s="325"/>
+      <c r="F38" s="324"/>
+      <c r="G38" s="325"/>
+      <c r="H38" s="324"/>
+      <c r="I38" s="325"/>
+      <c r="J38" s="326"/>
+      <c r="K38" s="327"/>
       <c r="L38" s="29"/>
       <c r="M38" s="28"/>
       <c r="N38" s="28"/>
@@ -8628,33 +8612,33 @@
       <c r="C39" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="299" t="e">
+      <c r="D39" s="337" t="e">
         <f>AVERAGE(D9:E38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="300"/>
-      <c r="F39" s="299" t="e">
+      <c r="E39" s="338"/>
+      <c r="F39" s="337" t="e">
         <f>AVERAGE(F9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="300"/>
-      <c r="H39" s="299" t="e">
+      <c r="G39" s="338"/>
+      <c r="H39" s="337" t="e">
         <f>AVERAGE(H9:I38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="300"/>
-      <c r="J39" s="301" t="e">
+      <c r="I39" s="338"/>
+      <c r="J39" s="339" t="e">
         <f>AVERAGE(J9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="302"/>
-      <c r="L39" s="303" t="e">
+      <c r="K39" s="340"/>
+      <c r="L39" s="341" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="304"/>
-      <c r="N39" s="304"/>
-      <c r="O39" s="305"/>
+      <c r="M39" s="342"/>
+      <c r="N39" s="342"/>
+      <c r="O39" s="343"/>
     </row>
     <row r="40" spans="1:15" s="11" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="5"/>
@@ -8662,33 +8646,33 @@
       <c r="C40" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="306">
+      <c r="D40" s="344">
         <f>MIN(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="307"/>
-      <c r="F40" s="308">
+      <c r="E40" s="345"/>
+      <c r="F40" s="346">
         <f>MIN(F9:G38)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="309"/>
-      <c r="H40" s="308">
+      <c r="G40" s="347"/>
+      <c r="H40" s="346">
         <f>MIN(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="309"/>
-      <c r="J40" s="310">
+      <c r="I40" s="347"/>
+      <c r="J40" s="348">
         <f>MIN(J9:K38)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="311"/>
-      <c r="L40" s="312" t="e">
+      <c r="K40" s="349"/>
+      <c r="L40" s="350" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="313"/>
-      <c r="N40" s="313"/>
-      <c r="O40" s="314"/>
+      <c r="M40" s="351"/>
+      <c r="N40" s="351"/>
+      <c r="O40" s="352"/>
     </row>
     <row r="41" spans="1:15" s="11" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="8"/>
@@ -8696,44 +8680,44 @@
       <c r="C41" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="290">
+      <c r="D41" s="328">
         <f>MAX(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="291"/>
-      <c r="F41" s="292">
+      <c r="E41" s="329"/>
+      <c r="F41" s="330">
         <f>MAX(F9:G38)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="293"/>
-      <c r="H41" s="292">
+      <c r="G41" s="331"/>
+      <c r="H41" s="330">
         <f>MAX(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="293"/>
-      <c r="J41" s="294">
+      <c r="I41" s="331"/>
+      <c r="J41" s="332">
         <f>MAX(J9:K38)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="295"/>
-      <c r="L41" s="296" t="e">
+      <c r="K41" s="333"/>
+      <c r="L41" s="334" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="297"/>
-      <c r="N41" s="297"/>
-      <c r="O41" s="298"/>
+      <c r="M41" s="335"/>
+      <c r="N41" s="335"/>
+      <c r="O41" s="336"/>
     </row>
     <row r="42" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="166"/>
-      <c r="C42" s="166"/>
-      <c r="D42" s="167" t="s">
+      <c r="B42" s="236"/>
+      <c r="C42" s="236"/>
+      <c r="D42" s="237" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="167"/>
+      <c r="E42" s="237"/>
       <c r="F42" s="36"/>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
@@ -8742,16 +8726,16 @@
       <c r="L42" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="M42" s="151"/>
-      <c r="N42" s="151"/>
+      <c r="M42" s="224"/>
+      <c r="N42" s="224"/>
       <c r="O42" s="35" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="35"/>
-      <c r="B43" s="146"/>
-      <c r="C43" s="146"/>
+      <c r="B43" s="219"/>
+      <c r="C43" s="219"/>
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="35"/>
@@ -8761,27 +8745,27 @@
       <c r="J43" s="37"/>
       <c r="K43" s="33"/>
       <c r="L43" s="37"/>
-      <c r="M43" s="152"/>
-      <c r="N43" s="152"/>
+      <c r="M43" s="225"/>
+      <c r="N43" s="225"/>
       <c r="O43" s="33"/>
     </row>
     <row r="44" spans="1:15" s="38" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="147" t="s">
+      <c r="A44" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="147"/>
-      <c r="C44" s="147"/>
+      <c r="B44" s="220"/>
+      <c r="C44" s="220"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
       <c r="G44" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H44" s="147" t="s">
+      <c r="H44" s="220" t="s">
         <v>47</v>
       </c>
-      <c r="I44" s="147"/>
-      <c r="J44" s="147"/>
+      <c r="I44" s="220"/>
+      <c r="J44" s="220"/>
       <c r="K44" s="37"/>
       <c r="L44" s="37"/>
       <c r="M44" s="37"/>
@@ -8789,10 +8773,10 @@
       <c r="O44" s="37"/>
     </row>
     <row r="45" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="147" t="s">
+      <c r="A45" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="147"/>
+      <c r="B45" s="220"/>
       <c r="C45" s="35"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
@@ -8803,24 +8787,152 @@
       <c r="J45" s="37"/>
       <c r="K45" s="37"/>
       <c r="L45" s="37"/>
-      <c r="M45" s="148" t="s">
+      <c r="M45" s="221" t="s">
         <v>43</v>
       </c>
-      <c r="N45" s="148"/>
+      <c r="N45" s="221"/>
       <c r="O45" s="37"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="167">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:K6"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="A2:M3"/>
@@ -8842,143 +8954,15 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="M5:O5"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D38 D39:E41">
     <cfRule type="cellIs" dxfId="10" priority="15" operator="notBetween">
@@ -9009,7 +8993,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9032,61 +9016,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="266" t="s">
+      <c r="A1" s="240" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="266"/>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="266"/>
-      <c r="G1" s="266"/>
-      <c r="H1" s="266"/>
-      <c r="I1" s="266"/>
-      <c r="J1" s="266"/>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="M1" s="266"/>
-      <c r="N1" s="163" t="s">
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="240"/>
+      <c r="N1" s="234" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="163"/>
+      <c r="O1" s="234"/>
     </row>
     <row r="2" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="267" t="s">
+      <c r="A2" s="241" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="267"/>
-      <c r="C2" s="267"/>
-      <c r="D2" s="267"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="267"/>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="267"/>
-      <c r="K2" s="267"/>
-      <c r="L2" s="267"/>
-      <c r="M2" s="267"/>
-      <c r="N2" s="164" t="s">
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="241"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="241"/>
+      <c r="K2" s="241"/>
+      <c r="L2" s="241"/>
+      <c r="M2" s="241"/>
+      <c r="N2" s="235" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="164"/>
+      <c r="O2" s="235"/>
     </row>
     <row r="3" spans="1:15" s="63" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="267"/>
-      <c r="B3" s="267"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="267"/>
-      <c r="G3" s="267"/>
-      <c r="H3" s="267"/>
-      <c r="I3" s="267"/>
-      <c r="J3" s="267"/>
-      <c r="K3" s="267"/>
-      <c r="L3" s="267"/>
-      <c r="M3" s="267"/>
+      <c r="A3" s="241"/>
+      <c r="B3" s="241"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="241"/>
+      <c r="G3" s="241"/>
+      <c r="H3" s="241"/>
+      <c r="I3" s="241"/>
+      <c r="J3" s="241"/>
+      <c r="K3" s="241"/>
+      <c r="L3" s="241"/>
+      <c r="M3" s="241"/>
       <c r="N3" s="39" t="s">
         <v>19</v>
       </c>
@@ -9096,84 +9080,84 @@
       <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="241">
+      <c r="B4" s="253">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="277"/>
-      <c r="D4" s="278"/>
-      <c r="E4" s="343" t="s">
+      <c r="C4" s="254"/>
+      <c r="D4" s="255"/>
+      <c r="E4" s="304" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="344"/>
-      <c r="G4" s="280">
+      <c r="F4" s="305"/>
+      <c r="G4" s="257">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="257"/>
       <c r="I4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="280">
+      <c r="J4" s="257">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="280"/>
+      <c r="K4" s="257"/>
       <c r="L4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="345">
+      <c r="M4" s="306">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="346"/>
-      <c r="O4" s="347"/>
+      <c r="N4" s="307"/>
+      <c r="O4" s="308"/>
     </row>
     <row r="5" spans="1:15" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="240">
+      <c r="B5" s="258">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="375" t="s">
+      <c r="C5" s="258"/>
+      <c r="D5" s="258"/>
+      <c r="E5" s="353" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="375"/>
-      <c r="G5" s="240">
+      <c r="F5" s="353"/>
+      <c r="G5" s="258">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="240"/>
+      <c r="H5" s="258"/>
       <c r="I5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="240">
+      <c r="J5" s="258">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="240"/>
+      <c r="K5" s="258"/>
       <c r="L5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="350">
+      <c r="M5" s="311">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="351"/>
-      <c r="O5" s="352"/>
+      <c r="N5" s="312"/>
+      <c r="O5" s="313"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A6" s="379" t="s">
+      <c r="A6" s="360" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="380"/>
-      <c r="C6" s="381"/>
-      <c r="D6" s="382"/>
-      <c r="E6" s="383"/>
+      <c r="B6" s="361"/>
+      <c r="C6" s="362"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="364"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -9186,38 +9170,38 @@
       <c r="O6" s="22"/>
     </row>
     <row r="7" spans="1:15" ht="15">
-      <c r="A7" s="384" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="385"/>
-      <c r="C7" s="386"/>
-      <c r="D7" s="390" t="s">
+      <c r="A7" s="365" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="366"/>
+      <c r="C7" s="367"/>
+      <c r="D7" s="371" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="391"/>
-      <c r="F7" s="250"/>
-      <c r="G7" s="250"/>
-      <c r="H7" s="250"/>
-      <c r="I7" s="250"/>
-      <c r="J7" s="373"/>
-      <c r="K7" s="373"/>
-      <c r="L7" s="373"/>
-      <c r="M7" s="373"/>
-      <c r="N7" s="373"/>
-      <c r="O7" s="376"/>
+      <c r="E7" s="372"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="271"/>
+      <c r="I7" s="271"/>
+      <c r="J7" s="354"/>
+      <c r="K7" s="354"/>
+      <c r="L7" s="354"/>
+      <c r="M7" s="354"/>
+      <c r="N7" s="354"/>
+      <c r="O7" s="355"/>
     </row>
     <row r="8" spans="1:15" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A8" s="387"/>
-      <c r="B8" s="388"/>
-      <c r="C8" s="389"/>
-      <c r="D8" s="392"/>
-      <c r="E8" s="393"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="374"/>
-      <c r="K8" s="374"/>
+      <c r="A8" s="368"/>
+      <c r="B8" s="369"/>
+      <c r="C8" s="370"/>
+      <c r="D8" s="373"/>
+      <c r="E8" s="374"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="221"/>
+      <c r="I8" s="221"/>
+      <c r="J8" s="377"/>
+      <c r="K8" s="377"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
@@ -9236,16 +9220,16 @@
         <f>Page1!C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="377">
-        <v>0</v>
-      </c>
-      <c r="E9" s="378"/>
-      <c r="F9" s="367"/>
-      <c r="G9" s="367"/>
-      <c r="H9" s="367"/>
-      <c r="I9" s="367"/>
-      <c r="J9" s="368"/>
-      <c r="K9" s="368"/>
+      <c r="D9" s="356">
+        <v>0</v>
+      </c>
+      <c r="E9" s="357"/>
+      <c r="F9" s="358"/>
+      <c r="G9" s="358"/>
+      <c r="H9" s="358"/>
+      <c r="I9" s="358"/>
+      <c r="J9" s="359"/>
+      <c r="K9" s="359"/>
       <c r="L9" s="31"/>
       <c r="M9" s="31"/>
       <c r="N9" s="31"/>
@@ -9264,16 +9248,16 @@
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="371">
-        <v>0</v>
-      </c>
-      <c r="E10" s="372"/>
-      <c r="F10" s="367"/>
-      <c r="G10" s="367"/>
-      <c r="H10" s="367"/>
-      <c r="I10" s="367"/>
-      <c r="J10" s="368"/>
-      <c r="K10" s="368"/>
+      <c r="D10" s="375">
+        <v>0</v>
+      </c>
+      <c r="E10" s="376"/>
+      <c r="F10" s="358"/>
+      <c r="G10" s="358"/>
+      <c r="H10" s="358"/>
+      <c r="I10" s="358"/>
+      <c r="J10" s="359"/>
+      <c r="K10" s="359"/>
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
       <c r="N10" s="31"/>
@@ -9292,16 +9276,16 @@
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="371">
-        <v>0</v>
-      </c>
-      <c r="E11" s="372"/>
-      <c r="F11" s="367"/>
-      <c r="G11" s="367"/>
-      <c r="H11" s="367"/>
-      <c r="I11" s="367"/>
-      <c r="J11" s="368"/>
-      <c r="K11" s="368"/>
+      <c r="D11" s="375">
+        <v>0</v>
+      </c>
+      <c r="E11" s="376"/>
+      <c r="F11" s="358"/>
+      <c r="G11" s="358"/>
+      <c r="H11" s="358"/>
+      <c r="I11" s="358"/>
+      <c r="J11" s="359"/>
+      <c r="K11" s="359"/>
       <c r="L11" s="31"/>
       <c r="M11" s="31"/>
       <c r="N11" s="31"/>
@@ -9320,16 +9304,16 @@
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="371">
-        <v>0</v>
-      </c>
-      <c r="E12" s="372"/>
-      <c r="F12" s="367"/>
-      <c r="G12" s="367"/>
-      <c r="H12" s="367"/>
-      <c r="I12" s="367"/>
-      <c r="J12" s="368"/>
-      <c r="K12" s="368"/>
+      <c r="D12" s="375">
+        <v>0</v>
+      </c>
+      <c r="E12" s="376"/>
+      <c r="F12" s="358"/>
+      <c r="G12" s="358"/>
+      <c r="H12" s="358"/>
+      <c r="I12" s="358"/>
+      <c r="J12" s="359"/>
+      <c r="K12" s="359"/>
       <c r="L12" s="31"/>
       <c r="M12" s="31"/>
       <c r="N12" s="31"/>
@@ -9348,16 +9332,16 @@
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="371">
-        <v>0</v>
-      </c>
-      <c r="E13" s="372"/>
-      <c r="F13" s="367"/>
-      <c r="G13" s="367"/>
-      <c r="H13" s="367"/>
-      <c r="I13" s="367"/>
-      <c r="J13" s="368"/>
-      <c r="K13" s="368"/>
+      <c r="D13" s="375">
+        <v>0</v>
+      </c>
+      <c r="E13" s="376"/>
+      <c r="F13" s="358"/>
+      <c r="G13" s="358"/>
+      <c r="H13" s="358"/>
+      <c r="I13" s="358"/>
+      <c r="J13" s="359"/>
+      <c r="K13" s="359"/>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
       <c r="N13" s="31"/>
@@ -9376,16 +9360,16 @@
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="371">
-        <v>0</v>
-      </c>
-      <c r="E14" s="372"/>
-      <c r="F14" s="367"/>
-      <c r="G14" s="367"/>
-      <c r="H14" s="367"/>
-      <c r="I14" s="367"/>
-      <c r="J14" s="368"/>
-      <c r="K14" s="368"/>
+      <c r="D14" s="375">
+        <v>0</v>
+      </c>
+      <c r="E14" s="376"/>
+      <c r="F14" s="358"/>
+      <c r="G14" s="358"/>
+      <c r="H14" s="358"/>
+      <c r="I14" s="358"/>
+      <c r="J14" s="359"/>
+      <c r="K14" s="359"/>
       <c r="L14" s="31"/>
       <c r="M14" s="31"/>
       <c r="N14" s="31"/>
@@ -9404,16 +9388,16 @@
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="371">
-        <v>0</v>
-      </c>
-      <c r="E15" s="372"/>
-      <c r="F15" s="367"/>
-      <c r="G15" s="367"/>
-      <c r="H15" s="367"/>
-      <c r="I15" s="367"/>
-      <c r="J15" s="368"/>
-      <c r="K15" s="368"/>
+      <c r="D15" s="375">
+        <v>0</v>
+      </c>
+      <c r="E15" s="376"/>
+      <c r="F15" s="358"/>
+      <c r="G15" s="358"/>
+      <c r="H15" s="358"/>
+      <c r="I15" s="358"/>
+      <c r="J15" s="359"/>
+      <c r="K15" s="359"/>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
       <c r="N15" s="31"/>
@@ -9432,16 +9416,16 @@
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="371">
-        <v>0</v>
-      </c>
-      <c r="E16" s="372"/>
-      <c r="F16" s="367"/>
-      <c r="G16" s="367"/>
-      <c r="H16" s="367"/>
-      <c r="I16" s="367"/>
-      <c r="J16" s="368"/>
-      <c r="K16" s="368"/>
+      <c r="D16" s="375">
+        <v>0</v>
+      </c>
+      <c r="E16" s="376"/>
+      <c r="F16" s="358"/>
+      <c r="G16" s="358"/>
+      <c r="H16" s="358"/>
+      <c r="I16" s="358"/>
+      <c r="J16" s="359"/>
+      <c r="K16" s="359"/>
       <c r="L16" s="31"/>
       <c r="M16" s="31"/>
       <c r="N16" s="31"/>
@@ -9460,16 +9444,16 @@
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="371">
-        <v>0</v>
-      </c>
-      <c r="E17" s="372"/>
-      <c r="F17" s="367"/>
-      <c r="G17" s="367"/>
-      <c r="H17" s="367"/>
-      <c r="I17" s="367"/>
-      <c r="J17" s="368"/>
-      <c r="K17" s="368"/>
+      <c r="D17" s="375">
+        <v>0</v>
+      </c>
+      <c r="E17" s="376"/>
+      <c r="F17" s="358"/>
+      <c r="G17" s="358"/>
+      <c r="H17" s="358"/>
+      <c r="I17" s="358"/>
+      <c r="J17" s="359"/>
+      <c r="K17" s="359"/>
       <c r="L17" s="31"/>
       <c r="M17" s="31"/>
       <c r="N17" s="31"/>
@@ -9488,16 +9472,16 @@
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="371">
-        <v>0</v>
-      </c>
-      <c r="E18" s="372"/>
-      <c r="F18" s="367"/>
-      <c r="G18" s="367"/>
-      <c r="H18" s="367"/>
-      <c r="I18" s="367"/>
-      <c r="J18" s="368"/>
-      <c r="K18" s="368"/>
+      <c r="D18" s="375">
+        <v>0</v>
+      </c>
+      <c r="E18" s="376"/>
+      <c r="F18" s="358"/>
+      <c r="G18" s="358"/>
+      <c r="H18" s="358"/>
+      <c r="I18" s="358"/>
+      <c r="J18" s="359"/>
+      <c r="K18" s="359"/>
       <c r="L18" s="31"/>
       <c r="M18" s="31"/>
       <c r="N18" s="31"/>
@@ -9516,16 +9500,16 @@
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="371">
-        <v>0</v>
-      </c>
-      <c r="E19" s="372"/>
-      <c r="F19" s="367"/>
-      <c r="G19" s="367"/>
-      <c r="H19" s="367"/>
-      <c r="I19" s="367"/>
-      <c r="J19" s="368"/>
-      <c r="K19" s="368"/>
+      <c r="D19" s="375">
+        <v>0</v>
+      </c>
+      <c r="E19" s="376"/>
+      <c r="F19" s="358"/>
+      <c r="G19" s="358"/>
+      <c r="H19" s="358"/>
+      <c r="I19" s="358"/>
+      <c r="J19" s="359"/>
+      <c r="K19" s="359"/>
       <c r="L19" s="31"/>
       <c r="M19" s="31"/>
       <c r="N19" s="31"/>
@@ -9544,16 +9528,16 @@
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="371">
-        <v>0</v>
-      </c>
-      <c r="E20" s="372"/>
-      <c r="F20" s="367"/>
-      <c r="G20" s="367"/>
-      <c r="H20" s="367"/>
-      <c r="I20" s="367"/>
-      <c r="J20" s="368"/>
-      <c r="K20" s="368"/>
+      <c r="D20" s="375">
+        <v>0</v>
+      </c>
+      <c r="E20" s="376"/>
+      <c r="F20" s="358"/>
+      <c r="G20" s="358"/>
+      <c r="H20" s="358"/>
+      <c r="I20" s="358"/>
+      <c r="J20" s="359"/>
+      <c r="K20" s="359"/>
       <c r="L20" s="31"/>
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
@@ -9572,16 +9556,16 @@
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="371">
-        <v>0</v>
-      </c>
-      <c r="E21" s="372"/>
-      <c r="F21" s="367"/>
-      <c r="G21" s="367"/>
-      <c r="H21" s="367"/>
-      <c r="I21" s="367"/>
-      <c r="J21" s="368"/>
-      <c r="K21" s="368"/>
+      <c r="D21" s="375">
+        <v>0</v>
+      </c>
+      <c r="E21" s="376"/>
+      <c r="F21" s="358"/>
+      <c r="G21" s="358"/>
+      <c r="H21" s="358"/>
+      <c r="I21" s="358"/>
+      <c r="J21" s="359"/>
+      <c r="K21" s="359"/>
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
@@ -9600,16 +9584,16 @@
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="371">
-        <v>0</v>
-      </c>
-      <c r="E22" s="372"/>
-      <c r="F22" s="367"/>
-      <c r="G22" s="367"/>
-      <c r="H22" s="367"/>
-      <c r="I22" s="367"/>
-      <c r="J22" s="368"/>
-      <c r="K22" s="368"/>
+      <c r="D22" s="375">
+        <v>0</v>
+      </c>
+      <c r="E22" s="376"/>
+      <c r="F22" s="358"/>
+      <c r="G22" s="358"/>
+      <c r="H22" s="358"/>
+      <c r="I22" s="358"/>
+      <c r="J22" s="359"/>
+      <c r="K22" s="359"/>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
       <c r="N22" s="31"/>
@@ -9628,16 +9612,16 @@
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="371">
-        <v>0</v>
-      </c>
-      <c r="E23" s="372"/>
-      <c r="F23" s="367"/>
-      <c r="G23" s="367"/>
-      <c r="H23" s="367"/>
-      <c r="I23" s="367"/>
-      <c r="J23" s="368"/>
-      <c r="K23" s="368"/>
+      <c r="D23" s="375">
+        <v>0</v>
+      </c>
+      <c r="E23" s="376"/>
+      <c r="F23" s="358"/>
+      <c r="G23" s="358"/>
+      <c r="H23" s="358"/>
+      <c r="I23" s="358"/>
+      <c r="J23" s="359"/>
+      <c r="K23" s="359"/>
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
       <c r="N23" s="31"/>
@@ -9656,16 +9640,16 @@
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="371">
-        <v>0</v>
-      </c>
-      <c r="E24" s="372"/>
-      <c r="F24" s="367"/>
-      <c r="G24" s="367"/>
-      <c r="H24" s="367"/>
-      <c r="I24" s="367"/>
-      <c r="J24" s="368"/>
-      <c r="K24" s="368"/>
+      <c r="D24" s="375">
+        <v>0</v>
+      </c>
+      <c r="E24" s="376"/>
+      <c r="F24" s="358"/>
+      <c r="G24" s="358"/>
+      <c r="H24" s="358"/>
+      <c r="I24" s="358"/>
+      <c r="J24" s="359"/>
+      <c r="K24" s="359"/>
       <c r="L24" s="31"/>
       <c r="M24" s="31"/>
       <c r="N24" s="31"/>
@@ -9684,16 +9668,16 @@
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="371">
-        <v>0</v>
-      </c>
-      <c r="E25" s="372"/>
-      <c r="F25" s="367"/>
-      <c r="G25" s="367"/>
-      <c r="H25" s="367"/>
-      <c r="I25" s="367"/>
-      <c r="J25" s="368"/>
-      <c r="K25" s="368"/>
+      <c r="D25" s="375">
+        <v>0</v>
+      </c>
+      <c r="E25" s="376"/>
+      <c r="F25" s="358"/>
+      <c r="G25" s="358"/>
+      <c r="H25" s="358"/>
+      <c r="I25" s="358"/>
+      <c r="J25" s="359"/>
+      <c r="K25" s="359"/>
       <c r="L25" s="31"/>
       <c r="M25" s="31"/>
       <c r="N25" s="31"/>
@@ -9712,16 +9696,16 @@
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="371">
-        <v>0</v>
-      </c>
-      <c r="E26" s="372"/>
-      <c r="F26" s="367"/>
-      <c r="G26" s="367"/>
-      <c r="H26" s="367"/>
-      <c r="I26" s="367"/>
-      <c r="J26" s="368"/>
-      <c r="K26" s="368"/>
+      <c r="D26" s="375">
+        <v>0</v>
+      </c>
+      <c r="E26" s="376"/>
+      <c r="F26" s="358"/>
+      <c r="G26" s="358"/>
+      <c r="H26" s="358"/>
+      <c r="I26" s="358"/>
+      <c r="J26" s="359"/>
+      <c r="K26" s="359"/>
       <c r="L26" s="31"/>
       <c r="M26" s="31"/>
       <c r="N26" s="31"/>
@@ -9740,16 +9724,16 @@
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="371">
-        <v>0</v>
-      </c>
-      <c r="E27" s="372"/>
-      <c r="F27" s="367"/>
-      <c r="G27" s="367"/>
-      <c r="H27" s="367"/>
-      <c r="I27" s="367"/>
-      <c r="J27" s="368"/>
-      <c r="K27" s="368"/>
+      <c r="D27" s="375">
+        <v>0</v>
+      </c>
+      <c r="E27" s="376"/>
+      <c r="F27" s="358"/>
+      <c r="G27" s="358"/>
+      <c r="H27" s="358"/>
+      <c r="I27" s="358"/>
+      <c r="J27" s="359"/>
+      <c r="K27" s="359"/>
       <c r="L27" s="31"/>
       <c r="M27" s="31"/>
       <c r="N27" s="31"/>
@@ -9768,16 +9752,16 @@
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="371">
-        <v>0</v>
-      </c>
-      <c r="E28" s="372"/>
-      <c r="F28" s="367"/>
-      <c r="G28" s="367"/>
-      <c r="H28" s="367"/>
-      <c r="I28" s="367"/>
-      <c r="J28" s="368"/>
-      <c r="K28" s="368"/>
+      <c r="D28" s="375">
+        <v>0</v>
+      </c>
+      <c r="E28" s="376"/>
+      <c r="F28" s="358"/>
+      <c r="G28" s="358"/>
+      <c r="H28" s="358"/>
+      <c r="I28" s="358"/>
+      <c r="J28" s="359"/>
+      <c r="K28" s="359"/>
       <c r="L28" s="31"/>
       <c r="M28" s="31"/>
       <c r="N28" s="31"/>
@@ -9796,16 +9780,16 @@
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="371">
-        <v>0</v>
-      </c>
-      <c r="E29" s="372"/>
-      <c r="F29" s="367"/>
-      <c r="G29" s="367"/>
-      <c r="H29" s="367"/>
-      <c r="I29" s="367"/>
-      <c r="J29" s="368"/>
-      <c r="K29" s="368"/>
+      <c r="D29" s="375">
+        <v>0</v>
+      </c>
+      <c r="E29" s="376"/>
+      <c r="F29" s="358"/>
+      <c r="G29" s="358"/>
+      <c r="H29" s="358"/>
+      <c r="I29" s="358"/>
+      <c r="J29" s="359"/>
+      <c r="K29" s="359"/>
       <c r="L29" s="31"/>
       <c r="M29" s="31"/>
       <c r="N29" s="31"/>
@@ -9824,16 +9808,16 @@
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="371">
-        <v>0</v>
-      </c>
-      <c r="E30" s="372"/>
-      <c r="F30" s="367"/>
-      <c r="G30" s="367"/>
-      <c r="H30" s="367"/>
-      <c r="I30" s="367"/>
-      <c r="J30" s="368"/>
-      <c r="K30" s="368"/>
+      <c r="D30" s="375">
+        <v>0</v>
+      </c>
+      <c r="E30" s="376"/>
+      <c r="F30" s="358"/>
+      <c r="G30" s="358"/>
+      <c r="H30" s="358"/>
+      <c r="I30" s="358"/>
+      <c r="J30" s="359"/>
+      <c r="K30" s="359"/>
       <c r="L30" s="31"/>
       <c r="M30" s="31"/>
       <c r="N30" s="31"/>
@@ -9852,16 +9836,16 @@
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="371">
-        <v>0</v>
-      </c>
-      <c r="E31" s="372"/>
-      <c r="F31" s="367"/>
-      <c r="G31" s="367"/>
-      <c r="H31" s="367"/>
-      <c r="I31" s="367"/>
-      <c r="J31" s="368"/>
-      <c r="K31" s="368"/>
+      <c r="D31" s="375">
+        <v>0</v>
+      </c>
+      <c r="E31" s="376"/>
+      <c r="F31" s="358"/>
+      <c r="G31" s="358"/>
+      <c r="H31" s="358"/>
+      <c r="I31" s="358"/>
+      <c r="J31" s="359"/>
+      <c r="K31" s="359"/>
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
       <c r="N31" s="31"/>
@@ -9880,16 +9864,16 @@
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="371">
-        <v>0</v>
-      </c>
-      <c r="E32" s="372"/>
-      <c r="F32" s="367"/>
-      <c r="G32" s="367"/>
-      <c r="H32" s="367"/>
-      <c r="I32" s="367"/>
-      <c r="J32" s="368"/>
-      <c r="K32" s="368"/>
+      <c r="D32" s="375">
+        <v>0</v>
+      </c>
+      <c r="E32" s="376"/>
+      <c r="F32" s="358"/>
+      <c r="G32" s="358"/>
+      <c r="H32" s="358"/>
+      <c r="I32" s="358"/>
+      <c r="J32" s="359"/>
+      <c r="K32" s="359"/>
       <c r="L32" s="31"/>
       <c r="M32" s="31"/>
       <c r="N32" s="31"/>
@@ -9908,16 +9892,16 @@
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="371">
-        <v>0</v>
-      </c>
-      <c r="E33" s="372"/>
-      <c r="F33" s="367"/>
-      <c r="G33" s="367"/>
-      <c r="H33" s="367"/>
-      <c r="I33" s="367"/>
-      <c r="J33" s="368"/>
-      <c r="K33" s="368"/>
+      <c r="D33" s="375">
+        <v>0</v>
+      </c>
+      <c r="E33" s="376"/>
+      <c r="F33" s="358"/>
+      <c r="G33" s="358"/>
+      <c r="H33" s="358"/>
+      <c r="I33" s="358"/>
+      <c r="J33" s="359"/>
+      <c r="K33" s="359"/>
       <c r="L33" s="31"/>
       <c r="M33" s="31"/>
       <c r="N33" s="31"/>
@@ -9936,16 +9920,16 @@
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="371">
-        <v>0</v>
-      </c>
-      <c r="E34" s="372"/>
-      <c r="F34" s="367"/>
-      <c r="G34" s="367"/>
-      <c r="H34" s="367"/>
-      <c r="I34" s="367"/>
-      <c r="J34" s="368"/>
-      <c r="K34" s="368"/>
+      <c r="D34" s="375">
+        <v>0</v>
+      </c>
+      <c r="E34" s="376"/>
+      <c r="F34" s="358"/>
+      <c r="G34" s="358"/>
+      <c r="H34" s="358"/>
+      <c r="I34" s="358"/>
+      <c r="J34" s="359"/>
+      <c r="K34" s="359"/>
       <c r="L34" s="31"/>
       <c r="M34" s="31"/>
       <c r="N34" s="31"/>
@@ -9964,16 +9948,16 @@
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="371">
-        <v>0</v>
-      </c>
-      <c r="E35" s="372"/>
-      <c r="F35" s="367"/>
-      <c r="G35" s="367"/>
-      <c r="H35" s="367"/>
-      <c r="I35" s="367"/>
-      <c r="J35" s="368"/>
-      <c r="K35" s="368"/>
+      <c r="D35" s="375">
+        <v>0</v>
+      </c>
+      <c r="E35" s="376"/>
+      <c r="F35" s="358"/>
+      <c r="G35" s="358"/>
+      <c r="H35" s="358"/>
+      <c r="I35" s="358"/>
+      <c r="J35" s="359"/>
+      <c r="K35" s="359"/>
       <c r="L35" s="31"/>
       <c r="M35" s="31"/>
       <c r="N35" s="31"/>
@@ -9992,16 +9976,16 @@
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="371">
-        <v>0</v>
-      </c>
-      <c r="E36" s="372"/>
-      <c r="F36" s="367"/>
-      <c r="G36" s="367"/>
-      <c r="H36" s="367"/>
-      <c r="I36" s="367"/>
-      <c r="J36" s="368"/>
-      <c r="K36" s="368"/>
+      <c r="D36" s="375">
+        <v>0</v>
+      </c>
+      <c r="E36" s="376"/>
+      <c r="F36" s="358"/>
+      <c r="G36" s="358"/>
+      <c r="H36" s="358"/>
+      <c r="I36" s="358"/>
+      <c r="J36" s="359"/>
+      <c r="K36" s="359"/>
       <c r="L36" s="31"/>
       <c r="M36" s="31"/>
       <c r="N36" s="31"/>
@@ -10020,16 +10004,16 @@
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="371">
-        <v>0</v>
-      </c>
-      <c r="E37" s="372"/>
-      <c r="F37" s="367"/>
-      <c r="G37" s="367"/>
-      <c r="H37" s="367"/>
-      <c r="I37" s="367"/>
-      <c r="J37" s="368"/>
-      <c r="K37" s="368"/>
+      <c r="D37" s="375">
+        <v>0</v>
+      </c>
+      <c r="E37" s="376"/>
+      <c r="F37" s="358"/>
+      <c r="G37" s="358"/>
+      <c r="H37" s="358"/>
+      <c r="I37" s="358"/>
+      <c r="J37" s="359"/>
+      <c r="K37" s="359"/>
       <c r="L37" s="31"/>
       <c r="M37" s="31"/>
       <c r="N37" s="31"/>
@@ -10048,16 +10032,16 @@
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="365">
-        <v>0</v>
-      </c>
-      <c r="E38" s="366"/>
-      <c r="F38" s="367"/>
-      <c r="G38" s="367"/>
-      <c r="H38" s="367"/>
-      <c r="I38" s="367"/>
-      <c r="J38" s="368"/>
-      <c r="K38" s="368"/>
+      <c r="D38" s="378">
+        <v>0</v>
+      </c>
+      <c r="E38" s="379"/>
+      <c r="F38" s="358"/>
+      <c r="G38" s="358"/>
+      <c r="H38" s="358"/>
+      <c r="I38" s="358"/>
+      <c r="J38" s="359"/>
+      <c r="K38" s="359"/>
       <c r="L38" s="31"/>
       <c r="M38" s="31"/>
       <c r="N38" s="31"/>
@@ -10069,21 +10053,21 @@
       <c r="C39" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="369">
+      <c r="D39" s="380">
         <f>AVERAGE(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="370"/>
-      <c r="F39" s="363"/>
-      <c r="G39" s="363"/>
-      <c r="H39" s="363"/>
-      <c r="I39" s="363"/>
-      <c r="J39" s="364"/>
-      <c r="K39" s="364"/>
-      <c r="L39" s="359"/>
-      <c r="M39" s="359"/>
-      <c r="N39" s="359"/>
-      <c r="O39" s="360"/>
+      <c r="E39" s="381"/>
+      <c r="F39" s="382"/>
+      <c r="G39" s="382"/>
+      <c r="H39" s="382"/>
+      <c r="I39" s="382"/>
+      <c r="J39" s="383"/>
+      <c r="K39" s="383"/>
+      <c r="L39" s="390"/>
+      <c r="M39" s="390"/>
+      <c r="N39" s="390"/>
+      <c r="O39" s="391"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1">
       <c r="A40" s="5"/>
@@ -10091,21 +10075,21 @@
       <c r="C40" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="361">
+      <c r="D40" s="392">
         <f>MIN(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="362"/>
-      <c r="F40" s="363"/>
-      <c r="G40" s="363"/>
-      <c r="H40" s="363"/>
-      <c r="I40" s="363"/>
-      <c r="J40" s="364"/>
-      <c r="K40" s="364"/>
-      <c r="L40" s="359"/>
-      <c r="M40" s="359"/>
-      <c r="N40" s="359"/>
-      <c r="O40" s="360"/>
+      <c r="E40" s="393"/>
+      <c r="F40" s="382"/>
+      <c r="G40" s="382"/>
+      <c r="H40" s="382"/>
+      <c r="I40" s="382"/>
+      <c r="J40" s="383"/>
+      <c r="K40" s="383"/>
+      <c r="L40" s="390"/>
+      <c r="M40" s="390"/>
+      <c r="N40" s="390"/>
+      <c r="O40" s="391"/>
     </row>
     <row r="41" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="8"/>
@@ -10113,32 +10097,32 @@
       <c r="C41" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="353">
+      <c r="D41" s="384">
         <f>MAX(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="354"/>
-      <c r="F41" s="355"/>
-      <c r="G41" s="355"/>
-      <c r="H41" s="355"/>
-      <c r="I41" s="355"/>
-      <c r="J41" s="356"/>
-      <c r="K41" s="356"/>
-      <c r="L41" s="357"/>
-      <c r="M41" s="357"/>
-      <c r="N41" s="357"/>
-      <c r="O41" s="358"/>
+      <c r="E41" s="385"/>
+      <c r="F41" s="386"/>
+      <c r="G41" s="386"/>
+      <c r="H41" s="386"/>
+      <c r="I41" s="386"/>
+      <c r="J41" s="387"/>
+      <c r="K41" s="387"/>
+      <c r="L41" s="388"/>
+      <c r="M41" s="388"/>
+      <c r="N41" s="388"/>
+      <c r="O41" s="389"/>
     </row>
     <row r="42" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="166"/>
-      <c r="C42" s="166"/>
-      <c r="D42" s="167" t="s">
+      <c r="B42" s="236"/>
+      <c r="C42" s="236"/>
+      <c r="D42" s="237" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="167"/>
+      <c r="E42" s="237"/>
       <c r="F42" s="36"/>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
@@ -10147,16 +10131,16 @@
       <c r="L42" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="M42" s="151"/>
-      <c r="N42" s="151"/>
+      <c r="M42" s="224"/>
+      <c r="N42" s="224"/>
       <c r="O42" s="35" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="35"/>
-      <c r="B43" s="146"/>
-      <c r="C43" s="146"/>
+      <c r="B43" s="219"/>
+      <c r="C43" s="219"/>
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="35"/>
@@ -10166,37 +10150,37 @@
       <c r="J43" s="37"/>
       <c r="K43" s="33"/>
       <c r="L43" s="37"/>
-      <c r="M43" s="152"/>
-      <c r="N43" s="152"/>
+      <c r="M43" s="225"/>
+      <c r="N43" s="225"/>
       <c r="O43" s="33"/>
     </row>
     <row r="44" spans="1:15" s="38" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="147" t="s">
+      <c r="A44" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="147"/>
-      <c r="C44" s="147"/>
+      <c r="B44" s="220"/>
+      <c r="C44" s="220"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
       <c r="G44" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H44" s="147" t="s">
+      <c r="H44" s="220" t="s">
         <v>47</v>
       </c>
-      <c r="I44" s="147"/>
-      <c r="J44" s="147"/>
+      <c r="I44" s="220"/>
+      <c r="J44" s="220"/>
       <c r="K44" s="37"/>
       <c r="L44" s="37"/>
       <c r="M44" s="37"/>
       <c r="N44" s="37"/>
     </row>
     <row r="45" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="147" t="s">
+      <c r="A45" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="147"/>
+      <c r="B45" s="220"/>
       <c r="C45" s="35"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
@@ -10207,33 +10191,147 @@
       <c r="J45" s="37"/>
       <c r="K45" s="37"/>
       <c r="L45" s="37"/>
-      <c r="M45" s="148" t="s">
+      <c r="M45" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="N45" s="148"/>
+      <c r="N45" s="221"/>
       <c r="O45" s="37"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="166">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J7:K8"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
@@ -10250,138 +10348,24 @@
     <mergeCell ref="D7:E8"/>
     <mergeCell ref="F7:G8"/>
     <mergeCell ref="H7:I8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
   </mergeCells>
   <conditionalFormatting sqref="F9:F38 F39:G41">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="notBetween">
@@ -12206,7 +12190,7 @@
   <dimension ref="A1:AT125"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="AP29" sqref="AP29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -15021,11 +15005,11 @@
         <f>(I17-AO17)/(3*AP17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR17" s="131" t="e">
+      <c r="AR17" s="128" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS17" s="131" t="e">
+      <c r="AS17" s="128" t="e">
         <f>MAX(K17:AN17)</f>
         <v>#DIV/0!</v>
       </c>

--- a/backend/templates/168-16c-white.xlsx
+++ b/backend/templates/168-16c-white.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAEBEDA-F4CB-4AC1-8BE0-04A6B5BCDB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BED6CD-D1AA-4BEA-ABD6-9B983DB86C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1473,7 +1473,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="389">
+  <cellXfs count="390">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1937,6 +1937,258 @@
     <xf numFmtId="166" fontId="17" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1964,13 +2216,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1994,9 +2240,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2006,258 +2249,88 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2303,12 +2376,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2335,72 +2402,11 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2411,86 +2417,107 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2508,6 +2535,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2524,149 +2557,169 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2676,99 +2729,50 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2776,21 +2780,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF008E40"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill>
@@ -3316,7 +3306,7 @@
   <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:F11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3327,671 +3317,671 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="217"/>
       <c r="M1" s="57"/>
-      <c r="N1" s="158" t="s">
+      <c r="N1" s="229" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="158"/>
+      <c r="O1" s="229"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
+      <c r="B2" s="221"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
       <c r="M2" s="58"/>
-      <c r="N2" s="159" t="s">
+      <c r="N2" s="230" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="159"/>
+      <c r="O2" s="230"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="149"/>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
+      <c r="A3" s="222"/>
+      <c r="B3" s="222"/>
+      <c r="C3" s="222"/>
+      <c r="D3" s="222"/>
+      <c r="E3" s="222"/>
+      <c r="F3" s="222"/>
+      <c r="G3" s="222"/>
+      <c r="H3" s="222"/>
+      <c r="I3" s="222"/>
+      <c r="J3" s="222"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="222"/>
       <c r="M3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="160"/>
-      <c r="O3" s="160"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="199"/>
     </row>
     <row r="4" spans="1:15" s="61" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="154" t="s">
+      <c r="B4" s="210"/>
+      <c r="C4" s="233"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="225" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="155"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="164"/>
+      <c r="F4" s="226"/>
+      <c r="G4" s="210"/>
+      <c r="H4" s="211"/>
       <c r="I4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="150"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="154" t="s">
+      <c r="J4" s="210"/>
+      <c r="K4" s="211"/>
+      <c r="L4" s="225" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="155"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="151"/>
+      <c r="M4" s="226"/>
+      <c r="N4" s="210"/>
+      <c r="O4" s="223"/>
     </row>
     <row r="5" spans="1:15" s="61" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="152"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="156" t="s">
+      <c r="B5" s="208"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="209"/>
+      <c r="E5" s="227" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="157"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="166"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="209"/>
       <c r="I5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="167"/>
-      <c r="K5" s="168"/>
-      <c r="L5" s="156" t="s">
+      <c r="J5" s="212"/>
+      <c r="K5" s="213"/>
+      <c r="L5" s="227" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="157"/>
-      <c r="N5" s="152"/>
-      <c r="O5" s="153"/>
+      <c r="M5" s="228"/>
+      <c r="N5" s="208"/>
+      <c r="O5" s="224"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="190"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="189"/>
-      <c r="K6" s="189"/>
-      <c r="L6" s="189"/>
-      <c r="M6" s="190"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="192"/>
+      <c r="B6" s="197"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="198"/>
+      <c r="H6" s="199"/>
+      <c r="I6" s="200"/>
+      <c r="J6" s="197"/>
+      <c r="K6" s="197"/>
+      <c r="L6" s="197"/>
+      <c r="M6" s="198"/>
+      <c r="N6" s="199"/>
+      <c r="O6" s="201"/>
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A7" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="196"/>
-      <c r="C7" s="196"/>
-      <c r="D7" s="193" t="s">
+      <c r="A7" s="206" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="205"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="202" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="194"/>
-      <c r="F7" s="195"/>
-      <c r="G7" s="193" t="s">
+      <c r="E7" s="203"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="202" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="194"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="196" t="s">
+      <c r="H7" s="203"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="205" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="196"/>
-      <c r="L7" s="196"/>
-      <c r="M7" s="193" t="s">
+      <c r="K7" s="205"/>
+      <c r="L7" s="205"/>
+      <c r="M7" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="194"/>
-      <c r="O7" s="198"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="207"/>
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1">
       <c r="A8" s="42"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="170"/>
-      <c r="L8" s="171"/>
-      <c r="M8" s="172"/>
-      <c r="N8" s="173"/>
-      <c r="O8" s="174"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="141"/>
+      <c r="N8" s="142"/>
+      <c r="O8" s="150"/>
     </row>
     <row r="9" spans="1:15" ht="19.5" customHeight="1">
       <c r="A9" s="42"/>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="183"/>
-      <c r="I9" s="184"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="181"/>
-      <c r="M9" s="185"/>
-      <c r="N9" s="186"/>
-      <c r="O9" s="199"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="154"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="156"/>
+      <c r="M9" s="151"/>
+      <c r="N9" s="152"/>
+      <c r="O9" s="153"/>
     </row>
     <row r="10" spans="1:15" ht="19.5" customHeight="1">
       <c r="A10" s="42"/>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="169"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="171"/>
-      <c r="M10" s="172"/>
-      <c r="N10" s="173"/>
-      <c r="O10" s="174"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="148"/>
+      <c r="L10" s="149"/>
+      <c r="M10" s="141"/>
+      <c r="N10" s="142"/>
+      <c r="O10" s="150"/>
     </row>
     <row r="11" spans="1:15" ht="19.5" customHeight="1">
       <c r="A11" s="44"/>
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="173"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="169"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="171"/>
-      <c r="M11" s="172"/>
-      <c r="N11" s="173"/>
-      <c r="O11" s="174"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="147"/>
+      <c r="K11" s="148"/>
+      <c r="L11" s="149"/>
+      <c r="M11" s="141"/>
+      <c r="N11" s="142"/>
+      <c r="O11" s="150"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" customHeight="1">
       <c r="A12" s="45"/>
       <c r="B12" s="46"/>
       <c r="C12" s="46"/>
-      <c r="D12" s="185"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="183"/>
-      <c r="I12" s="184"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="180"/>
-      <c r="L12" s="181"/>
-      <c r="M12" s="185"/>
-      <c r="N12" s="186"/>
-      <c r="O12" s="199"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="153"/>
     </row>
     <row r="13" spans="1:15" ht="19.5" customHeight="1">
       <c r="A13" s="42"/>
       <c r="B13" s="43"/>
       <c r="C13" s="43"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="169"/>
-      <c r="K13" s="170"/>
-      <c r="L13" s="171"/>
-      <c r="M13" s="172"/>
-      <c r="N13" s="173"/>
-      <c r="O13" s="174"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="148"/>
+      <c r="L13" s="149"/>
+      <c r="M13" s="141"/>
+      <c r="N13" s="142"/>
+      <c r="O13" s="150"/>
     </row>
     <row r="14" spans="1:15" ht="19.5" customHeight="1">
       <c r="A14" s="42"/>
       <c r="B14" s="43"/>
       <c r="C14" s="43"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="169"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="171"/>
-      <c r="M14" s="172"/>
-      <c r="N14" s="173"/>
-      <c r="O14" s="174"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="149"/>
+      <c r="M14" s="141"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="150"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" customHeight="1">
       <c r="A15" s="42"/>
       <c r="B15" s="43"/>
       <c r="C15" s="43"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="169"/>
-      <c r="K15" s="170"/>
-      <c r="L15" s="171"/>
-      <c r="M15" s="172"/>
-      <c r="N15" s="173"/>
-      <c r="O15" s="174"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="148"/>
+      <c r="L15" s="149"/>
+      <c r="M15" s="141"/>
+      <c r="N15" s="142"/>
+      <c r="O15" s="150"/>
     </row>
     <row r="16" spans="1:15" ht="19.5" customHeight="1">
       <c r="A16" s="42"/>
       <c r="B16" s="43"/>
       <c r="C16" s="43"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="184"/>
-      <c r="J16" s="179"/>
-      <c r="K16" s="180"/>
-      <c r="L16" s="181"/>
-      <c r="M16" s="185"/>
-      <c r="N16" s="186"/>
-      <c r="O16" s="199"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="156"/>
+      <c r="M16" s="151"/>
+      <c r="N16" s="152"/>
+      <c r="O16" s="153"/>
     </row>
     <row r="17" spans="1:15" ht="19.5" customHeight="1">
       <c r="A17" s="42"/>
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="175"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="169"/>
-      <c r="K17" s="170"/>
-      <c r="L17" s="171"/>
-      <c r="M17" s="172"/>
-      <c r="N17" s="173"/>
-      <c r="O17" s="174"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="148"/>
+      <c r="L17" s="149"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="142"/>
+      <c r="O17" s="150"/>
     </row>
     <row r="18" spans="1:15" ht="19.5" customHeight="1">
       <c r="A18" s="42"/>
       <c r="B18" s="43"/>
       <c r="C18" s="43"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="175"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="169"/>
-      <c r="K18" s="170"/>
-      <c r="L18" s="171"/>
-      <c r="M18" s="172"/>
-      <c r="N18" s="173"/>
-      <c r="O18" s="174"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="141"/>
+      <c r="N18" s="142"/>
+      <c r="O18" s="150"/>
     </row>
     <row r="19" spans="1:15" ht="19.5" customHeight="1">
       <c r="A19" s="42"/>
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
-      <c r="D19" s="185"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="182"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="184"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="180"/>
-      <c r="L19" s="181"/>
-      <c r="M19" s="185"/>
-      <c r="N19" s="186"/>
-      <c r="O19" s="199"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="156"/>
+      <c r="M19" s="151"/>
+      <c r="N19" s="152"/>
+      <c r="O19" s="153"/>
     </row>
     <row r="20" spans="1:15" ht="19.5" customHeight="1">
       <c r="A20" s="42"/>
       <c r="B20" s="43"/>
       <c r="C20" s="43"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="175"/>
-      <c r="G20" s="176"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="169"/>
-      <c r="K20" s="170"/>
-      <c r="L20" s="171"/>
-      <c r="M20" s="172"/>
-      <c r="N20" s="173"/>
-      <c r="O20" s="174"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="149"/>
+      <c r="M20" s="141"/>
+      <c r="N20" s="142"/>
+      <c r="O20" s="150"/>
     </row>
     <row r="21" spans="1:15" ht="19.5" customHeight="1">
       <c r="A21" s="42"/>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
-      <c r="D21" s="172"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="175"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="169"/>
-      <c r="K21" s="170"/>
-      <c r="L21" s="171"/>
-      <c r="M21" s="172"/>
-      <c r="N21" s="173"/>
-      <c r="O21" s="174"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="147"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="149"/>
+      <c r="M21" s="141"/>
+      <c r="N21" s="142"/>
+      <c r="O21" s="150"/>
     </row>
     <row r="22" spans="1:15" ht="19.5" customHeight="1">
       <c r="A22" s="42"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="186"/>
-      <c r="F22" s="187"/>
-      <c r="G22" s="182"/>
-      <c r="H22" s="183"/>
-      <c r="I22" s="184"/>
-      <c r="J22" s="179"/>
-      <c r="K22" s="180"/>
-      <c r="L22" s="181"/>
-      <c r="M22" s="185"/>
-      <c r="N22" s="186"/>
-      <c r="O22" s="199"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="156"/>
+      <c r="M22" s="151"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="153"/>
     </row>
     <row r="23" spans="1:15" ht="19.5" customHeight="1">
       <c r="A23" s="42"/>
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
-      <c r="D23" s="172"/>
-      <c r="E23" s="173"/>
-      <c r="F23" s="175"/>
-      <c r="G23" s="176"/>
-      <c r="H23" s="177"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="169"/>
-      <c r="K23" s="170"/>
-      <c r="L23" s="171"/>
-      <c r="M23" s="172"/>
-      <c r="N23" s="173"/>
-      <c r="O23" s="174"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="147"/>
+      <c r="K23" s="148"/>
+      <c r="L23" s="149"/>
+      <c r="M23" s="141"/>
+      <c r="N23" s="142"/>
+      <c r="O23" s="150"/>
     </row>
     <row r="24" spans="1:15" ht="19.5" customHeight="1">
       <c r="A24" s="44"/>
       <c r="B24" s="43"/>
       <c r="C24" s="43"/>
-      <c r="D24" s="172"/>
-      <c r="E24" s="173"/>
-      <c r="F24" s="175"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="177"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="169"/>
-      <c r="K24" s="170"/>
-      <c r="L24" s="171"/>
-      <c r="M24" s="172"/>
-      <c r="N24" s="173"/>
-      <c r="O24" s="174"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="147"/>
+      <c r="K24" s="148"/>
+      <c r="L24" s="149"/>
+      <c r="M24" s="141"/>
+      <c r="N24" s="142"/>
+      <c r="O24" s="150"/>
     </row>
     <row r="25" spans="1:15" ht="19.5" customHeight="1">
       <c r="A25" s="45"/>
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
-      <c r="D25" s="185"/>
-      <c r="E25" s="186"/>
-      <c r="F25" s="187"/>
-      <c r="G25" s="182"/>
-      <c r="H25" s="183"/>
-      <c r="I25" s="184"/>
-      <c r="J25" s="179"/>
-      <c r="K25" s="180"/>
-      <c r="L25" s="181"/>
-      <c r="M25" s="185"/>
-      <c r="N25" s="186"/>
-      <c r="O25" s="199"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="154"/>
+      <c r="K25" s="155"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="151"/>
+      <c r="N25" s="152"/>
+      <c r="O25" s="153"/>
     </row>
     <row r="26" spans="1:15" ht="19.5" customHeight="1">
       <c r="A26" s="42"/>
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="175"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="169"/>
-      <c r="K26" s="170"/>
-      <c r="L26" s="171"/>
-      <c r="M26" s="172"/>
-      <c r="N26" s="173"/>
-      <c r="O26" s="174"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="147"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="141"/>
+      <c r="N26" s="142"/>
+      <c r="O26" s="150"/>
     </row>
     <row r="27" spans="1:15" ht="19.5" customHeight="1">
       <c r="A27" s="42"/>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
-      <c r="D27" s="172"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="175"/>
-      <c r="G27" s="176"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="169"/>
-      <c r="K27" s="170"/>
-      <c r="L27" s="171"/>
-      <c r="M27" s="172"/>
-      <c r="N27" s="173"/>
-      <c r="O27" s="174"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="147"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="141"/>
+      <c r="N27" s="142"/>
+      <c r="O27" s="150"/>
     </row>
     <row r="28" spans="1:15" ht="19.5" customHeight="1">
       <c r="A28" s="42"/>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="177"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="169"/>
-      <c r="K28" s="170"/>
-      <c r="L28" s="171"/>
-      <c r="M28" s="172"/>
-      <c r="N28" s="173"/>
-      <c r="O28" s="174"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="142"/>
+      <c r="O28" s="150"/>
     </row>
     <row r="29" spans="1:15" ht="19.5" customHeight="1">
       <c r="A29" s="42"/>
       <c r="B29" s="43"/>
       <c r="C29" s="43"/>
-      <c r="D29" s="185"/>
-      <c r="E29" s="186"/>
-      <c r="F29" s="187"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="183"/>
-      <c r="I29" s="184"/>
-      <c r="J29" s="179"/>
-      <c r="K29" s="180"/>
-      <c r="L29" s="181"/>
-      <c r="M29" s="185"/>
-      <c r="N29" s="186"/>
-      <c r="O29" s="199"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="156"/>
+      <c r="M29" s="151"/>
+      <c r="N29" s="152"/>
+      <c r="O29" s="153"/>
     </row>
     <row r="30" spans="1:15" ht="19.5" customHeight="1">
       <c r="A30" s="42"/>
       <c r="B30" s="43"/>
       <c r="C30" s="43"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="176"/>
-      <c r="H30" s="177"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="169"/>
-      <c r="K30" s="170"/>
-      <c r="L30" s="171"/>
-      <c r="M30" s="172"/>
-      <c r="N30" s="173"/>
-      <c r="O30" s="174"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="141"/>
+      <c r="N30" s="142"/>
+      <c r="O30" s="150"/>
     </row>
     <row r="31" spans="1:15" ht="19.5" customHeight="1">
       <c r="A31" s="42"/>
       <c r="B31" s="43"/>
       <c r="C31" s="43"/>
-      <c r="D31" s="172"/>
-      <c r="E31" s="173"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="176"/>
-      <c r="H31" s="177"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="169"/>
-      <c r="K31" s="170"/>
-      <c r="L31" s="171"/>
-      <c r="M31" s="172"/>
-      <c r="N31" s="173"/>
-      <c r="O31" s="174"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="147"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="141"/>
+      <c r="N31" s="142"/>
+      <c r="O31" s="150"/>
     </row>
     <row r="32" spans="1:15" ht="19.5" customHeight="1">
       <c r="A32" s="42"/>
       <c r="B32" s="43"/>
       <c r="C32" s="43"/>
-      <c r="D32" s="185"/>
-      <c r="E32" s="186"/>
-      <c r="F32" s="187"/>
-      <c r="G32" s="182"/>
-      <c r="H32" s="183"/>
-      <c r="I32" s="184"/>
-      <c r="J32" s="179"/>
-      <c r="K32" s="180"/>
-      <c r="L32" s="181"/>
-      <c r="M32" s="185"/>
-      <c r="N32" s="186"/>
-      <c r="O32" s="199"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="158"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="154"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="156"/>
+      <c r="M32" s="151"/>
+      <c r="N32" s="152"/>
+      <c r="O32" s="153"/>
     </row>
     <row r="33" spans="1:15" ht="19.5" customHeight="1">
       <c r="A33" s="42"/>
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
-      <c r="D33" s="172"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="175"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="177"/>
-      <c r="I33" s="178"/>
-      <c r="J33" s="169"/>
-      <c r="K33" s="170"/>
-      <c r="L33" s="171"/>
-      <c r="M33" s="172"/>
-      <c r="N33" s="173"/>
-      <c r="O33" s="174"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="143"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="147"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="141"/>
+      <c r="N33" s="142"/>
+      <c r="O33" s="150"/>
     </row>
     <row r="34" spans="1:15" ht="19.5" customHeight="1">
       <c r="A34" s="42"/>
       <c r="B34" s="43"/>
       <c r="C34" s="43"/>
-      <c r="D34" s="172"/>
-      <c r="E34" s="173"/>
-      <c r="F34" s="175"/>
-      <c r="G34" s="176"/>
-      <c r="H34" s="177"/>
-      <c r="I34" s="178"/>
-      <c r="J34" s="169"/>
-      <c r="K34" s="170"/>
-      <c r="L34" s="171"/>
-      <c r="M34" s="172"/>
-      <c r="N34" s="173"/>
-      <c r="O34" s="174"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="144"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="146"/>
+      <c r="J34" s="147"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="141"/>
+      <c r="N34" s="142"/>
+      <c r="O34" s="150"/>
     </row>
     <row r="35" spans="1:15" ht="19.5" customHeight="1">
       <c r="A35" s="42"/>
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
-      <c r="D35" s="185"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="187"/>
-      <c r="G35" s="182"/>
-      <c r="H35" s="183"/>
-      <c r="I35" s="184"/>
-      <c r="J35" s="179"/>
-      <c r="K35" s="180"/>
-      <c r="L35" s="181"/>
-      <c r="M35" s="185"/>
-      <c r="N35" s="186"/>
-      <c r="O35" s="199"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="158"/>
+      <c r="I35" s="159"/>
+      <c r="J35" s="154"/>
+      <c r="K35" s="155"/>
+      <c r="L35" s="156"/>
+      <c r="M35" s="151"/>
+      <c r="N35" s="152"/>
+      <c r="O35" s="153"/>
     </row>
     <row r="36" spans="1:15" ht="19.5" customHeight="1">
       <c r="A36" s="42"/>
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
-      <c r="D36" s="172"/>
-      <c r="E36" s="173"/>
-      <c r="F36" s="175"/>
-      <c r="G36" s="176"/>
-      <c r="H36" s="177"/>
-      <c r="I36" s="178"/>
-      <c r="J36" s="169"/>
-      <c r="K36" s="170"/>
-      <c r="L36" s="171"/>
-      <c r="M36" s="172"/>
-      <c r="N36" s="173"/>
-      <c r="O36" s="174"/>
+      <c r="D36" s="141"/>
+      <c r="E36" s="142"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="144"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="146"/>
+      <c r="J36" s="147"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="141"/>
+      <c r="N36" s="142"/>
+      <c r="O36" s="150"/>
     </row>
     <row r="37" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A37" s="42"/>
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
-      <c r="D37" s="231"/>
-      <c r="E37" s="232"/>
-      <c r="F37" s="234"/>
-      <c r="G37" s="225"/>
-      <c r="H37" s="226"/>
-      <c r="I37" s="227"/>
-      <c r="J37" s="228"/>
-      <c r="K37" s="229"/>
-      <c r="L37" s="230"/>
-      <c r="M37" s="231"/>
-      <c r="N37" s="232"/>
-      <c r="O37" s="233"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="168"/>
+      <c r="F37" s="170"/>
+      <c r="G37" s="161"/>
+      <c r="H37" s="162"/>
+      <c r="I37" s="163"/>
+      <c r="J37" s="164"/>
+      <c r="K37" s="165"/>
+      <c r="L37" s="166"/>
+      <c r="M37" s="167"/>
+      <c r="N37" s="168"/>
+      <c r="O37" s="169"/>
     </row>
     <row r="38" spans="1:15" ht="19.5" customHeight="1">
       <c r="A38" s="47"/>
@@ -3999,30 +3989,30 @@
       <c r="C38" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="201" t="e">
+      <c r="D38" s="171" t="e">
         <f>AVERAGE(D8:F37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="202"/>
-      <c r="F38" s="203"/>
-      <c r="G38" s="204" t="e">
+      <c r="E38" s="172"/>
+      <c r="F38" s="173"/>
+      <c r="G38" s="174" t="e">
         <f>AVERAGE(G8:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="205"/>
-      <c r="I38" s="206"/>
-      <c r="J38" s="207" t="e">
+      <c r="H38" s="175"/>
+      <c r="I38" s="176"/>
+      <c r="J38" s="177" t="e">
         <f>AVERAGE(J8:L37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="207"/>
-      <c r="L38" s="207"/>
-      <c r="M38" s="201" t="e">
+      <c r="K38" s="177"/>
+      <c r="L38" s="177"/>
+      <c r="M38" s="171" t="e">
         <f>AVERAGE(M8:O37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N38" s="202"/>
-      <c r="O38" s="208"/>
+      <c r="N38" s="172"/>
+      <c r="O38" s="178"/>
     </row>
     <row r="39" spans="1:15" ht="19.5" customHeight="1">
       <c r="A39" s="49"/>
@@ -4030,30 +4020,30 @@
       <c r="C39" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="209">
+      <c r="D39" s="179">
         <f>MIN(D8:F37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="210"/>
-      <c r="F39" s="211"/>
-      <c r="G39" s="212">
+      <c r="E39" s="180"/>
+      <c r="F39" s="181"/>
+      <c r="G39" s="182">
         <f>MIN(G8:I37)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="213"/>
-      <c r="I39" s="214"/>
-      <c r="J39" s="215">
+      <c r="H39" s="183"/>
+      <c r="I39" s="184"/>
+      <c r="J39" s="185">
         <f>MIN(J8:L37)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="215"/>
-      <c r="L39" s="215"/>
-      <c r="M39" s="209">
+      <c r="K39" s="185"/>
+      <c r="L39" s="185"/>
+      <c r="M39" s="179">
         <f>MIN(M8:O37)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="210"/>
-      <c r="O39" s="216"/>
+      <c r="N39" s="180"/>
+      <c r="O39" s="186"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A40" s="52"/>
@@ -4061,60 +4051,60 @@
       <c r="C40" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="217">
+      <c r="D40" s="187">
         <f>MAX(D8:F37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="218"/>
-      <c r="F40" s="219"/>
-      <c r="G40" s="220">
+      <c r="E40" s="188"/>
+      <c r="F40" s="189"/>
+      <c r="G40" s="190">
         <f>MAX(G8:I37)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="221"/>
-      <c r="I40" s="222"/>
-      <c r="J40" s="223">
+      <c r="H40" s="191"/>
+      <c r="I40" s="192"/>
+      <c r="J40" s="193">
         <f>MAX(J8:L37)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="223"/>
-      <c r="L40" s="223"/>
-      <c r="M40" s="217">
+      <c r="K40" s="193"/>
+      <c r="L40" s="193"/>
+      <c r="M40" s="187">
         <f>MAX(M8:O37)</f>
         <v>0</v>
       </c>
-      <c r="N40" s="218"/>
-      <c r="O40" s="224"/>
+      <c r="N40" s="188"/>
+      <c r="O40" s="194"/>
     </row>
     <row r="41" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A41" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="161"/>
-      <c r="C41" s="161"/>
-      <c r="D41" s="162" t="s">
+      <c r="B41" s="231"/>
+      <c r="C41" s="231"/>
+      <c r="D41" s="232" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="162"/>
+      <c r="E41" s="232"/>
       <c r="F41" s="36"/>
       <c r="G41" s="37"/>
       <c r="H41" s="37"/>
       <c r="I41" s="37"/>
-      <c r="J41" s="145" t="s">
+      <c r="J41" s="218" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="145"/>
-      <c r="L41" s="146"/>
-      <c r="M41" s="146"/>
-      <c r="N41" s="146"/>
+      <c r="K41" s="218"/>
+      <c r="L41" s="219"/>
+      <c r="M41" s="219"/>
+      <c r="N41" s="219"/>
       <c r="O41" s="33" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="35"/>
-      <c r="B42" s="141"/>
-      <c r="C42" s="141"/>
+      <c r="B42" s="214"/>
+      <c r="C42" s="214"/>
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="35"/>
@@ -4123,39 +4113,39 @@
       <c r="I42" s="37"/>
       <c r="J42" s="37"/>
       <c r="K42" s="33"/>
-      <c r="L42" s="147"/>
-      <c r="M42" s="147"/>
-      <c r="N42" s="147"/>
+      <c r="L42" s="220"/>
+      <c r="M42" s="220"/>
+      <c r="N42" s="220"/>
       <c r="O42" s="33"/>
     </row>
     <row r="43" spans="1:15" s="38" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A43" s="142" t="s">
+      <c r="A43" s="215" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="142"/>
-      <c r="C43" s="142"/>
+      <c r="B43" s="215"/>
+      <c r="C43" s="215"/>
       <c r="D43" s="37"/>
       <c r="E43" s="37"/>
       <c r="F43" s="37"/>
       <c r="G43" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="142" t="s">
+      <c r="H43" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="I43" s="142"/>
-      <c r="J43" s="142"/>
-      <c r="K43" s="142"/>
+      <c r="I43" s="215"/>
+      <c r="J43" s="215"/>
+      <c r="K43" s="215"/>
       <c r="L43" s="37"/>
       <c r="M43" s="37"/>
       <c r="N43" s="37"/>
       <c r="O43" s="37"/>
     </row>
     <row r="44" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="142" t="s">
+      <c r="A44" s="215" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="142"/>
+      <c r="B44" s="215"/>
       <c r="C44" s="35"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
@@ -4166,10 +4156,10 @@
       <c r="J44" s="37"/>
       <c r="K44" s="37"/>
       <c r="L44" s="37"/>
-      <c r="M44" s="143" t="s">
+      <c r="M44" s="216" t="s">
         <v>50</v>
       </c>
-      <c r="N44" s="143"/>
+      <c r="N44" s="216"/>
       <c r="O44" s="37"/>
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1">
@@ -4182,69 +4172,186 @@
       <c r="N51" s="56"/>
     </row>
     <row r="75" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C75" s="200"/>
-      <c r="D75" s="200"/>
+      <c r="C75" s="195"/>
+      <c r="D75" s="195"/>
       <c r="E75" s="41"/>
-      <c r="I75" s="200"/>
-      <c r="J75" s="200"/>
+      <c r="I75" s="195"/>
+      <c r="J75" s="195"/>
       <c r="K75" s="41"/>
-      <c r="L75" s="200"/>
-      <c r="M75" s="200"/>
-      <c r="N75" s="200"/>
-      <c r="O75" s="200"/>
+      <c r="L75" s="195"/>
+      <c r="M75" s="195"/>
+      <c r="N75" s="195"/>
+      <c r="O75" s="195"/>
     </row>
     <row r="76" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C76" s="200"/>
-      <c r="D76" s="200"/>
-      <c r="E76" s="200"/>
-      <c r="F76" s="200"/>
-      <c r="I76" s="200"/>
-      <c r="J76" s="200"/>
+      <c r="C76" s="195"/>
+      <c r="D76" s="195"/>
+      <c r="E76" s="195"/>
+      <c r="F76" s="195"/>
+      <c r="I76" s="195"/>
+      <c r="J76" s="195"/>
       <c r="K76" s="41"/>
-      <c r="L76" s="200"/>
-      <c r="M76" s="200"/>
-      <c r="N76" s="200"/>
-      <c r="O76" s="200"/>
+      <c r="L76" s="195"/>
+      <c r="M76" s="195"/>
+      <c r="N76" s="195"/>
+      <c r="O76" s="195"/>
     </row>
     <row r="77" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C77" s="200"/>
-      <c r="D77" s="200"/>
+      <c r="C77" s="195"/>
+      <c r="D77" s="195"/>
       <c r="E77" s="41"/>
-      <c r="I77" s="200"/>
-      <c r="J77" s="200"/>
+      <c r="I77" s="195"/>
+      <c r="J77" s="195"/>
       <c r="K77" s="41"/>
-      <c r="L77" s="200"/>
-      <c r="M77" s="200"/>
-      <c r="N77" s="200"/>
-      <c r="O77" s="200"/>
+      <c r="L77" s="195"/>
+      <c r="M77" s="195"/>
+      <c r="N77" s="195"/>
+      <c r="O77" s="195"/>
     </row>
     <row r="78" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C78" s="200"/>
-      <c r="D78" s="200"/>
+      <c r="C78" s="195"/>
+      <c r="D78" s="195"/>
       <c r="E78" s="41"/>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
   <mergeCells count="179">
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="A2:L3"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="L75:O75"/>
+    <mergeCell ref="L76:O76"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="J13:L13"/>
     <mergeCell ref="M25:O25"/>
     <mergeCell ref="M17:O17"/>
     <mergeCell ref="G18:I18"/>
@@ -4269,164 +4376,47 @@
     <mergeCell ref="J26:L26"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="J17:L17"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="L75:O75"/>
-    <mergeCell ref="L76:O76"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="A2:L3"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D32:F32"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="D8:F40">
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="notBetween">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="notBetween">
       <formula>14</formula>
       <formula>18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:I40">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="notBetween">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="notBetween">
       <formula>0.025</formula>
       <formula>0.035</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:L40">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="notBetween">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="notBetween">
       <formula>45</formula>
       <formula>55</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:O40">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="notBetween">
       <formula>0.2</formula>
       <formula>0.6</formula>
     </cfRule>
@@ -4461,61 +4451,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="261" t="s">
+      <c r="A1" s="235" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="261"/>
-      <c r="C1" s="261"/>
-      <c r="D1" s="261"/>
-      <c r="E1" s="261"/>
-      <c r="F1" s="261"/>
-      <c r="G1" s="261"/>
-      <c r="H1" s="261"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="261"/>
-      <c r="K1" s="261"/>
-      <c r="L1" s="261"/>
-      <c r="M1" s="261"/>
-      <c r="N1" s="158" t="s">
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="229" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="158"/>
+      <c r="O1" s="229"/>
     </row>
     <row r="2" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="262" t="s">
+      <c r="A2" s="236" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="262"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262"/>
-      <c r="I2" s="262"/>
-      <c r="J2" s="262"/>
-      <c r="K2" s="262"/>
-      <c r="L2" s="262"/>
-      <c r="M2" s="262"/>
-      <c r="N2" s="159" t="s">
+      <c r="B2" s="236"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
+      <c r="K2" s="236"/>
+      <c r="L2" s="236"/>
+      <c r="M2" s="236"/>
+      <c r="N2" s="230" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="159"/>
+      <c r="O2" s="230"/>
     </row>
     <row r="3" spans="1:15" s="63" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="262"/>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="262"/>
-      <c r="E3" s="262"/>
-      <c r="F3" s="262"/>
-      <c r="G3" s="262"/>
-      <c r="H3" s="262"/>
-      <c r="I3" s="262"/>
-      <c r="J3" s="262"/>
-      <c r="K3" s="262"/>
-      <c r="L3" s="262"/>
-      <c r="M3" s="262"/>
+      <c r="A3" s="236"/>
+      <c r="B3" s="236"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="236"/>
+      <c r="M3" s="236"/>
       <c r="N3" s="39" t="s">
         <v>19</v>
       </c>
@@ -4525,124 +4515,124 @@
       <c r="A4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="236">
+      <c r="B4" s="248">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="272"/>
-      <c r="D4" s="273"/>
-      <c r="E4" s="274" t="s">
+      <c r="C4" s="249"/>
+      <c r="D4" s="250"/>
+      <c r="E4" s="251" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="274"/>
-      <c r="G4" s="275">
+      <c r="F4" s="251"/>
+      <c r="G4" s="252">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="275"/>
+      <c r="H4" s="252"/>
       <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="275">
+      <c r="J4" s="252">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="275"/>
-      <c r="L4" s="276" t="s">
+      <c r="K4" s="252"/>
+      <c r="L4" s="254" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="277"/>
-      <c r="N4" s="236">
+      <c r="M4" s="255"/>
+      <c r="N4" s="248">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="237"/>
+      <c r="O4" s="258"/>
     </row>
     <row r="5" spans="1:15" s="61" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="235">
+      <c r="B5" s="253">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="235"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="254" t="s">
+      <c r="C5" s="253"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="273" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="254"/>
-      <c r="G5" s="235">
+      <c r="F5" s="273"/>
+      <c r="G5" s="253">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="235"/>
+      <c r="H5" s="253"/>
       <c r="I5" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="235">
+      <c r="J5" s="253">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="235"/>
-      <c r="L5" s="278" t="s">
+      <c r="K5" s="253"/>
+      <c r="L5" s="256" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="279"/>
-      <c r="N5" s="167">
+      <c r="M5" s="257"/>
+      <c r="N5" s="212">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="238"/>
+      <c r="O5" s="259"/>
     </row>
     <row r="6" spans="1:15" s="69" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="248" t="s">
+      <c r="A6" s="269" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="249"/>
-      <c r="C6" s="249"/>
-      <c r="D6" s="249"/>
-      <c r="E6" s="249"/>
-      <c r="F6" s="249"/>
-      <c r="G6" s="249"/>
-      <c r="H6" s="249"/>
-      <c r="I6" s="249"/>
-      <c r="J6" s="249"/>
-      <c r="K6" s="249"/>
-      <c r="L6" s="249"/>
-      <c r="M6" s="249"/>
-      <c r="N6" s="249"/>
-      <c r="O6" s="250"/>
+      <c r="B6" s="270"/>
+      <c r="C6" s="270"/>
+      <c r="D6" s="270"/>
+      <c r="E6" s="270"/>
+      <c r="F6" s="270"/>
+      <c r="G6" s="270"/>
+      <c r="H6" s="270"/>
+      <c r="I6" s="270"/>
+      <c r="J6" s="270"/>
+      <c r="K6" s="270"/>
+      <c r="L6" s="270"/>
+      <c r="M6" s="270"/>
+      <c r="N6" s="270"/>
+      <c r="O6" s="271"/>
     </row>
     <row r="7" spans="1:15" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="244" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="245"/>
-      <c r="C7" s="246"/>
-      <c r="D7" s="255" t="s">
+      <c r="A7" s="265" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="266"/>
+      <c r="C7" s="267"/>
+      <c r="D7" s="274" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="256"/>
-      <c r="F7" s="256"/>
-      <c r="G7" s="256"/>
-      <c r="H7" s="257" t="s">
+      <c r="E7" s="275"/>
+      <c r="F7" s="275"/>
+      <c r="G7" s="275"/>
+      <c r="H7" s="276" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="258"/>
-      <c r="J7" s="258"/>
-      <c r="K7" s="255"/>
-      <c r="L7" s="257" t="s">
+      <c r="I7" s="277"/>
+      <c r="J7" s="277"/>
+      <c r="K7" s="274"/>
+      <c r="L7" s="276" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="258"/>
-      <c r="N7" s="258"/>
-      <c r="O7" s="259"/>
+      <c r="M7" s="277"/>
+      <c r="N7" s="277"/>
+      <c r="O7" s="278"/>
     </row>
     <row r="8" spans="1:15" s="69" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="247"/>
-      <c r="B8" s="160"/>
-      <c r="C8" s="191"/>
+      <c r="A8" s="268"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="200"/>
       <c r="D8" s="94">
         <v>1</v>
       </c>
@@ -5736,27 +5726,27 @@
       <c r="C39" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="265" t="e">
+      <c r="D39" s="239" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="265"/>
-      <c r="F39" s="265"/>
-      <c r="G39" s="266"/>
-      <c r="H39" s="267" t="e">
+      <c r="E39" s="239"/>
+      <c r="F39" s="239"/>
+      <c r="G39" s="240"/>
+      <c r="H39" s="241" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="268"/>
-      <c r="J39" s="268"/>
-      <c r="K39" s="269"/>
-      <c r="L39" s="267" t="e">
+      <c r="I39" s="242"/>
+      <c r="J39" s="242"/>
+      <c r="K39" s="243"/>
+      <c r="L39" s="241" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="268"/>
-      <c r="N39" s="268"/>
-      <c r="O39" s="270"/>
+      <c r="M39" s="242"/>
+      <c r="N39" s="242"/>
+      <c r="O39" s="244"/>
     </row>
     <row r="40" spans="1:15" s="38" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="49"/>
@@ -5764,27 +5754,27 @@
       <c r="C40" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="263" t="e">
+      <c r="D40" s="237" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="263"/>
-      <c r="F40" s="263"/>
-      <c r="G40" s="264"/>
-      <c r="H40" s="251" t="e">
+      <c r="E40" s="237"/>
+      <c r="F40" s="237"/>
+      <c r="G40" s="238"/>
+      <c r="H40" s="245" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="252"/>
-      <c r="J40" s="252"/>
-      <c r="K40" s="253"/>
-      <c r="L40" s="251" t="e">
+      <c r="I40" s="246"/>
+      <c r="J40" s="246"/>
+      <c r="K40" s="272"/>
+      <c r="L40" s="245" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="252"/>
-      <c r="N40" s="252"/>
-      <c r="O40" s="271"/>
+      <c r="M40" s="246"/>
+      <c r="N40" s="246"/>
+      <c r="O40" s="247"/>
     </row>
     <row r="41" spans="1:15" s="38" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="52"/>
@@ -5792,38 +5782,38 @@
       <c r="C41" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="239" t="e">
+      <c r="D41" s="260" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="239"/>
-      <c r="F41" s="239"/>
-      <c r="G41" s="240"/>
-      <c r="H41" s="241" t="e">
+      <c r="E41" s="260"/>
+      <c r="F41" s="260"/>
+      <c r="G41" s="261"/>
+      <c r="H41" s="262" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="242"/>
-      <c r="J41" s="242"/>
-      <c r="K41" s="260"/>
-      <c r="L41" s="241" t="e">
+      <c r="I41" s="263"/>
+      <c r="J41" s="263"/>
+      <c r="K41" s="279"/>
+      <c r="L41" s="262" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="242"/>
-      <c r="N41" s="242"/>
-      <c r="O41" s="243"/>
+      <c r="M41" s="263"/>
+      <c r="N41" s="263"/>
+      <c r="O41" s="264"/>
     </row>
     <row r="42" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="161"/>
-      <c r="C42" s="161"/>
-      <c r="D42" s="162" t="s">
+      <c r="B42" s="231"/>
+      <c r="C42" s="231"/>
+      <c r="D42" s="232" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="162"/>
+      <c r="E42" s="232"/>
       <c r="F42" s="36"/>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
@@ -5832,16 +5822,16 @@
       <c r="L42" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="M42" s="146"/>
-      <c r="N42" s="146"/>
+      <c r="M42" s="219"/>
+      <c r="N42" s="219"/>
       <c r="O42" s="35" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="35"/>
-      <c r="B43" s="141"/>
-      <c r="C43" s="141"/>
+      <c r="B43" s="214"/>
+      <c r="C43" s="214"/>
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="35"/>
@@ -5851,27 +5841,27 @@
       <c r="J43" s="37"/>
       <c r="K43" s="33"/>
       <c r="L43" s="37"/>
-      <c r="M43" s="147"/>
-      <c r="N43" s="147"/>
+      <c r="M43" s="220"/>
+      <c r="N43" s="220"/>
       <c r="O43" s="33"/>
     </row>
     <row r="44" spans="1:15" s="38" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="142" t="s">
+      <c r="A44" s="215" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="142"/>
-      <c r="C44" s="142"/>
+      <c r="B44" s="215"/>
+      <c r="C44" s="215"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
       <c r="G44" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H44" s="142" t="s">
+      <c r="H44" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="I44" s="142"/>
-      <c r="J44" s="142"/>
+      <c r="I44" s="215"/>
+      <c r="J44" s="215"/>
       <c r="K44" s="37"/>
       <c r="L44" s="37"/>
       <c r="M44" s="37"/>
@@ -5879,10 +5869,10 @@
       <c r="O44" s="37"/>
     </row>
     <row r="45" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="142" t="s">
+      <c r="A45" s="215" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="142"/>
+      <c r="B45" s="215"/>
       <c r="C45" s="35"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
@@ -5893,15 +5883,39 @@
       <c r="J45" s="37"/>
       <c r="K45" s="37"/>
       <c r="L45" s="37"/>
-      <c r="M45" s="143" t="s">
+      <c r="M45" s="216" t="s">
         <v>49</v>
       </c>
-      <c r="N45" s="143"/>
+      <c r="N45" s="216"/>
       <c r="O45" s="37"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="40">
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="H41:K41"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="A2:M3"/>
@@ -5918,43 +5932,19 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="A44:C44"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
-    <cfRule type="cellIs" dxfId="18" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="lessThan">
       <formula>350</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:K41">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:O41">
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="notBetween">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="notBetween">
       <formula>2.5</formula>
       <formula>5.5</formula>
     </cfRule>
@@ -5983,61 +5973,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="261" t="s">
+      <c r="A1" s="235" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="261"/>
-      <c r="C1" s="261"/>
-      <c r="D1" s="261"/>
-      <c r="E1" s="261"/>
-      <c r="F1" s="261"/>
-      <c r="G1" s="261"/>
-      <c r="H1" s="261"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="261"/>
-      <c r="K1" s="261"/>
-      <c r="L1" s="261"/>
-      <c r="M1" s="261"/>
-      <c r="N1" s="158" t="s">
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="229" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="158"/>
+      <c r="O1" s="229"/>
     </row>
     <row r="2" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="262" t="s">
+      <c r="A2" s="236" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="262"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262"/>
-      <c r="I2" s="262"/>
-      <c r="J2" s="262"/>
-      <c r="K2" s="262"/>
-      <c r="L2" s="262"/>
-      <c r="M2" s="262"/>
-      <c r="N2" s="159" t="s">
+      <c r="B2" s="236"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
+      <c r="K2" s="236"/>
+      <c r="L2" s="236"/>
+      <c r="M2" s="236"/>
+      <c r="N2" s="230" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="159"/>
+      <c r="O2" s="230"/>
     </row>
     <row r="3" spans="1:15" s="63" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="262"/>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="262"/>
-      <c r="E3" s="262"/>
-      <c r="F3" s="262"/>
-      <c r="G3" s="262"/>
-      <c r="H3" s="262"/>
-      <c r="I3" s="262"/>
-      <c r="J3" s="262"/>
-      <c r="K3" s="262"/>
-      <c r="L3" s="262"/>
-      <c r="M3" s="262"/>
+      <c r="A3" s="236"/>
+      <c r="B3" s="236"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="236"/>
+      <c r="M3" s="236"/>
       <c r="N3" s="39" t="s">
         <v>19</v>
       </c>
@@ -6047,130 +6037,130 @@
       <c r="A4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="236">
+      <c r="B4" s="248">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="272"/>
-      <c r="D4" s="273"/>
-      <c r="E4" s="274" t="s">
+      <c r="C4" s="249"/>
+      <c r="D4" s="250"/>
+      <c r="E4" s="251" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="274"/>
-      <c r="G4" s="275">
+      <c r="F4" s="251"/>
+      <c r="G4" s="252">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="275"/>
+      <c r="H4" s="252"/>
       <c r="I4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="275">
+      <c r="J4" s="252">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="275"/>
-      <c r="L4" s="276" t="s">
+      <c r="K4" s="252"/>
+      <c r="L4" s="254" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="277">
+      <c r="M4" s="255">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="236">
+      <c r="N4" s="248">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="237"/>
+      <c r="O4" s="258"/>
     </row>
     <row r="5" spans="1:15" s="61" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="235">
+      <c r="B5" s="253">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="235"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="254" t="s">
+      <c r="C5" s="253"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="273" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="254"/>
-      <c r="G5" s="235">
+      <c r="F5" s="273"/>
+      <c r="G5" s="253">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="235"/>
+      <c r="H5" s="253"/>
       <c r="I5" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="235">
+      <c r="J5" s="253">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="235"/>
-      <c r="L5" s="278" t="s">
+      <c r="K5" s="253"/>
+      <c r="L5" s="256" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="279">
+      <c r="M5" s="257">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="167">
+      <c r="N5" s="212">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="238"/>
+      <c r="O5" s="259"/>
     </row>
     <row r="6" spans="1:15" s="69" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="248" t="s">
+      <c r="A6" s="269" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="249"/>
-      <c r="C6" s="249"/>
-      <c r="D6" s="249"/>
-      <c r="E6" s="249"/>
-      <c r="F6" s="249"/>
-      <c r="G6" s="249"/>
-      <c r="H6" s="249"/>
-      <c r="I6" s="249"/>
-      <c r="J6" s="249"/>
-      <c r="K6" s="249"/>
-      <c r="L6" s="249"/>
-      <c r="M6" s="249"/>
-      <c r="N6" s="249"/>
-      <c r="O6" s="250"/>
+      <c r="B6" s="270"/>
+      <c r="C6" s="270"/>
+      <c r="D6" s="270"/>
+      <c r="E6" s="270"/>
+      <c r="F6" s="270"/>
+      <c r="G6" s="270"/>
+      <c r="H6" s="270"/>
+      <c r="I6" s="270"/>
+      <c r="J6" s="270"/>
+      <c r="K6" s="270"/>
+      <c r="L6" s="270"/>
+      <c r="M6" s="270"/>
+      <c r="N6" s="270"/>
+      <c r="O6" s="271"/>
     </row>
     <row r="7" spans="1:15" s="69" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="283" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="143"/>
-      <c r="C7" s="284"/>
-      <c r="D7" s="256" t="s">
+      <c r="A7" s="280" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="216"/>
+      <c r="C7" s="281"/>
+      <c r="D7" s="275" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="256"/>
-      <c r="F7" s="256"/>
-      <c r="G7" s="256"/>
-      <c r="H7" s="257" t="s">
+      <c r="E7" s="275"/>
+      <c r="F7" s="275"/>
+      <c r="G7" s="275"/>
+      <c r="H7" s="276" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="258"/>
-      <c r="J7" s="258"/>
-      <c r="K7" s="255"/>
-      <c r="L7" s="257" t="s">
+      <c r="I7" s="277"/>
+      <c r="J7" s="277"/>
+      <c r="K7" s="274"/>
+      <c r="L7" s="276" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="258"/>
-      <c r="N7" s="258"/>
-      <c r="O7" s="259"/>
+      <c r="M7" s="277"/>
+      <c r="N7" s="277"/>
+      <c r="O7" s="278"/>
     </row>
     <row r="8" spans="1:15" s="69" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="247"/>
-      <c r="B8" s="160"/>
-      <c r="C8" s="191"/>
+      <c r="A8" s="268"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="200"/>
       <c r="D8" s="34">
         <v>1</v>
       </c>
@@ -7264,27 +7254,27 @@
       <c r="C39" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="281" t="e">
+      <c r="D39" s="283" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="265"/>
-      <c r="F39" s="265"/>
-      <c r="G39" s="266"/>
-      <c r="H39" s="267" t="e">
+      <c r="E39" s="239"/>
+      <c r="F39" s="239"/>
+      <c r="G39" s="240"/>
+      <c r="H39" s="241" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="268"/>
-      <c r="J39" s="268"/>
-      <c r="K39" s="269"/>
-      <c r="L39" s="267" t="e">
+      <c r="I39" s="242"/>
+      <c r="J39" s="242"/>
+      <c r="K39" s="243"/>
+      <c r="L39" s="241" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="268"/>
-      <c r="N39" s="268"/>
-      <c r="O39" s="270"/>
+      <c r="M39" s="242"/>
+      <c r="N39" s="242"/>
+      <c r="O39" s="244"/>
     </row>
     <row r="40" spans="1:15" s="38" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="49"/>
@@ -7292,27 +7282,27 @@
       <c r="C40" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="282" t="e">
+      <c r="D40" s="284" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="263"/>
-      <c r="F40" s="263"/>
-      <c r="G40" s="264"/>
-      <c r="H40" s="251" t="e">
+      <c r="E40" s="237"/>
+      <c r="F40" s="237"/>
+      <c r="G40" s="238"/>
+      <c r="H40" s="245" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="252"/>
-      <c r="J40" s="252"/>
-      <c r="K40" s="253"/>
-      <c r="L40" s="251" t="e">
+      <c r="I40" s="246"/>
+      <c r="J40" s="246"/>
+      <c r="K40" s="272"/>
+      <c r="L40" s="245" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="252"/>
-      <c r="N40" s="252"/>
-      <c r="O40" s="271"/>
+      <c r="M40" s="246"/>
+      <c r="N40" s="246"/>
+      <c r="O40" s="247"/>
     </row>
     <row r="41" spans="1:15" s="38" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="52"/>
@@ -7320,38 +7310,38 @@
       <c r="C41" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="280" t="e">
+      <c r="D41" s="282" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="239"/>
-      <c r="F41" s="239"/>
-      <c r="G41" s="240"/>
-      <c r="H41" s="241" t="e">
+      <c r="E41" s="260"/>
+      <c r="F41" s="260"/>
+      <c r="G41" s="261"/>
+      <c r="H41" s="262" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="242"/>
-      <c r="J41" s="242"/>
-      <c r="K41" s="260"/>
-      <c r="L41" s="241" t="e">
+      <c r="I41" s="263"/>
+      <c r="J41" s="263"/>
+      <c r="K41" s="279"/>
+      <c r="L41" s="262" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="242"/>
-      <c r="N41" s="242"/>
-      <c r="O41" s="243"/>
+      <c r="M41" s="263"/>
+      <c r="N41" s="263"/>
+      <c r="O41" s="264"/>
     </row>
     <row r="42" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="161"/>
-      <c r="C42" s="161"/>
-      <c r="D42" s="162" t="s">
+      <c r="B42" s="231"/>
+      <c r="C42" s="231"/>
+      <c r="D42" s="232" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="162"/>
+      <c r="E42" s="232"/>
       <c r="F42" s="36"/>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
@@ -7360,16 +7350,16 @@
       <c r="L42" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="M42" s="146"/>
-      <c r="N42" s="146"/>
+      <c r="M42" s="219"/>
+      <c r="N42" s="219"/>
       <c r="O42" s="35" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="35"/>
-      <c r="B43" s="141"/>
-      <c r="C43" s="141"/>
+      <c r="B43" s="214"/>
+      <c r="C43" s="214"/>
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="35"/>
@@ -7379,27 +7369,27 @@
       <c r="J43" s="37"/>
       <c r="K43" s="33"/>
       <c r="L43" s="37"/>
-      <c r="M43" s="147"/>
-      <c r="N43" s="147"/>
+      <c r="M43" s="220"/>
+      <c r="N43" s="220"/>
       <c r="O43" s="33"/>
     </row>
     <row r="44" spans="1:15" s="38" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="142" t="s">
+      <c r="A44" s="215" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="142"/>
-      <c r="C44" s="142"/>
+      <c r="B44" s="215"/>
+      <c r="C44" s="215"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
       <c r="G44" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H44" s="142" t="s">
+      <c r="H44" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="I44" s="142"/>
-      <c r="J44" s="142"/>
+      <c r="I44" s="215"/>
+      <c r="J44" s="215"/>
       <c r="K44" s="37"/>
       <c r="L44" s="37"/>
       <c r="M44" s="37"/>
@@ -7407,10 +7397,10 @@
       <c r="O44" s="37"/>
     </row>
     <row r="45" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="142" t="s">
+      <c r="A45" s="215" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="142"/>
+      <c r="B45" s="215"/>
       <c r="C45" s="35"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
@@ -7421,15 +7411,15 @@
       <c r="J45" s="37"/>
       <c r="K45" s="37"/>
       <c r="L45" s="37"/>
-      <c r="M45" s="143" t="s">
+      <c r="M45" s="216" t="s">
         <v>42</v>
       </c>
-      <c r="N45" s="143"/>
+      <c r="N45" s="216"/>
       <c r="O45" s="37"/>
     </row>
     <row r="46" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A46" s="142"/>
-      <c r="B46" s="142"/>
+      <c r="A46" s="215"/>
+      <c r="B46" s="215"/>
       <c r="C46" s="35"/>
       <c r="D46" s="37"/>
       <c r="E46" s="37"/>
@@ -7440,24 +7430,28 @@
       <c r="J46" s="37"/>
       <c r="K46" s="37"/>
       <c r="L46" s="37"/>
-      <c r="M46" s="143"/>
-      <c r="N46" s="143"/>
+      <c r="M46" s="216"/>
+      <c r="N46" s="216"/>
       <c r="O46" s="37"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="42">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="A2:M3"/>
@@ -7474,34 +7468,30 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
       <formula>400</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:K41">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:O41">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="notBetween">
       <formula>20</formula>
       <formula>40</formula>
     </cfRule>
@@ -7530,61 +7520,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="261" t="s">
+      <c r="A1" s="235" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="261"/>
-      <c r="C1" s="261"/>
-      <c r="D1" s="261"/>
-      <c r="E1" s="261"/>
-      <c r="F1" s="261"/>
-      <c r="G1" s="261"/>
-      <c r="H1" s="261"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="261"/>
-      <c r="K1" s="261"/>
-      <c r="L1" s="261"/>
-      <c r="M1" s="261"/>
-      <c r="N1" s="158" t="s">
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="229" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="158"/>
+      <c r="O1" s="229"/>
     </row>
     <row r="2" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="262" t="s">
+      <c r="A2" s="236" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="262"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262"/>
-      <c r="I2" s="262"/>
-      <c r="J2" s="262"/>
-      <c r="K2" s="262"/>
-      <c r="L2" s="262"/>
-      <c r="M2" s="262"/>
-      <c r="N2" s="159" t="s">
+      <c r="B2" s="236"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
+      <c r="K2" s="236"/>
+      <c r="L2" s="236"/>
+      <c r="M2" s="236"/>
+      <c r="N2" s="230" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="159"/>
+      <c r="O2" s="230"/>
     </row>
     <row r="3" spans="1:15" s="63" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="262"/>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="262"/>
-      <c r="E3" s="262"/>
-      <c r="F3" s="262"/>
-      <c r="G3" s="262"/>
-      <c r="H3" s="262"/>
-      <c r="I3" s="262"/>
-      <c r="J3" s="262"/>
-      <c r="K3" s="262"/>
-      <c r="L3" s="262"/>
-      <c r="M3" s="262"/>
+      <c r="A3" s="236"/>
+      <c r="B3" s="236"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="236"/>
+      <c r="M3" s="236"/>
       <c r="N3" s="39" t="s">
         <v>19</v>
       </c>
@@ -7594,136 +7584,136 @@
       <c r="A4" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="236">
+      <c r="B4" s="248">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="272"/>
-      <c r="D4" s="273"/>
-      <c r="E4" s="338" t="s">
+      <c r="C4" s="249"/>
+      <c r="D4" s="250"/>
+      <c r="E4" s="299" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="339"/>
-      <c r="G4" s="275">
+      <c r="F4" s="300"/>
+      <c r="G4" s="252">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="275"/>
+      <c r="H4" s="252"/>
       <c r="I4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="275">
+      <c r="J4" s="252">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="275"/>
+      <c r="K4" s="252"/>
       <c r="L4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="340">
+      <c r="M4" s="301">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="341"/>
-      <c r="O4" s="342"/>
+      <c r="N4" s="302"/>
+      <c r="O4" s="303"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="235">
+      <c r="B5" s="253">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="235"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="343" t="s">
+      <c r="C5" s="253"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="304" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="344"/>
-      <c r="G5" s="235">
+      <c r="F5" s="305"/>
+      <c r="G5" s="253">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="235"/>
+      <c r="H5" s="253"/>
       <c r="I5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="235">
+      <c r="J5" s="253">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="235"/>
+      <c r="K5" s="253"/>
       <c r="L5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="345">
+      <c r="M5" s="306">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="346"/>
-      <c r="O5" s="347"/>
+      <c r="N5" s="307"/>
+      <c r="O5" s="308"/>
     </row>
     <row r="6" spans="1:15" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="322" t="s">
+      <c r="A6" s="317" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="323"/>
-      <c r="C6" s="324"/>
-      <c r="D6" s="325"/>
-      <c r="E6" s="323"/>
-      <c r="F6" s="323"/>
-      <c r="G6" s="323"/>
-      <c r="H6" s="323"/>
-      <c r="I6" s="323"/>
-      <c r="J6" s="323"/>
-      <c r="K6" s="324"/>
-      <c r="L6" s="325"/>
-      <c r="M6" s="323"/>
-      <c r="N6" s="323"/>
-      <c r="O6" s="326"/>
+      <c r="B6" s="286"/>
+      <c r="C6" s="318"/>
+      <c r="D6" s="285"/>
+      <c r="E6" s="286"/>
+      <c r="F6" s="286"/>
+      <c r="G6" s="286"/>
+      <c r="H6" s="286"/>
+      <c r="I6" s="286"/>
+      <c r="J6" s="286"/>
+      <c r="K6" s="318"/>
+      <c r="L6" s="285"/>
+      <c r="M6" s="286"/>
+      <c r="N6" s="286"/>
+      <c r="O6" s="287"/>
     </row>
     <row r="7" spans="1:15" s="11" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A7" s="327" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="328"/>
-      <c r="C7" s="329"/>
-      <c r="D7" s="333" t="s">
+      <c r="A7" s="288" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="289"/>
+      <c r="C7" s="290"/>
+      <c r="D7" s="294" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="246"/>
-      <c r="F7" s="333" t="s">
+      <c r="E7" s="267"/>
+      <c r="F7" s="294" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="246"/>
-      <c r="H7" s="333" t="s">
+      <c r="G7" s="267"/>
+      <c r="H7" s="294" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="246"/>
-      <c r="J7" s="334" t="s">
+      <c r="I7" s="267"/>
+      <c r="J7" s="295" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="335"/>
-      <c r="L7" s="236" t="s">
+      <c r="K7" s="296"/>
+      <c r="L7" s="248" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="272"/>
-      <c r="N7" s="272"/>
-      <c r="O7" s="237"/>
+      <c r="M7" s="249"/>
+      <c r="N7" s="249"/>
+      <c r="O7" s="258"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A8" s="330"/>
-      <c r="B8" s="331"/>
-      <c r="C8" s="332"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="191"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="191"/>
-      <c r="J8" s="336"/>
-      <c r="K8" s="337"/>
+      <c r="A8" s="291"/>
+      <c r="B8" s="292"/>
+      <c r="C8" s="293"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="200"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="297"/>
+      <c r="K8" s="298"/>
       <c r="L8" s="80">
         <v>1</v>
       </c>
@@ -7750,14 +7740,14 @@
         <f>Page1!C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="318"/>
-      <c r="E9" s="319"/>
-      <c r="F9" s="318"/>
-      <c r="G9" s="319"/>
-      <c r="H9" s="318"/>
-      <c r="I9" s="319"/>
-      <c r="J9" s="320"/>
-      <c r="K9" s="321"/>
+      <c r="D9" s="309"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="309"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="309"/>
+      <c r="I9" s="310"/>
+      <c r="J9" s="311"/>
+      <c r="K9" s="312"/>
       <c r="L9" s="30"/>
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
@@ -7779,14 +7769,14 @@
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="310"/>
-      <c r="E10" s="311"/>
-      <c r="F10" s="310"/>
-      <c r="G10" s="311"/>
-      <c r="H10" s="310"/>
-      <c r="I10" s="311"/>
-      <c r="J10" s="312"/>
-      <c r="K10" s="313"/>
+      <c r="D10" s="313"/>
+      <c r="E10" s="314"/>
+      <c r="F10" s="313"/>
+      <c r="G10" s="314"/>
+      <c r="H10" s="313"/>
+      <c r="I10" s="314"/>
+      <c r="J10" s="315"/>
+      <c r="K10" s="316"/>
       <c r="L10" s="30"/>
       <c r="M10" s="27"/>
       <c r="N10" s="27"/>
@@ -7808,14 +7798,14 @@
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="310"/>
-      <c r="E11" s="311"/>
-      <c r="F11" s="310"/>
-      <c r="G11" s="311"/>
-      <c r="H11" s="310"/>
-      <c r="I11" s="311"/>
-      <c r="J11" s="312"/>
-      <c r="K11" s="313"/>
+      <c r="D11" s="313"/>
+      <c r="E11" s="314"/>
+      <c r="F11" s="313"/>
+      <c r="G11" s="314"/>
+      <c r="H11" s="313"/>
+      <c r="I11" s="314"/>
+      <c r="J11" s="315"/>
+      <c r="K11" s="316"/>
       <c r="L11" s="30"/>
       <c r="M11" s="27"/>
       <c r="N11" s="27"/>
@@ -7837,14 +7827,14 @@
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="310"/>
-      <c r="E12" s="311"/>
-      <c r="F12" s="310"/>
-      <c r="G12" s="311"/>
-      <c r="H12" s="310"/>
-      <c r="I12" s="311"/>
-      <c r="J12" s="312"/>
-      <c r="K12" s="313"/>
+      <c r="D12" s="313"/>
+      <c r="E12" s="314"/>
+      <c r="F12" s="313"/>
+      <c r="G12" s="314"/>
+      <c r="H12" s="313"/>
+      <c r="I12" s="314"/>
+      <c r="J12" s="315"/>
+      <c r="K12" s="316"/>
       <c r="L12" s="29"/>
       <c r="M12" s="28"/>
       <c r="N12" s="28"/>
@@ -7866,14 +7856,14 @@
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="310"/>
-      <c r="E13" s="311"/>
-      <c r="F13" s="310"/>
-      <c r="G13" s="311"/>
-      <c r="H13" s="310"/>
-      <c r="I13" s="311"/>
-      <c r="J13" s="312"/>
-      <c r="K13" s="313"/>
+      <c r="D13" s="313"/>
+      <c r="E13" s="314"/>
+      <c r="F13" s="313"/>
+      <c r="G13" s="314"/>
+      <c r="H13" s="313"/>
+      <c r="I13" s="314"/>
+      <c r="J13" s="315"/>
+      <c r="K13" s="316"/>
       <c r="L13" s="30"/>
       <c r="M13" s="27"/>
       <c r="N13" s="27"/>
@@ -7895,14 +7885,14 @@
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="310"/>
-      <c r="E14" s="311"/>
-      <c r="F14" s="310"/>
-      <c r="G14" s="311"/>
-      <c r="H14" s="310"/>
-      <c r="I14" s="311"/>
-      <c r="J14" s="312"/>
-      <c r="K14" s="313"/>
+      <c r="D14" s="313"/>
+      <c r="E14" s="314"/>
+      <c r="F14" s="313"/>
+      <c r="G14" s="314"/>
+      <c r="H14" s="313"/>
+      <c r="I14" s="314"/>
+      <c r="J14" s="315"/>
+      <c r="K14" s="316"/>
       <c r="L14" s="30"/>
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
@@ -7924,14 +7914,14 @@
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="310"/>
-      <c r="E15" s="311"/>
-      <c r="F15" s="310"/>
-      <c r="G15" s="311"/>
-      <c r="H15" s="310"/>
-      <c r="I15" s="311"/>
-      <c r="J15" s="312"/>
-      <c r="K15" s="313"/>
+      <c r="D15" s="313"/>
+      <c r="E15" s="314"/>
+      <c r="F15" s="313"/>
+      <c r="G15" s="314"/>
+      <c r="H15" s="313"/>
+      <c r="I15" s="314"/>
+      <c r="J15" s="315"/>
+      <c r="K15" s="316"/>
       <c r="L15" s="30"/>
       <c r="M15" s="27"/>
       <c r="N15" s="27"/>
@@ -7953,14 +7943,14 @@
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="310"/>
-      <c r="E16" s="311"/>
-      <c r="F16" s="310"/>
-      <c r="G16" s="311"/>
-      <c r="H16" s="310"/>
-      <c r="I16" s="311"/>
-      <c r="J16" s="312"/>
-      <c r="K16" s="313"/>
+      <c r="D16" s="313"/>
+      <c r="E16" s="314"/>
+      <c r="F16" s="313"/>
+      <c r="G16" s="314"/>
+      <c r="H16" s="313"/>
+      <c r="I16" s="314"/>
+      <c r="J16" s="315"/>
+      <c r="K16" s="316"/>
       <c r="L16" s="30"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -7982,14 +7972,14 @@
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="310"/>
-      <c r="E17" s="311"/>
-      <c r="F17" s="310"/>
-      <c r="G17" s="311"/>
-      <c r="H17" s="310"/>
-      <c r="I17" s="311"/>
-      <c r="J17" s="312"/>
-      <c r="K17" s="313"/>
+      <c r="D17" s="313"/>
+      <c r="E17" s="314"/>
+      <c r="F17" s="313"/>
+      <c r="G17" s="314"/>
+      <c r="H17" s="313"/>
+      <c r="I17" s="314"/>
+      <c r="J17" s="315"/>
+      <c r="K17" s="316"/>
       <c r="L17" s="30"/>
       <c r="M17" s="27"/>
       <c r="N17" s="27"/>
@@ -8011,14 +8001,14 @@
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="310"/>
-      <c r="E18" s="311"/>
-      <c r="F18" s="310"/>
-      <c r="G18" s="311"/>
-      <c r="H18" s="310"/>
-      <c r="I18" s="311"/>
-      <c r="J18" s="312"/>
-      <c r="K18" s="313"/>
+      <c r="D18" s="313"/>
+      <c r="E18" s="314"/>
+      <c r="F18" s="313"/>
+      <c r="G18" s="314"/>
+      <c r="H18" s="313"/>
+      <c r="I18" s="314"/>
+      <c r="J18" s="315"/>
+      <c r="K18" s="316"/>
       <c r="L18" s="30"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -8040,14 +8030,14 @@
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="310"/>
-      <c r="E19" s="311"/>
-      <c r="F19" s="310"/>
-      <c r="G19" s="311"/>
-      <c r="H19" s="310"/>
-      <c r="I19" s="311"/>
-      <c r="J19" s="312"/>
-      <c r="K19" s="313"/>
+      <c r="D19" s="313"/>
+      <c r="E19" s="314"/>
+      <c r="F19" s="313"/>
+      <c r="G19" s="314"/>
+      <c r="H19" s="313"/>
+      <c r="I19" s="314"/>
+      <c r="J19" s="315"/>
+      <c r="K19" s="316"/>
       <c r="L19" s="30"/>
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
@@ -8069,14 +8059,14 @@
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="310"/>
-      <c r="E20" s="311"/>
-      <c r="F20" s="310"/>
-      <c r="G20" s="311"/>
-      <c r="H20" s="310"/>
-      <c r="I20" s="311"/>
-      <c r="J20" s="312"/>
-      <c r="K20" s="313"/>
+      <c r="D20" s="313"/>
+      <c r="E20" s="314"/>
+      <c r="F20" s="313"/>
+      <c r="G20" s="314"/>
+      <c r="H20" s="313"/>
+      <c r="I20" s="314"/>
+      <c r="J20" s="315"/>
+      <c r="K20" s="316"/>
       <c r="L20" s="30"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -8098,14 +8088,14 @@
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="310"/>
-      <c r="E21" s="311"/>
-      <c r="F21" s="310"/>
-      <c r="G21" s="311"/>
-      <c r="H21" s="310"/>
-      <c r="I21" s="311"/>
-      <c r="J21" s="312"/>
-      <c r="K21" s="313"/>
+      <c r="D21" s="313"/>
+      <c r="E21" s="314"/>
+      <c r="F21" s="313"/>
+      <c r="G21" s="314"/>
+      <c r="H21" s="313"/>
+      <c r="I21" s="314"/>
+      <c r="J21" s="315"/>
+      <c r="K21" s="316"/>
       <c r="L21" s="30"/>
       <c r="M21" s="27"/>
       <c r="N21" s="27"/>
@@ -8127,14 +8117,14 @@
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="310"/>
-      <c r="E22" s="311"/>
-      <c r="F22" s="310"/>
-      <c r="G22" s="311"/>
-      <c r="H22" s="310"/>
-      <c r="I22" s="311"/>
-      <c r="J22" s="312"/>
-      <c r="K22" s="313"/>
+      <c r="D22" s="313"/>
+      <c r="E22" s="314"/>
+      <c r="F22" s="313"/>
+      <c r="G22" s="314"/>
+      <c r="H22" s="313"/>
+      <c r="I22" s="314"/>
+      <c r="J22" s="315"/>
+      <c r="K22" s="316"/>
       <c r="L22" s="30"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -8156,14 +8146,14 @@
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="310"/>
-      <c r="E23" s="311"/>
-      <c r="F23" s="310"/>
-      <c r="G23" s="311"/>
-      <c r="H23" s="310"/>
-      <c r="I23" s="311"/>
-      <c r="J23" s="312"/>
-      <c r="K23" s="313"/>
+      <c r="D23" s="313"/>
+      <c r="E23" s="314"/>
+      <c r="F23" s="313"/>
+      <c r="G23" s="314"/>
+      <c r="H23" s="313"/>
+      <c r="I23" s="314"/>
+      <c r="J23" s="315"/>
+      <c r="K23" s="316"/>
       <c r="L23" s="30"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
@@ -8185,14 +8175,14 @@
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="310"/>
-      <c r="E24" s="311"/>
-      <c r="F24" s="310"/>
-      <c r="G24" s="311"/>
-      <c r="H24" s="310"/>
-      <c r="I24" s="311"/>
-      <c r="J24" s="312"/>
-      <c r="K24" s="313"/>
+      <c r="D24" s="313"/>
+      <c r="E24" s="314"/>
+      <c r="F24" s="313"/>
+      <c r="G24" s="314"/>
+      <c r="H24" s="313"/>
+      <c r="I24" s="314"/>
+      <c r="J24" s="315"/>
+      <c r="K24" s="316"/>
       <c r="L24" s="30"/>
       <c r="M24" s="27"/>
       <c r="N24" s="27"/>
@@ -8214,14 +8204,14 @@
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="310"/>
-      <c r="E25" s="311"/>
-      <c r="F25" s="310"/>
-      <c r="G25" s="311"/>
-      <c r="H25" s="310"/>
-      <c r="I25" s="311"/>
-      <c r="J25" s="312"/>
-      <c r="K25" s="313"/>
+      <c r="D25" s="313"/>
+      <c r="E25" s="314"/>
+      <c r="F25" s="313"/>
+      <c r="G25" s="314"/>
+      <c r="H25" s="313"/>
+      <c r="I25" s="314"/>
+      <c r="J25" s="315"/>
+      <c r="K25" s="316"/>
       <c r="L25" s="29"/>
       <c r="M25" s="28"/>
       <c r="N25" s="28"/>
@@ -8243,14 +8233,14 @@
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="310"/>
-      <c r="E26" s="311"/>
-      <c r="F26" s="310"/>
-      <c r="G26" s="311"/>
-      <c r="H26" s="310"/>
-      <c r="I26" s="311"/>
-      <c r="J26" s="312"/>
-      <c r="K26" s="313"/>
+      <c r="D26" s="313"/>
+      <c r="E26" s="314"/>
+      <c r="F26" s="313"/>
+      <c r="G26" s="314"/>
+      <c r="H26" s="313"/>
+      <c r="I26" s="314"/>
+      <c r="J26" s="315"/>
+      <c r="K26" s="316"/>
       <c r="L26" s="30"/>
       <c r="M26" s="27"/>
       <c r="N26" s="27"/>
@@ -8272,14 +8262,14 @@
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="310"/>
-      <c r="E27" s="311"/>
-      <c r="F27" s="310"/>
-      <c r="G27" s="311"/>
-      <c r="H27" s="310"/>
-      <c r="I27" s="311"/>
-      <c r="J27" s="312"/>
-      <c r="K27" s="313"/>
+      <c r="D27" s="313"/>
+      <c r="E27" s="314"/>
+      <c r="F27" s="313"/>
+      <c r="G27" s="314"/>
+      <c r="H27" s="313"/>
+      <c r="I27" s="314"/>
+      <c r="J27" s="315"/>
+      <c r="K27" s="316"/>
       <c r="L27" s="30"/>
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
@@ -8301,14 +8291,14 @@
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="310"/>
-      <c r="E28" s="311"/>
-      <c r="F28" s="310"/>
-      <c r="G28" s="311"/>
-      <c r="H28" s="310"/>
-      <c r="I28" s="311"/>
-      <c r="J28" s="312"/>
-      <c r="K28" s="313"/>
+      <c r="D28" s="313"/>
+      <c r="E28" s="314"/>
+      <c r="F28" s="313"/>
+      <c r="G28" s="314"/>
+      <c r="H28" s="313"/>
+      <c r="I28" s="314"/>
+      <c r="J28" s="315"/>
+      <c r="K28" s="316"/>
       <c r="L28" s="30"/>
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
@@ -8330,14 +8320,14 @@
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="310"/>
-      <c r="E29" s="311"/>
-      <c r="F29" s="310"/>
-      <c r="G29" s="311"/>
-      <c r="H29" s="310"/>
-      <c r="I29" s="311"/>
-      <c r="J29" s="312"/>
-      <c r="K29" s="313"/>
+      <c r="D29" s="313"/>
+      <c r="E29" s="314"/>
+      <c r="F29" s="313"/>
+      <c r="G29" s="314"/>
+      <c r="H29" s="313"/>
+      <c r="I29" s="314"/>
+      <c r="J29" s="315"/>
+      <c r="K29" s="316"/>
       <c r="L29" s="30"/>
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
@@ -8359,14 +8349,14 @@
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="310"/>
-      <c r="E30" s="311"/>
-      <c r="F30" s="310"/>
-      <c r="G30" s="311"/>
-      <c r="H30" s="310"/>
-      <c r="I30" s="311"/>
-      <c r="J30" s="312"/>
-      <c r="K30" s="313"/>
+      <c r="D30" s="313"/>
+      <c r="E30" s="314"/>
+      <c r="F30" s="313"/>
+      <c r="G30" s="314"/>
+      <c r="H30" s="313"/>
+      <c r="I30" s="314"/>
+      <c r="J30" s="315"/>
+      <c r="K30" s="316"/>
       <c r="L30" s="30"/>
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
@@ -8388,14 +8378,14 @@
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="310"/>
-      <c r="E31" s="311"/>
-      <c r="F31" s="310"/>
-      <c r="G31" s="311"/>
-      <c r="H31" s="310"/>
-      <c r="I31" s="311"/>
-      <c r="J31" s="312"/>
-      <c r="K31" s="313"/>
+      <c r="D31" s="313"/>
+      <c r="E31" s="314"/>
+      <c r="F31" s="313"/>
+      <c r="G31" s="314"/>
+      <c r="H31" s="313"/>
+      <c r="I31" s="314"/>
+      <c r="J31" s="315"/>
+      <c r="K31" s="316"/>
       <c r="L31" s="30"/>
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
@@ -8417,14 +8407,14 @@
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="310"/>
-      <c r="E32" s="311"/>
-      <c r="F32" s="310"/>
-      <c r="G32" s="311"/>
-      <c r="H32" s="310"/>
-      <c r="I32" s="311"/>
-      <c r="J32" s="312"/>
-      <c r="K32" s="313"/>
+      <c r="D32" s="313"/>
+      <c r="E32" s="314"/>
+      <c r="F32" s="313"/>
+      <c r="G32" s="314"/>
+      <c r="H32" s="313"/>
+      <c r="I32" s="314"/>
+      <c r="J32" s="315"/>
+      <c r="K32" s="316"/>
       <c r="L32" s="30"/>
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
@@ -8446,14 +8436,14 @@
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="310"/>
-      <c r="E33" s="311"/>
-      <c r="F33" s="310"/>
-      <c r="G33" s="311"/>
-      <c r="H33" s="310"/>
-      <c r="I33" s="311"/>
-      <c r="J33" s="312"/>
-      <c r="K33" s="313"/>
+      <c r="D33" s="313"/>
+      <c r="E33" s="314"/>
+      <c r="F33" s="313"/>
+      <c r="G33" s="314"/>
+      <c r="H33" s="313"/>
+      <c r="I33" s="314"/>
+      <c r="J33" s="315"/>
+      <c r="K33" s="316"/>
       <c r="L33" s="30"/>
       <c r="M33" s="27"/>
       <c r="N33" s="27"/>
@@ -8475,14 +8465,14 @@
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="310"/>
-      <c r="E34" s="311"/>
-      <c r="F34" s="310"/>
-      <c r="G34" s="311"/>
-      <c r="H34" s="310"/>
-      <c r="I34" s="311"/>
-      <c r="J34" s="312"/>
-      <c r="K34" s="313"/>
+      <c r="D34" s="313"/>
+      <c r="E34" s="314"/>
+      <c r="F34" s="313"/>
+      <c r="G34" s="314"/>
+      <c r="H34" s="313"/>
+      <c r="I34" s="314"/>
+      <c r="J34" s="315"/>
+      <c r="K34" s="316"/>
       <c r="L34" s="30"/>
       <c r="M34" s="27"/>
       <c r="N34" s="27"/>
@@ -8504,14 +8494,14 @@
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="310"/>
-      <c r="E35" s="311"/>
-      <c r="F35" s="310"/>
-      <c r="G35" s="311"/>
-      <c r="H35" s="310"/>
-      <c r="I35" s="311"/>
-      <c r="J35" s="312"/>
-      <c r="K35" s="313"/>
+      <c r="D35" s="313"/>
+      <c r="E35" s="314"/>
+      <c r="F35" s="313"/>
+      <c r="G35" s="314"/>
+      <c r="H35" s="313"/>
+      <c r="I35" s="314"/>
+      <c r="J35" s="315"/>
+      <c r="K35" s="316"/>
       <c r="L35" s="30"/>
       <c r="M35" s="27"/>
       <c r="N35" s="27"/>
@@ -8533,14 +8523,14 @@
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="310"/>
-      <c r="E36" s="311"/>
-      <c r="F36" s="310"/>
-      <c r="G36" s="311"/>
-      <c r="H36" s="310"/>
-      <c r="I36" s="311"/>
-      <c r="J36" s="312"/>
-      <c r="K36" s="313"/>
+      <c r="D36" s="313"/>
+      <c r="E36" s="314"/>
+      <c r="F36" s="313"/>
+      <c r="G36" s="314"/>
+      <c r="H36" s="313"/>
+      <c r="I36" s="314"/>
+      <c r="J36" s="315"/>
+      <c r="K36" s="316"/>
       <c r="L36" s="30"/>
       <c r="M36" s="27"/>
       <c r="N36" s="27"/>
@@ -8562,14 +8552,14 @@
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="310"/>
-      <c r="E37" s="311"/>
-      <c r="F37" s="310"/>
-      <c r="G37" s="311"/>
-      <c r="H37" s="310"/>
-      <c r="I37" s="311"/>
-      <c r="J37" s="312"/>
-      <c r="K37" s="313"/>
+      <c r="D37" s="313"/>
+      <c r="E37" s="314"/>
+      <c r="F37" s="313"/>
+      <c r="G37" s="314"/>
+      <c r="H37" s="313"/>
+      <c r="I37" s="314"/>
+      <c r="J37" s="315"/>
+      <c r="K37" s="316"/>
       <c r="L37" s="30"/>
       <c r="M37" s="27"/>
       <c r="N37" s="27"/>
@@ -8591,14 +8581,14 @@
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="314"/>
-      <c r="E38" s="315"/>
-      <c r="F38" s="314"/>
-      <c r="G38" s="315"/>
-      <c r="H38" s="314"/>
-      <c r="I38" s="315"/>
-      <c r="J38" s="316"/>
-      <c r="K38" s="317"/>
+      <c r="D38" s="319"/>
+      <c r="E38" s="320"/>
+      <c r="F38" s="319"/>
+      <c r="G38" s="320"/>
+      <c r="H38" s="319"/>
+      <c r="I38" s="320"/>
+      <c r="J38" s="321"/>
+      <c r="K38" s="322"/>
       <c r="L38" s="29"/>
       <c r="M38" s="28"/>
       <c r="N38" s="28"/>
@@ -8613,33 +8603,33 @@
       <c r="C39" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="294" t="e">
+      <c r="D39" s="332" t="e">
         <f>AVERAGE(D9:E38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="295"/>
-      <c r="F39" s="294" t="e">
+      <c r="E39" s="333"/>
+      <c r="F39" s="332" t="e">
         <f>AVERAGE(F9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="295"/>
-      <c r="H39" s="294" t="e">
+      <c r="G39" s="333"/>
+      <c r="H39" s="332" t="e">
         <f>AVERAGE(H9:I38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="295"/>
-      <c r="J39" s="296" t="e">
+      <c r="I39" s="333"/>
+      <c r="J39" s="334" t="e">
         <f>AVERAGE(J9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="297"/>
-      <c r="L39" s="298" t="e">
+      <c r="K39" s="335"/>
+      <c r="L39" s="336" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="299"/>
-      <c r="N39" s="299"/>
-      <c r="O39" s="300"/>
+      <c r="M39" s="337"/>
+      <c r="N39" s="337"/>
+      <c r="O39" s="338"/>
     </row>
     <row r="40" spans="1:15" s="11" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="5"/>
@@ -8647,33 +8637,33 @@
       <c r="C40" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="301">
+      <c r="D40" s="339">
         <f>MIN(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="302"/>
-      <c r="F40" s="303">
+      <c r="E40" s="340"/>
+      <c r="F40" s="341">
         <f>MIN(F9:G38)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="304"/>
-      <c r="H40" s="303">
+      <c r="G40" s="342"/>
+      <c r="H40" s="341">
         <f>MIN(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="304"/>
-      <c r="J40" s="305">
+      <c r="I40" s="342"/>
+      <c r="J40" s="343">
         <f>MIN(J9:K38)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="306"/>
-      <c r="L40" s="307" t="e">
+      <c r="K40" s="344"/>
+      <c r="L40" s="345" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="308"/>
-      <c r="N40" s="308"/>
-      <c r="O40" s="309"/>
+      <c r="M40" s="346"/>
+      <c r="N40" s="346"/>
+      <c r="O40" s="347"/>
     </row>
     <row r="41" spans="1:15" s="11" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="8"/>
@@ -8681,44 +8671,44 @@
       <c r="C41" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="285">
+      <c r="D41" s="323">
         <f>MAX(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="286"/>
-      <c r="F41" s="287">
+      <c r="E41" s="324"/>
+      <c r="F41" s="325">
         <f>MAX(F9:G38)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="288"/>
-      <c r="H41" s="287">
+      <c r="G41" s="326"/>
+      <c r="H41" s="325">
         <f>MAX(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="288"/>
-      <c r="J41" s="289">
+      <c r="I41" s="326"/>
+      <c r="J41" s="327">
         <f>MAX(J9:K38)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="290"/>
-      <c r="L41" s="291" t="e">
+      <c r="K41" s="328"/>
+      <c r="L41" s="329" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="292"/>
-      <c r="N41" s="292"/>
-      <c r="O41" s="293"/>
+      <c r="M41" s="330"/>
+      <c r="N41" s="330"/>
+      <c r="O41" s="331"/>
     </row>
     <row r="42" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="161"/>
-      <c r="C42" s="161"/>
-      <c r="D42" s="162" t="s">
+      <c r="B42" s="231"/>
+      <c r="C42" s="231"/>
+      <c r="D42" s="232" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="162"/>
+      <c r="E42" s="232"/>
       <c r="F42" s="36"/>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
@@ -8727,16 +8717,16 @@
       <c r="L42" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="M42" s="146"/>
-      <c r="N42" s="146"/>
+      <c r="M42" s="219"/>
+      <c r="N42" s="219"/>
       <c r="O42" s="35" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="35"/>
-      <c r="B43" s="141"/>
-      <c r="C43" s="141"/>
+      <c r="B43" s="214"/>
+      <c r="C43" s="214"/>
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="35"/>
@@ -8746,27 +8736,27 @@
       <c r="J43" s="37"/>
       <c r="K43" s="33"/>
       <c r="L43" s="37"/>
-      <c r="M43" s="147"/>
-      <c r="N43" s="147"/>
+      <c r="M43" s="220"/>
+      <c r="N43" s="220"/>
       <c r="O43" s="33"/>
     </row>
     <row r="44" spans="1:15" s="38" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="142" t="s">
+      <c r="A44" s="215" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="142"/>
-      <c r="C44" s="142"/>
+      <c r="B44" s="215"/>
+      <c r="C44" s="215"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
       <c r="G44" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H44" s="142" t="s">
+      <c r="H44" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="I44" s="142"/>
-      <c r="J44" s="142"/>
+      <c r="I44" s="215"/>
+      <c r="J44" s="215"/>
       <c r="K44" s="37"/>
       <c r="L44" s="37"/>
       <c r="M44" s="37"/>
@@ -8774,10 +8764,10 @@
       <c r="O44" s="37"/>
     </row>
     <row r="45" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="142" t="s">
+      <c r="A45" s="215" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="142"/>
+      <c r="B45" s="215"/>
       <c r="C45" s="35"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
@@ -8788,24 +8778,152 @@
       <c r="J45" s="37"/>
       <c r="K45" s="37"/>
       <c r="L45" s="37"/>
-      <c r="M45" s="143" t="s">
+      <c r="M45" s="216" t="s">
         <v>43</v>
       </c>
-      <c r="N45" s="143"/>
+      <c r="N45" s="216"/>
       <c r="O45" s="37"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="167">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:K6"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="A2:M3"/>
@@ -8827,169 +8945,41 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="M5:O5"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D38 D39:E41">
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="notBetween">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="notBetween">
       <formula>90.6</formula>
       <formula>98.6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F38 F39:G41">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="notBetween">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="notBetween">
       <formula>-5.1</formula>
       <formula>2.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H38 H39:I41">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="notBetween">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="notBetween">
       <formula>-3.6</formula>
       <formula>4.4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:J38 J39:K41">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:O41">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="greaterThan">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9017,61 +9007,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="261" t="s">
+      <c r="A1" s="235" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="261"/>
-      <c r="C1" s="261"/>
-      <c r="D1" s="261"/>
-      <c r="E1" s="261"/>
-      <c r="F1" s="261"/>
-      <c r="G1" s="261"/>
-      <c r="H1" s="261"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="261"/>
-      <c r="K1" s="261"/>
-      <c r="L1" s="261"/>
-      <c r="M1" s="261"/>
-      <c r="N1" s="158" t="s">
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="229" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="158"/>
+      <c r="O1" s="229"/>
     </row>
     <row r="2" spans="1:15" s="63" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="262" t="s">
+      <c r="A2" s="236" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="262"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262"/>
-      <c r="I2" s="262"/>
-      <c r="J2" s="262"/>
-      <c r="K2" s="262"/>
-      <c r="L2" s="262"/>
-      <c r="M2" s="262"/>
-      <c r="N2" s="159" t="s">
+      <c r="B2" s="236"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
+      <c r="K2" s="236"/>
+      <c r="L2" s="236"/>
+      <c r="M2" s="236"/>
+      <c r="N2" s="230" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="159"/>
+      <c r="O2" s="230"/>
     </row>
     <row r="3" spans="1:15" s="63" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="262"/>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="262"/>
-      <c r="E3" s="262"/>
-      <c r="F3" s="262"/>
-      <c r="G3" s="262"/>
-      <c r="H3" s="262"/>
-      <c r="I3" s="262"/>
-      <c r="J3" s="262"/>
-      <c r="K3" s="262"/>
-      <c r="L3" s="262"/>
-      <c r="M3" s="262"/>
+      <c r="A3" s="236"/>
+      <c r="B3" s="236"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="236"/>
+      <c r="M3" s="236"/>
       <c r="N3" s="39" t="s">
         <v>19</v>
       </c>
@@ -9081,84 +9071,84 @@
       <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="236">
+      <c r="B4" s="248">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="272"/>
-      <c r="D4" s="273"/>
-      <c r="E4" s="338" t="s">
+      <c r="C4" s="249"/>
+      <c r="D4" s="250"/>
+      <c r="E4" s="299" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="339"/>
-      <c r="G4" s="275">
+      <c r="F4" s="300"/>
+      <c r="G4" s="252">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="275"/>
+      <c r="H4" s="252"/>
       <c r="I4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="275">
+      <c r="J4" s="252">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="275"/>
+      <c r="K4" s="252"/>
       <c r="L4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="340">
+      <c r="M4" s="301">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="341"/>
-      <c r="O4" s="342"/>
+      <c r="N4" s="302"/>
+      <c r="O4" s="303"/>
     </row>
     <row r="5" spans="1:15" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="235">
+      <c r="B5" s="253">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="235"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="370" t="s">
+      <c r="C5" s="253"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="348" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="370"/>
-      <c r="G5" s="235">
+      <c r="F5" s="348"/>
+      <c r="G5" s="253">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="235"/>
+      <c r="H5" s="253"/>
       <c r="I5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="235">
+      <c r="J5" s="253">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="235"/>
+      <c r="K5" s="253"/>
       <c r="L5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="345">
+      <c r="M5" s="306">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="346"/>
-      <c r="O5" s="347"/>
+      <c r="N5" s="307"/>
+      <c r="O5" s="308"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A6" s="374" t="s">
+      <c r="A6" s="355" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="375"/>
-      <c r="C6" s="376"/>
-      <c r="D6" s="377"/>
-      <c r="E6" s="378"/>
+      <c r="B6" s="356"/>
+      <c r="C6" s="357"/>
+      <c r="D6" s="358"/>
+      <c r="E6" s="359"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -9171,38 +9161,38 @@
       <c r="O6" s="22"/>
     </row>
     <row r="7" spans="1:15" ht="15">
-      <c r="A7" s="379" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="380"/>
-      <c r="C7" s="381"/>
-      <c r="D7" s="385" t="s">
+      <c r="A7" s="360" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="361"/>
+      <c r="C7" s="362"/>
+      <c r="D7" s="366" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="386"/>
-      <c r="F7" s="245"/>
-      <c r="G7" s="245"/>
-      <c r="H7" s="245"/>
-      <c r="I7" s="245"/>
-      <c r="J7" s="368"/>
-      <c r="K7" s="368"/>
-      <c r="L7" s="368"/>
-      <c r="M7" s="368"/>
-      <c r="N7" s="368"/>
-      <c r="O7" s="371"/>
+      <c r="E7" s="367"/>
+      <c r="F7" s="266"/>
+      <c r="G7" s="266"/>
+      <c r="H7" s="266"/>
+      <c r="I7" s="266"/>
+      <c r="J7" s="349"/>
+      <c r="K7" s="349"/>
+      <c r="L7" s="349"/>
+      <c r="M7" s="349"/>
+      <c r="N7" s="349"/>
+      <c r="O7" s="350"/>
     </row>
     <row r="8" spans="1:15" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A8" s="382"/>
-      <c r="B8" s="383"/>
-      <c r="C8" s="384"/>
-      <c r="D8" s="387"/>
-      <c r="E8" s="388"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="369"/>
-      <c r="K8" s="369"/>
+      <c r="A8" s="363"/>
+      <c r="B8" s="364"/>
+      <c r="C8" s="365"/>
+      <c r="D8" s="368"/>
+      <c r="E8" s="369"/>
+      <c r="F8" s="216"/>
+      <c r="G8" s="216"/>
+      <c r="H8" s="216"/>
+      <c r="I8" s="216"/>
+      <c r="J8" s="372"/>
+      <c r="K8" s="372"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
@@ -9221,16 +9211,16 @@
         <f>Page1!C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="372">
-        <v>0</v>
-      </c>
-      <c r="E9" s="373"/>
-      <c r="F9" s="362"/>
-      <c r="G9" s="362"/>
-      <c r="H9" s="362"/>
-      <c r="I9" s="362"/>
-      <c r="J9" s="363"/>
-      <c r="K9" s="363"/>
+      <c r="D9" s="351">
+        <v>0</v>
+      </c>
+      <c r="E9" s="352"/>
+      <c r="F9" s="353"/>
+      <c r="G9" s="353"/>
+      <c r="H9" s="353"/>
+      <c r="I9" s="353"/>
+      <c r="J9" s="354"/>
+      <c r="K9" s="354"/>
       <c r="L9" s="31"/>
       <c r="M9" s="31"/>
       <c r="N9" s="31"/>
@@ -9249,16 +9239,16 @@
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="366">
-        <v>0</v>
-      </c>
-      <c r="E10" s="367"/>
-      <c r="F10" s="362"/>
-      <c r="G10" s="362"/>
-      <c r="H10" s="362"/>
-      <c r="I10" s="362"/>
-      <c r="J10" s="363"/>
-      <c r="K10" s="363"/>
+      <c r="D10" s="370">
+        <v>0</v>
+      </c>
+      <c r="E10" s="371"/>
+      <c r="F10" s="353"/>
+      <c r="G10" s="353"/>
+      <c r="H10" s="353"/>
+      <c r="I10" s="353"/>
+      <c r="J10" s="354"/>
+      <c r="K10" s="354"/>
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
       <c r="N10" s="31"/>
@@ -9277,16 +9267,16 @@
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="366">
-        <v>0</v>
-      </c>
-      <c r="E11" s="367"/>
-      <c r="F11" s="362"/>
-      <c r="G11" s="362"/>
-      <c r="H11" s="362"/>
-      <c r="I11" s="362"/>
-      <c r="J11" s="363"/>
-      <c r="K11" s="363"/>
+      <c r="D11" s="370">
+        <v>0</v>
+      </c>
+      <c r="E11" s="371"/>
+      <c r="F11" s="353"/>
+      <c r="G11" s="353"/>
+      <c r="H11" s="353"/>
+      <c r="I11" s="353"/>
+      <c r="J11" s="354"/>
+      <c r="K11" s="354"/>
       <c r="L11" s="31"/>
       <c r="M11" s="31"/>
       <c r="N11" s="31"/>
@@ -9305,16 +9295,16 @@
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="366">
-        <v>0</v>
-      </c>
-      <c r="E12" s="367"/>
-      <c r="F12" s="362"/>
-      <c r="G12" s="362"/>
-      <c r="H12" s="362"/>
-      <c r="I12" s="362"/>
-      <c r="J12" s="363"/>
-      <c r="K12" s="363"/>
+      <c r="D12" s="370">
+        <v>0</v>
+      </c>
+      <c r="E12" s="371"/>
+      <c r="F12" s="353"/>
+      <c r="G12" s="353"/>
+      <c r="H12" s="353"/>
+      <c r="I12" s="353"/>
+      <c r="J12" s="354"/>
+      <c r="K12" s="354"/>
       <c r="L12" s="31"/>
       <c r="M12" s="31"/>
       <c r="N12" s="31"/>
@@ -9333,16 +9323,16 @@
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="366">
-        <v>0</v>
-      </c>
-      <c r="E13" s="367"/>
-      <c r="F13" s="362"/>
-      <c r="G13" s="362"/>
-      <c r="H13" s="362"/>
-      <c r="I13" s="362"/>
-      <c r="J13" s="363"/>
-      <c r="K13" s="363"/>
+      <c r="D13" s="370">
+        <v>0</v>
+      </c>
+      <c r="E13" s="371"/>
+      <c r="F13" s="353"/>
+      <c r="G13" s="353"/>
+      <c r="H13" s="353"/>
+      <c r="I13" s="353"/>
+      <c r="J13" s="354"/>
+      <c r="K13" s="354"/>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
       <c r="N13" s="31"/>
@@ -9361,16 +9351,16 @@
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="366">
-        <v>0</v>
-      </c>
-      <c r="E14" s="367"/>
-      <c r="F14" s="362"/>
-      <c r="G14" s="362"/>
-      <c r="H14" s="362"/>
-      <c r="I14" s="362"/>
-      <c r="J14" s="363"/>
-      <c r="K14" s="363"/>
+      <c r="D14" s="370">
+        <v>0</v>
+      </c>
+      <c r="E14" s="371"/>
+      <c r="F14" s="353"/>
+      <c r="G14" s="353"/>
+      <c r="H14" s="353"/>
+      <c r="I14" s="353"/>
+      <c r="J14" s="354"/>
+      <c r="K14" s="354"/>
       <c r="L14" s="31"/>
       <c r="M14" s="31"/>
       <c r="N14" s="31"/>
@@ -9389,16 +9379,16 @@
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="366">
-        <v>0</v>
-      </c>
-      <c r="E15" s="367"/>
-      <c r="F15" s="362"/>
-      <c r="G15" s="362"/>
-      <c r="H15" s="362"/>
-      <c r="I15" s="362"/>
-      <c r="J15" s="363"/>
-      <c r="K15" s="363"/>
+      <c r="D15" s="370">
+        <v>0</v>
+      </c>
+      <c r="E15" s="371"/>
+      <c r="F15" s="353"/>
+      <c r="G15" s="353"/>
+      <c r="H15" s="353"/>
+      <c r="I15" s="353"/>
+      <c r="J15" s="354"/>
+      <c r="K15" s="354"/>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
       <c r="N15" s="31"/>
@@ -9417,16 +9407,16 @@
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="366">
-        <v>0</v>
-      </c>
-      <c r="E16" s="367"/>
-      <c r="F16" s="362"/>
-      <c r="G16" s="362"/>
-      <c r="H16" s="362"/>
-      <c r="I16" s="362"/>
-      <c r="J16" s="363"/>
-      <c r="K16" s="363"/>
+      <c r="D16" s="370">
+        <v>0</v>
+      </c>
+      <c r="E16" s="371"/>
+      <c r="F16" s="353"/>
+      <c r="G16" s="353"/>
+      <c r="H16" s="353"/>
+      <c r="I16" s="353"/>
+      <c r="J16" s="354"/>
+      <c r="K16" s="354"/>
       <c r="L16" s="31"/>
       <c r="M16" s="31"/>
       <c r="N16" s="31"/>
@@ -9445,16 +9435,16 @@
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="366">
-        <v>0</v>
-      </c>
-      <c r="E17" s="367"/>
-      <c r="F17" s="362"/>
-      <c r="G17" s="362"/>
-      <c r="H17" s="362"/>
-      <c r="I17" s="362"/>
-      <c r="J17" s="363"/>
-      <c r="K17" s="363"/>
+      <c r="D17" s="370">
+        <v>0</v>
+      </c>
+      <c r="E17" s="371"/>
+      <c r="F17" s="353"/>
+      <c r="G17" s="353"/>
+      <c r="H17" s="353"/>
+      <c r="I17" s="353"/>
+      <c r="J17" s="354"/>
+      <c r="K17" s="354"/>
       <c r="L17" s="31"/>
       <c r="M17" s="31"/>
       <c r="N17" s="31"/>
@@ -9473,16 +9463,16 @@
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="366">
-        <v>0</v>
-      </c>
-      <c r="E18" s="367"/>
-      <c r="F18" s="362"/>
-      <c r="G18" s="362"/>
-      <c r="H18" s="362"/>
-      <c r="I18" s="362"/>
-      <c r="J18" s="363"/>
-      <c r="K18" s="363"/>
+      <c r="D18" s="370">
+        <v>0</v>
+      </c>
+      <c r="E18" s="371"/>
+      <c r="F18" s="353"/>
+      <c r="G18" s="353"/>
+      <c r="H18" s="353"/>
+      <c r="I18" s="353"/>
+      <c r="J18" s="354"/>
+      <c r="K18" s="354"/>
       <c r="L18" s="31"/>
       <c r="M18" s="31"/>
       <c r="N18" s="31"/>
@@ -9501,16 +9491,16 @@
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="366">
-        <v>0</v>
-      </c>
-      <c r="E19" s="367"/>
-      <c r="F19" s="362"/>
-      <c r="G19" s="362"/>
-      <c r="H19" s="362"/>
-      <c r="I19" s="362"/>
-      <c r="J19" s="363"/>
-      <c r="K19" s="363"/>
+      <c r="D19" s="370">
+        <v>0</v>
+      </c>
+      <c r="E19" s="371"/>
+      <c r="F19" s="353"/>
+      <c r="G19" s="353"/>
+      <c r="H19" s="353"/>
+      <c r="I19" s="353"/>
+      <c r="J19" s="354"/>
+      <c r="K19" s="354"/>
       <c r="L19" s="31"/>
       <c r="M19" s="31"/>
       <c r="N19" s="31"/>
@@ -9529,16 +9519,16 @@
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="366">
-        <v>0</v>
-      </c>
-      <c r="E20" s="367"/>
-      <c r="F20" s="362"/>
-      <c r="G20" s="362"/>
-      <c r="H20" s="362"/>
-      <c r="I20" s="362"/>
-      <c r="J20" s="363"/>
-      <c r="K20" s="363"/>
+      <c r="D20" s="370">
+        <v>0</v>
+      </c>
+      <c r="E20" s="371"/>
+      <c r="F20" s="353"/>
+      <c r="G20" s="353"/>
+      <c r="H20" s="353"/>
+      <c r="I20" s="353"/>
+      <c r="J20" s="354"/>
+      <c r="K20" s="354"/>
       <c r="L20" s="31"/>
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
@@ -9557,16 +9547,16 @@
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="366">
-        <v>0</v>
-      </c>
-      <c r="E21" s="367"/>
-      <c r="F21" s="362"/>
-      <c r="G21" s="362"/>
-      <c r="H21" s="362"/>
-      <c r="I21" s="362"/>
-      <c r="J21" s="363"/>
-      <c r="K21" s="363"/>
+      <c r="D21" s="370">
+        <v>0</v>
+      </c>
+      <c r="E21" s="371"/>
+      <c r="F21" s="353"/>
+      <c r="G21" s="353"/>
+      <c r="H21" s="353"/>
+      <c r="I21" s="353"/>
+      <c r="J21" s="354"/>
+      <c r="K21" s="354"/>
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
@@ -9585,16 +9575,16 @@
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="366">
-        <v>0</v>
-      </c>
-      <c r="E22" s="367"/>
-      <c r="F22" s="362"/>
-      <c r="G22" s="362"/>
-      <c r="H22" s="362"/>
-      <c r="I22" s="362"/>
-      <c r="J22" s="363"/>
-      <c r="K22" s="363"/>
+      <c r="D22" s="370">
+        <v>0</v>
+      </c>
+      <c r="E22" s="371"/>
+      <c r="F22" s="353"/>
+      <c r="G22" s="353"/>
+      <c r="H22" s="353"/>
+      <c r="I22" s="353"/>
+      <c r="J22" s="354"/>
+      <c r="K22" s="354"/>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
       <c r="N22" s="31"/>
@@ -9613,16 +9603,16 @@
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="366">
-        <v>0</v>
-      </c>
-      <c r="E23" s="367"/>
-      <c r="F23" s="362"/>
-      <c r="G23" s="362"/>
-      <c r="H23" s="362"/>
-      <c r="I23" s="362"/>
-      <c r="J23" s="363"/>
-      <c r="K23" s="363"/>
+      <c r="D23" s="370">
+        <v>0</v>
+      </c>
+      <c r="E23" s="371"/>
+      <c r="F23" s="353"/>
+      <c r="G23" s="353"/>
+      <c r="H23" s="353"/>
+      <c r="I23" s="353"/>
+      <c r="J23" s="354"/>
+      <c r="K23" s="354"/>
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
       <c r="N23" s="31"/>
@@ -9641,16 +9631,16 @@
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="366">
-        <v>0</v>
-      </c>
-      <c r="E24" s="367"/>
-      <c r="F24" s="362"/>
-      <c r="G24" s="362"/>
-      <c r="H24" s="362"/>
-      <c r="I24" s="362"/>
-      <c r="J24" s="363"/>
-      <c r="K24" s="363"/>
+      <c r="D24" s="370">
+        <v>0</v>
+      </c>
+      <c r="E24" s="371"/>
+      <c r="F24" s="353"/>
+      <c r="G24" s="353"/>
+      <c r="H24" s="353"/>
+      <c r="I24" s="353"/>
+      <c r="J24" s="354"/>
+      <c r="K24" s="354"/>
       <c r="L24" s="31"/>
       <c r="M24" s="31"/>
       <c r="N24" s="31"/>
@@ -9669,16 +9659,16 @@
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="366">
-        <v>0</v>
-      </c>
-      <c r="E25" s="367"/>
-      <c r="F25" s="362"/>
-      <c r="G25" s="362"/>
-      <c r="H25" s="362"/>
-      <c r="I25" s="362"/>
-      <c r="J25" s="363"/>
-      <c r="K25" s="363"/>
+      <c r="D25" s="370">
+        <v>0</v>
+      </c>
+      <c r="E25" s="371"/>
+      <c r="F25" s="353"/>
+      <c r="G25" s="353"/>
+      <c r="H25" s="353"/>
+      <c r="I25" s="353"/>
+      <c r="J25" s="354"/>
+      <c r="K25" s="354"/>
       <c r="L25" s="31"/>
       <c r="M25" s="31"/>
       <c r="N25" s="31"/>
@@ -9697,16 +9687,16 @@
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="366">
-        <v>0</v>
-      </c>
-      <c r="E26" s="367"/>
-      <c r="F26" s="362"/>
-      <c r="G26" s="362"/>
-      <c r="H26" s="362"/>
-      <c r="I26" s="362"/>
-      <c r="J26" s="363"/>
-      <c r="K26" s="363"/>
+      <c r="D26" s="370">
+        <v>0</v>
+      </c>
+      <c r="E26" s="371"/>
+      <c r="F26" s="353"/>
+      <c r="G26" s="353"/>
+      <c r="H26" s="353"/>
+      <c r="I26" s="353"/>
+      <c r="J26" s="354"/>
+      <c r="K26" s="354"/>
       <c r="L26" s="31"/>
       <c r="M26" s="31"/>
       <c r="N26" s="31"/>
@@ -9725,16 +9715,16 @@
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="366">
-        <v>0</v>
-      </c>
-      <c r="E27" s="367"/>
-      <c r="F27" s="362"/>
-      <c r="G27" s="362"/>
-      <c r="H27" s="362"/>
-      <c r="I27" s="362"/>
-      <c r="J27" s="363"/>
-      <c r="K27" s="363"/>
+      <c r="D27" s="370">
+        <v>0</v>
+      </c>
+      <c r="E27" s="371"/>
+      <c r="F27" s="353"/>
+      <c r="G27" s="353"/>
+      <c r="H27" s="353"/>
+      <c r="I27" s="353"/>
+      <c r="J27" s="354"/>
+      <c r="K27" s="354"/>
       <c r="L27" s="31"/>
       <c r="M27" s="31"/>
       <c r="N27" s="31"/>
@@ -9753,16 +9743,16 @@
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="366">
-        <v>0</v>
-      </c>
-      <c r="E28" s="367"/>
-      <c r="F28" s="362"/>
-      <c r="G28" s="362"/>
-      <c r="H28" s="362"/>
-      <c r="I28" s="362"/>
-      <c r="J28" s="363"/>
-      <c r="K28" s="363"/>
+      <c r="D28" s="370">
+        <v>0</v>
+      </c>
+      <c r="E28" s="371"/>
+      <c r="F28" s="353"/>
+      <c r="G28" s="353"/>
+      <c r="H28" s="353"/>
+      <c r="I28" s="353"/>
+      <c r="J28" s="354"/>
+      <c r="K28" s="354"/>
       <c r="L28" s="31"/>
       <c r="M28" s="31"/>
       <c r="N28" s="31"/>
@@ -9781,16 +9771,16 @@
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="366">
-        <v>0</v>
-      </c>
-      <c r="E29" s="367"/>
-      <c r="F29" s="362"/>
-      <c r="G29" s="362"/>
-      <c r="H29" s="362"/>
-      <c r="I29" s="362"/>
-      <c r="J29" s="363"/>
-      <c r="K29" s="363"/>
+      <c r="D29" s="370">
+        <v>0</v>
+      </c>
+      <c r="E29" s="371"/>
+      <c r="F29" s="353"/>
+      <c r="G29" s="353"/>
+      <c r="H29" s="353"/>
+      <c r="I29" s="353"/>
+      <c r="J29" s="354"/>
+      <c r="K29" s="354"/>
       <c r="L29" s="31"/>
       <c r="M29" s="31"/>
       <c r="N29" s="31"/>
@@ -9809,16 +9799,16 @@
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="366">
-        <v>0</v>
-      </c>
-      <c r="E30" s="367"/>
-      <c r="F30" s="362"/>
-      <c r="G30" s="362"/>
-      <c r="H30" s="362"/>
-      <c r="I30" s="362"/>
-      <c r="J30" s="363"/>
-      <c r="K30" s="363"/>
+      <c r="D30" s="370">
+        <v>0</v>
+      </c>
+      <c r="E30" s="371"/>
+      <c r="F30" s="353"/>
+      <c r="G30" s="353"/>
+      <c r="H30" s="353"/>
+      <c r="I30" s="353"/>
+      <c r="J30" s="354"/>
+      <c r="K30" s="354"/>
       <c r="L30" s="31"/>
       <c r="M30" s="31"/>
       <c r="N30" s="31"/>
@@ -9837,16 +9827,16 @@
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="366">
-        <v>0</v>
-      </c>
-      <c r="E31" s="367"/>
-      <c r="F31" s="362"/>
-      <c r="G31" s="362"/>
-      <c r="H31" s="362"/>
-      <c r="I31" s="362"/>
-      <c r="J31" s="363"/>
-      <c r="K31" s="363"/>
+      <c r="D31" s="370">
+        <v>0</v>
+      </c>
+      <c r="E31" s="371"/>
+      <c r="F31" s="353"/>
+      <c r="G31" s="353"/>
+      <c r="H31" s="353"/>
+      <c r="I31" s="353"/>
+      <c r="J31" s="354"/>
+      <c r="K31" s="354"/>
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
       <c r="N31" s="31"/>
@@ -9865,16 +9855,16 @@
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="366">
-        <v>0</v>
-      </c>
-      <c r="E32" s="367"/>
-      <c r="F32" s="362"/>
-      <c r="G32" s="362"/>
-      <c r="H32" s="362"/>
-      <c r="I32" s="362"/>
-      <c r="J32" s="363"/>
-      <c r="K32" s="363"/>
+      <c r="D32" s="370">
+        <v>0</v>
+      </c>
+      <c r="E32" s="371"/>
+      <c r="F32" s="353"/>
+      <c r="G32" s="353"/>
+      <c r="H32" s="353"/>
+      <c r="I32" s="353"/>
+      <c r="J32" s="354"/>
+      <c r="K32" s="354"/>
       <c r="L32" s="31"/>
       <c r="M32" s="31"/>
       <c r="N32" s="31"/>
@@ -9893,16 +9883,16 @@
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="366">
-        <v>0</v>
-      </c>
-      <c r="E33" s="367"/>
-      <c r="F33" s="362"/>
-      <c r="G33" s="362"/>
-      <c r="H33" s="362"/>
-      <c r="I33" s="362"/>
-      <c r="J33" s="363"/>
-      <c r="K33" s="363"/>
+      <c r="D33" s="370">
+        <v>0</v>
+      </c>
+      <c r="E33" s="371"/>
+      <c r="F33" s="353"/>
+      <c r="G33" s="353"/>
+      <c r="H33" s="353"/>
+      <c r="I33" s="353"/>
+      <c r="J33" s="354"/>
+      <c r="K33" s="354"/>
       <c r="L33" s="31"/>
       <c r="M33" s="31"/>
       <c r="N33" s="31"/>
@@ -9921,16 +9911,16 @@
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="366">
-        <v>0</v>
-      </c>
-      <c r="E34" s="367"/>
-      <c r="F34" s="362"/>
-      <c r="G34" s="362"/>
-      <c r="H34" s="362"/>
-      <c r="I34" s="362"/>
-      <c r="J34" s="363"/>
-      <c r="K34" s="363"/>
+      <c r="D34" s="370">
+        <v>0</v>
+      </c>
+      <c r="E34" s="371"/>
+      <c r="F34" s="353"/>
+      <c r="G34" s="353"/>
+      <c r="H34" s="353"/>
+      <c r="I34" s="353"/>
+      <c r="J34" s="354"/>
+      <c r="K34" s="354"/>
       <c r="L34" s="31"/>
       <c r="M34" s="31"/>
       <c r="N34" s="31"/>
@@ -9949,16 +9939,16 @@
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="366">
-        <v>0</v>
-      </c>
-      <c r="E35" s="367"/>
-      <c r="F35" s="362"/>
-      <c r="G35" s="362"/>
-      <c r="H35" s="362"/>
-      <c r="I35" s="362"/>
-      <c r="J35" s="363"/>
-      <c r="K35" s="363"/>
+      <c r="D35" s="370">
+        <v>0</v>
+      </c>
+      <c r="E35" s="371"/>
+      <c r="F35" s="353"/>
+      <c r="G35" s="353"/>
+      <c r="H35" s="353"/>
+      <c r="I35" s="353"/>
+      <c r="J35" s="354"/>
+      <c r="K35" s="354"/>
       <c r="L35" s="31"/>
       <c r="M35" s="31"/>
       <c r="N35" s="31"/>
@@ -9977,16 +9967,16 @@
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="366">
-        <v>0</v>
-      </c>
-      <c r="E36" s="367"/>
-      <c r="F36" s="362"/>
-      <c r="G36" s="362"/>
-      <c r="H36" s="362"/>
-      <c r="I36" s="362"/>
-      <c r="J36" s="363"/>
-      <c r="K36" s="363"/>
+      <c r="D36" s="370">
+        <v>0</v>
+      </c>
+      <c r="E36" s="371"/>
+      <c r="F36" s="353"/>
+      <c r="G36" s="353"/>
+      <c r="H36" s="353"/>
+      <c r="I36" s="353"/>
+      <c r="J36" s="354"/>
+      <c r="K36" s="354"/>
       <c r="L36" s="31"/>
       <c r="M36" s="31"/>
       <c r="N36" s="31"/>
@@ -10005,16 +9995,16 @@
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="366">
-        <v>0</v>
-      </c>
-      <c r="E37" s="367"/>
-      <c r="F37" s="362"/>
-      <c r="G37" s="362"/>
-      <c r="H37" s="362"/>
-      <c r="I37" s="362"/>
-      <c r="J37" s="363"/>
-      <c r="K37" s="363"/>
+      <c r="D37" s="370">
+        <v>0</v>
+      </c>
+      <c r="E37" s="371"/>
+      <c r="F37" s="353"/>
+      <c r="G37" s="353"/>
+      <c r="H37" s="353"/>
+      <c r="I37" s="353"/>
+      <c r="J37" s="354"/>
+      <c r="K37" s="354"/>
       <c r="L37" s="31"/>
       <c r="M37" s="31"/>
       <c r="N37" s="31"/>
@@ -10033,16 +10023,16 @@
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="360">
-        <v>0</v>
-      </c>
-      <c r="E38" s="361"/>
-      <c r="F38" s="362"/>
-      <c r="G38" s="362"/>
-      <c r="H38" s="362"/>
-      <c r="I38" s="362"/>
-      <c r="J38" s="363"/>
-      <c r="K38" s="363"/>
+      <c r="D38" s="373">
+        <v>0</v>
+      </c>
+      <c r="E38" s="374"/>
+      <c r="F38" s="353"/>
+      <c r="G38" s="353"/>
+      <c r="H38" s="353"/>
+      <c r="I38" s="353"/>
+      <c r="J38" s="354"/>
+      <c r="K38" s="354"/>
       <c r="L38" s="31"/>
       <c r="M38" s="31"/>
       <c r="N38" s="31"/>
@@ -10054,21 +10044,21 @@
       <c r="C39" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="364">
+      <c r="D39" s="375">
         <f>AVERAGE(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="365"/>
-      <c r="F39" s="358"/>
-      <c r="G39" s="358"/>
-      <c r="H39" s="358"/>
-      <c r="I39" s="358"/>
-      <c r="J39" s="359"/>
-      <c r="K39" s="359"/>
-      <c r="L39" s="354"/>
-      <c r="M39" s="354"/>
-      <c r="N39" s="354"/>
-      <c r="O39" s="355"/>
+      <c r="E39" s="376"/>
+      <c r="F39" s="377"/>
+      <c r="G39" s="377"/>
+      <c r="H39" s="377"/>
+      <c r="I39" s="377"/>
+      <c r="J39" s="378"/>
+      <c r="K39" s="378"/>
+      <c r="L39" s="385"/>
+      <c r="M39" s="385"/>
+      <c r="N39" s="385"/>
+      <c r="O39" s="386"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1">
       <c r="A40" s="5"/>
@@ -10076,21 +10066,21 @@
       <c r="C40" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="356">
+      <c r="D40" s="387">
         <f>MIN(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="357"/>
-      <c r="F40" s="358"/>
-      <c r="G40" s="358"/>
-      <c r="H40" s="358"/>
-      <c r="I40" s="358"/>
-      <c r="J40" s="359"/>
-      <c r="K40" s="359"/>
-      <c r="L40" s="354"/>
-      <c r="M40" s="354"/>
-      <c r="N40" s="354"/>
-      <c r="O40" s="355"/>
+      <c r="E40" s="388"/>
+      <c r="F40" s="377"/>
+      <c r="G40" s="377"/>
+      <c r="H40" s="377"/>
+      <c r="I40" s="377"/>
+      <c r="J40" s="378"/>
+      <c r="K40" s="378"/>
+      <c r="L40" s="385"/>
+      <c r="M40" s="385"/>
+      <c r="N40" s="385"/>
+      <c r="O40" s="386"/>
     </row>
     <row r="41" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="8"/>
@@ -10098,32 +10088,32 @@
       <c r="C41" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="348">
+      <c r="D41" s="379">
         <f>MAX(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="349"/>
-      <c r="F41" s="350"/>
-      <c r="G41" s="350"/>
-      <c r="H41" s="350"/>
-      <c r="I41" s="350"/>
-      <c r="J41" s="351"/>
-      <c r="K41" s="351"/>
-      <c r="L41" s="352"/>
-      <c r="M41" s="352"/>
-      <c r="N41" s="352"/>
-      <c r="O41" s="353"/>
+      <c r="E41" s="380"/>
+      <c r="F41" s="381"/>
+      <c r="G41" s="381"/>
+      <c r="H41" s="381"/>
+      <c r="I41" s="381"/>
+      <c r="J41" s="382"/>
+      <c r="K41" s="382"/>
+      <c r="L41" s="383"/>
+      <c r="M41" s="383"/>
+      <c r="N41" s="383"/>
+      <c r="O41" s="384"/>
     </row>
     <row r="42" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="161"/>
-      <c r="C42" s="161"/>
-      <c r="D42" s="162" t="s">
+      <c r="B42" s="231"/>
+      <c r="C42" s="231"/>
+      <c r="D42" s="232" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="162"/>
+      <c r="E42" s="232"/>
       <c r="F42" s="36"/>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
@@ -10132,16 +10122,16 @@
       <c r="L42" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="M42" s="146"/>
-      <c r="N42" s="146"/>
+      <c r="M42" s="219"/>
+      <c r="N42" s="219"/>
       <c r="O42" s="35" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="35"/>
-      <c r="B43" s="141"/>
-      <c r="C43" s="141"/>
+      <c r="B43" s="214"/>
+      <c r="C43" s="214"/>
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="35"/>
@@ -10151,37 +10141,37 @@
       <c r="J43" s="37"/>
       <c r="K43" s="33"/>
       <c r="L43" s="37"/>
-      <c r="M43" s="147"/>
-      <c r="N43" s="147"/>
+      <c r="M43" s="220"/>
+      <c r="N43" s="220"/>
       <c r="O43" s="33"/>
     </row>
     <row r="44" spans="1:15" s="38" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="142" t="s">
+      <c r="A44" s="215" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="142"/>
-      <c r="C44" s="142"/>
+      <c r="B44" s="215"/>
+      <c r="C44" s="215"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
       <c r="G44" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H44" s="142" t="s">
+      <c r="H44" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="I44" s="142"/>
-      <c r="J44" s="142"/>
+      <c r="I44" s="215"/>
+      <c r="J44" s="215"/>
       <c r="K44" s="37"/>
       <c r="L44" s="37"/>
       <c r="M44" s="37"/>
       <c r="N44" s="37"/>
     </row>
     <row r="45" spans="1:15" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="142" t="s">
+      <c r="A45" s="215" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="142"/>
+      <c r="B45" s="215"/>
       <c r="C45" s="35"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
@@ -10192,33 +10182,147 @@
       <c r="J45" s="37"/>
       <c r="K45" s="37"/>
       <c r="L45" s="37"/>
-      <c r="M45" s="143" t="s">
+      <c r="M45" s="216" t="s">
         <v>44</v>
       </c>
-      <c r="N45" s="143"/>
+      <c r="N45" s="216"/>
       <c r="O45" s="37"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="166">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J7:K8"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
@@ -10235,158 +10339,44 @@
     <mergeCell ref="D7:E8"/>
     <mergeCell ref="F7:G8"/>
     <mergeCell ref="H7:I8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
   </mergeCells>
   <conditionalFormatting sqref="F9:F38 F39:G41">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="notBetween">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="notBetween">
       <formula>-5.1</formula>
       <formula>2.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H38 H39:I41">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="notBetween">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="notBetween">
       <formula>-3.6</formula>
       <formula>4.4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:J38 J39:K41">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:O41">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10418,12 +10408,12 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="115" customWidth="1"/>
+    <col min="1" max="1" width="17" style="115" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="115" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="115" customWidth="1"/>
     <col min="4" max="4" width="17" style="115" customWidth="1"/>
@@ -10530,7 +10520,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="107"/>
+      <c r="A3" s="389"/>
       <c r="B3" s="108">
         <f t="array" ref="B3">TRANSPOSE(Page1!C8)</f>
         <v>0</v>
@@ -10584,7 +10574,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="107"/>
+      <c r="A4" s="389"/>
       <c r="B4" s="108">
         <f t="array" ref="B4">TRANSPOSE(Page1!C9)</f>
         <v>0</v>
@@ -10639,7 +10629,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="107"/>
+      <c r="A5" s="389"/>
       <c r="B5" s="108">
         <f t="array" ref="B5">TRANSPOSE(Page1!C10)</f>
         <v>0</v>
@@ -10694,7 +10684,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="107"/>
+      <c r="A6" s="389"/>
       <c r="B6" s="108">
         <f t="array" ref="B6">TRANSPOSE(Page1!C11)</f>
         <v>0</v>
@@ -10749,7 +10739,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="107"/>
+      <c r="A7" s="389"/>
       <c r="B7" s="108">
         <f t="array" ref="B7">TRANSPOSE(Page1!C12)</f>
         <v>0</v>
@@ -10804,7 +10794,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="107"/>
+      <c r="A8" s="389"/>
       <c r="B8" s="108">
         <f t="array" ref="B8">TRANSPOSE(Page1!C13)</f>
         <v>0</v>
@@ -10859,7 +10849,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="107"/>
+      <c r="A9" s="389"/>
       <c r="B9" s="108">
         <f t="array" ref="B9">TRANSPOSE(Page1!C14)</f>
         <v>0</v>
@@ -10914,7 +10904,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="107"/>
+      <c r="A10" s="389"/>
       <c r="B10" s="108">
         <f t="array" ref="B10">TRANSPOSE(Page1!C15)</f>
         <v>0</v>
@@ -10969,7 +10959,7 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="107"/>
+      <c r="A11" s="389"/>
       <c r="B11" s="108">
         <f t="array" ref="B11">TRANSPOSE(Page1!C16)</f>
         <v>0</v>
@@ -11024,7 +11014,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="107"/>
+      <c r="A12" s="389"/>
       <c r="B12" s="108">
         <f t="array" ref="B12">TRANSPOSE(Page1!C17)</f>
         <v>0</v>
@@ -11079,7 +11069,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="107"/>
+      <c r="A13" s="389"/>
       <c r="B13" s="108">
         <f t="array" ref="B13">TRANSPOSE(Page1!C18)</f>
         <v>0</v>
@@ -11134,7 +11124,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="107"/>
+      <c r="A14" s="389"/>
       <c r="B14" s="108">
         <f t="array" ref="B14">TRANSPOSE(Page1!C19)</f>
         <v>0</v>
@@ -11189,7 +11179,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="107"/>
+      <c r="A15" s="389"/>
       <c r="B15" s="108">
         <f t="array" ref="B15">TRANSPOSE(Page1!C20)</f>
         <v>0</v>
@@ -11244,7 +11234,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="107"/>
+      <c r="A16" s="389"/>
       <c r="B16" s="108">
         <f t="array" ref="B16">TRANSPOSE(Page1!C21)</f>
         <v>0</v>
@@ -11299,7 +11289,7 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="107"/>
+      <c r="A17" s="389"/>
       <c r="B17" s="108">
         <f t="array" ref="B17">TRANSPOSE(Page1!C22)</f>
         <v>0</v>
@@ -11354,7 +11344,7 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="107"/>
+      <c r="A18" s="389"/>
       <c r="B18" s="108">
         <f t="array" ref="B18">TRANSPOSE(Page1!C23)</f>
         <v>0</v>
@@ -11409,7 +11399,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="107"/>
+      <c r="A19" s="389"/>
       <c r="B19" s="108">
         <f t="array" ref="B19">TRANSPOSE(Page1!C24)</f>
         <v>0</v>
@@ -11464,7 +11454,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="107"/>
+      <c r="A20" s="389"/>
       <c r="B20" s="108">
         <f t="array" ref="B20">TRANSPOSE(Page1!C25)</f>
         <v>0</v>
@@ -11519,7 +11509,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="107"/>
+      <c r="A21" s="389"/>
       <c r="B21" s="108">
         <f t="array" ref="B21">TRANSPOSE(Page1!C26)</f>
         <v>0</v>
@@ -11574,7 +11564,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="107"/>
+      <c r="A22" s="389"/>
       <c r="B22" s="108">
         <f t="array" ref="B22">TRANSPOSE(Page1!C27)</f>
         <v>0</v>
@@ -11629,7 +11619,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="107"/>
+      <c r="A23" s="389"/>
       <c r="B23" s="108">
         <f t="array" ref="B23">TRANSPOSE(Page1!C28)</f>
         <v>0</v>
@@ -11684,7 +11674,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="107"/>
+      <c r="A24" s="389"/>
       <c r="B24" s="108">
         <f t="array" ref="B24">TRANSPOSE(Page1!C29)</f>
         <v>0</v>
@@ -11739,7 +11729,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="107"/>
+      <c r="A25" s="389"/>
       <c r="B25" s="108">
         <f t="array" ref="B25">TRANSPOSE(Page1!C30)</f>
         <v>0</v>
@@ -11794,7 +11784,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="107"/>
+      <c r="A26" s="389"/>
       <c r="B26" s="108">
         <f t="array" ref="B26">TRANSPOSE(Page1!C31)</f>
         <v>0</v>
@@ -11849,7 +11839,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="107"/>
+      <c r="A27" s="389"/>
       <c r="B27" s="108">
         <f t="array" ref="B27">TRANSPOSE(Page1!C32)</f>
         <v>0</v>
@@ -11904,7 +11894,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="107"/>
+      <c r="A28" s="389"/>
       <c r="B28" s="108">
         <f t="array" ref="B28">TRANSPOSE(Page1!C33)</f>
         <v>0</v>
@@ -11959,7 +11949,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="107"/>
+      <c r="A29" s="389"/>
       <c r="B29" s="108">
         <f t="array" ref="B29">TRANSPOSE(Page1!C34)</f>
         <v>0</v>
@@ -12014,7 +12004,7 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="107"/>
+      <c r="A30" s="389"/>
       <c r="B30" s="108">
         <f t="array" ref="B30">TRANSPOSE(Page1!C35)</f>
         <v>0</v>
@@ -12069,7 +12059,7 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="107"/>
+      <c r="A31" s="389"/>
       <c r="B31" s="108">
         <f t="array" ref="B31">TRANSPOSE(Page1!C36)</f>
         <v>0</v>
@@ -15766,10 +15756,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AT3:AT17">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",AT3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",AT3)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/backend/templates/168-16c-white.xlsx
+++ b/backend/templates/168-16c-white.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BED6CD-D1AA-4BEA-ABD6-9B983DB86C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FC1489-5C1B-42C0-87E1-B6EB36C462B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1473,7 +1473,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="390">
+  <cellXfs count="389">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2770,10 +2770,6 @@
     </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10408,12 +10404,12 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17" style="115" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="115" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="115" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="115" customWidth="1"/>
     <col min="4" max="4" width="17" style="115" customWidth="1"/>
@@ -10520,7 +10516,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="389"/>
+      <c r="A3" s="107"/>
       <c r="B3" s="108">
         <f t="array" ref="B3">TRANSPOSE(Page1!C8)</f>
         <v>0</v>
@@ -10574,7 +10570,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="389"/>
+      <c r="A4" s="107"/>
       <c r="B4" s="108">
         <f t="array" ref="B4">TRANSPOSE(Page1!C9)</f>
         <v>0</v>
@@ -10629,7 +10625,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="389"/>
+      <c r="A5" s="107"/>
       <c r="B5" s="108">
         <f t="array" ref="B5">TRANSPOSE(Page1!C10)</f>
         <v>0</v>
@@ -10684,7 +10680,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="389"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="108">
         <f t="array" ref="B6">TRANSPOSE(Page1!C11)</f>
         <v>0</v>
@@ -10739,7 +10735,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="389"/>
+      <c r="A7" s="107"/>
       <c r="B7" s="108">
         <f t="array" ref="B7">TRANSPOSE(Page1!C12)</f>
         <v>0</v>
@@ -10794,7 +10790,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="389"/>
+      <c r="A8" s="107"/>
       <c r="B8" s="108">
         <f t="array" ref="B8">TRANSPOSE(Page1!C13)</f>
         <v>0</v>
@@ -10849,7 +10845,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="389"/>
+      <c r="A9" s="107"/>
       <c r="B9" s="108">
         <f t="array" ref="B9">TRANSPOSE(Page1!C14)</f>
         <v>0</v>
@@ -10904,7 +10900,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="389"/>
+      <c r="A10" s="107"/>
       <c r="B10" s="108">
         <f t="array" ref="B10">TRANSPOSE(Page1!C15)</f>
         <v>0</v>
@@ -10959,7 +10955,7 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="389"/>
+      <c r="A11" s="107"/>
       <c r="B11" s="108">
         <f t="array" ref="B11">TRANSPOSE(Page1!C16)</f>
         <v>0</v>
@@ -11014,7 +11010,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="389"/>
+      <c r="A12" s="107"/>
       <c r="B12" s="108">
         <f t="array" ref="B12">TRANSPOSE(Page1!C17)</f>
         <v>0</v>
@@ -11069,7 +11065,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="389"/>
+      <c r="A13" s="107"/>
       <c r="B13" s="108">
         <f t="array" ref="B13">TRANSPOSE(Page1!C18)</f>
         <v>0</v>
@@ -11124,7 +11120,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="389"/>
+      <c r="A14" s="107"/>
       <c r="B14" s="108">
         <f t="array" ref="B14">TRANSPOSE(Page1!C19)</f>
         <v>0</v>
@@ -11179,7 +11175,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="389"/>
+      <c r="A15" s="107"/>
       <c r="B15" s="108">
         <f t="array" ref="B15">TRANSPOSE(Page1!C20)</f>
         <v>0</v>
@@ -11234,7 +11230,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="389"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="108">
         <f t="array" ref="B16">TRANSPOSE(Page1!C21)</f>
         <v>0</v>
@@ -11289,7 +11285,7 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="389"/>
+      <c r="A17" s="107"/>
       <c r="B17" s="108">
         <f t="array" ref="B17">TRANSPOSE(Page1!C22)</f>
         <v>0</v>
@@ -11344,7 +11340,7 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="389"/>
+      <c r="A18" s="107"/>
       <c r="B18" s="108">
         <f t="array" ref="B18">TRANSPOSE(Page1!C23)</f>
         <v>0</v>
@@ -11399,7 +11395,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="389"/>
+      <c r="A19" s="107"/>
       <c r="B19" s="108">
         <f t="array" ref="B19">TRANSPOSE(Page1!C24)</f>
         <v>0</v>
@@ -11454,7 +11450,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="389"/>
+      <c r="A20" s="107"/>
       <c r="B20" s="108">
         <f t="array" ref="B20">TRANSPOSE(Page1!C25)</f>
         <v>0</v>
@@ -11509,7 +11505,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="389"/>
+      <c r="A21" s="107"/>
       <c r="B21" s="108">
         <f t="array" ref="B21">TRANSPOSE(Page1!C26)</f>
         <v>0</v>
@@ -11564,7 +11560,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="389"/>
+      <c r="A22" s="107"/>
       <c r="B22" s="108">
         <f t="array" ref="B22">TRANSPOSE(Page1!C27)</f>
         <v>0</v>
@@ -11619,7 +11615,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="389"/>
+      <c r="A23" s="107"/>
       <c r="B23" s="108">
         <f t="array" ref="B23">TRANSPOSE(Page1!C28)</f>
         <v>0</v>
@@ -11674,7 +11670,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="389"/>
+      <c r="A24" s="107"/>
       <c r="B24" s="108">
         <f t="array" ref="B24">TRANSPOSE(Page1!C29)</f>
         <v>0</v>
@@ -11729,7 +11725,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="389"/>
+      <c r="A25" s="107"/>
       <c r="B25" s="108">
         <f t="array" ref="B25">TRANSPOSE(Page1!C30)</f>
         <v>0</v>
@@ -11784,7 +11780,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="389"/>
+      <c r="A26" s="107"/>
       <c r="B26" s="108">
         <f t="array" ref="B26">TRANSPOSE(Page1!C31)</f>
         <v>0</v>
@@ -11839,7 +11835,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="389"/>
+      <c r="A27" s="107"/>
       <c r="B27" s="108">
         <f t="array" ref="B27">TRANSPOSE(Page1!C32)</f>
         <v>0</v>
@@ -11894,7 +11890,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="389"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="108">
         <f t="array" ref="B28">TRANSPOSE(Page1!C33)</f>
         <v>0</v>
@@ -11949,7 +11945,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="389"/>
+      <c r="A29" s="107"/>
       <c r="B29" s="108">
         <f t="array" ref="B29">TRANSPOSE(Page1!C34)</f>
         <v>0</v>
@@ -12004,7 +12000,7 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="389"/>
+      <c r="A30" s="107"/>
       <c r="B30" s="108">
         <f t="array" ref="B30">TRANSPOSE(Page1!C35)</f>
         <v>0</v>
@@ -12059,7 +12055,7 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="389"/>
+      <c r="A31" s="107"/>
       <c r="B31" s="108">
         <f t="array" ref="B31">TRANSPOSE(Page1!C36)</f>
         <v>0</v>
